--- a/left_shoulder_Data.xlsx
+++ b/left_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>500.0132751464844</v>
+        <v>410.8804626464844</v>
       </c>
       <c r="C2" t="n">
-        <v>499.0425415039062</v>
+        <v>410.6481323242188</v>
       </c>
       <c r="D2" t="n">
-        <v>498.0871276855469</v>
+        <v>410.2335205078125</v>
       </c>
       <c r="E2" t="n">
-        <v>498.7191772460938</v>
+        <v>409.5886535644531</v>
       </c>
       <c r="F2" t="n">
-        <v>499.64990234375</v>
+        <v>409.2428894042969</v>
       </c>
       <c r="G2" t="n">
-        <v>499.7879333496094</v>
+        <v>408.9899291992188</v>
       </c>
       <c r="H2" t="n">
-        <v>499.8363952636719</v>
+        <v>408.775390625</v>
       </c>
       <c r="I2" t="n">
-        <v>499.3737182617188</v>
+        <v>408.6332397460938</v>
       </c>
       <c r="J2" t="n">
-        <v>499.0560302734375</v>
+        <v>408.5264282226562</v>
       </c>
       <c r="K2" t="n">
-        <v>498.000732421875</v>
+        <v>408.4264526367188</v>
       </c>
       <c r="L2" t="n">
-        <v>497.4200134277344</v>
+        <v>408.3219604492188</v>
       </c>
       <c r="M2" t="n">
-        <v>496.879638671875</v>
+        <v>408.2474365234375</v>
       </c>
       <c r="N2" t="n">
-        <v>496.2897338867188</v>
+        <v>408.1742858886719</v>
       </c>
       <c r="O2" t="n">
-        <v>495.32861328125</v>
+        <v>408.1085815429688</v>
       </c>
       <c r="P2" t="n">
-        <v>494.0383605957031</v>
+        <v>408.05029296875</v>
       </c>
       <c r="Q2" t="n">
-        <v>492.22998046875</v>
+        <v>407.9985961914062</v>
       </c>
       <c r="R2" t="n">
-        <v>490.2863159179688</v>
+        <v>407.9522705078125</v>
       </c>
       <c r="S2" t="n">
-        <v>488.366455078125</v>
+        <v>407.9110412597656</v>
       </c>
       <c r="T2" t="n">
-        <v>486.445068359375</v>
+        <v>407.8740844726562</v>
       </c>
       <c r="U2" t="n">
-        <v>483.774169921875</v>
+        <v>407.8412475585938</v>
       </c>
       <c r="V2" t="n">
-        <v>481.8013916015625</v>
+        <v>407.8137817382812</v>
       </c>
       <c r="W2" t="n">
-        <v>479.74951171875</v>
+        <v>407.7822265625</v>
       </c>
       <c r="X2" t="n">
-        <v>478.8137512207031</v>
+        <v>407.7565307617188</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.8643493652344</v>
+        <v>407.7349853515625</v>
       </c>
       <c r="Z2" t="n">
-        <v>477.8777770996094</v>
+        <v>407.7291259765625</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.7579040527344</v>
+        <v>407.7249450683594</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.9780883789062</v>
+        <v>407.7248840332031</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.7011108398438</v>
+        <v>407.7248840332031</v>
       </c>
       <c r="AD2" t="n">
-        <v>477.2391052246094</v>
+        <v>407.7263793945312</v>
       </c>
       <c r="AE2" t="n">
-        <v>476.4449768066406</v>
+        <v>407.7377014160156</v>
       </c>
       <c r="AF2" t="n">
-        <v>475.5247802734375</v>
+        <v>407.7466430664062</v>
       </c>
       <c r="AG2" t="n">
-        <v>475.0966796875</v>
+        <v>407.74658203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>474.8184509277344</v>
+        <v>407.7613830566406</v>
       </c>
       <c r="AI2" t="n">
-        <v>474.2887878417969</v>
+        <v>407.77880859375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>474.1674499511719</v>
+        <v>407.8062133789062</v>
       </c>
       <c r="AK2" t="n">
-        <v>474.5484008789062</v>
+        <v>407.831787109375</v>
       </c>
       <c r="AL2" t="n">
-        <v>474.6322631835938</v>
+        <v>407.8763427734375</v>
       </c>
       <c r="AM2" t="n">
-        <v>474.7339477539062</v>
+        <v>407.923828125</v>
       </c>
       <c r="AN2" t="n">
-        <v>474.5816650390625</v>
+        <v>407.8967590332031</v>
       </c>
       <c r="AO2" t="n">
-        <v>475.1099243164062</v>
+        <v>407.8590087890625</v>
       </c>
       <c r="AP2" t="n">
-        <v>476.2640686035156</v>
+        <v>407.7344360351562</v>
       </c>
       <c r="AQ2" t="n">
-        <v>476.7135009765625</v>
+        <v>408.7538452148438</v>
       </c>
       <c r="AR2" t="n">
-        <v>477.0259399414062</v>
+        <v>420.4610900878906</v>
       </c>
       <c r="AS2" t="n">
-        <v>477.3732299804688</v>
+        <v>426.7626953125</v>
       </c>
       <c r="AT2" t="n">
-        <v>477.7261657714844</v>
+        <v>440.998779296875</v>
       </c>
       <c r="AU2" t="n">
-        <v>478.3385620117188</v>
+        <v>447.6281127929688</v>
       </c>
       <c r="AV2" t="n">
-        <v>478.8253173828125</v>
+        <v>452.9412231445312</v>
       </c>
       <c r="AW2" t="n">
-        <v>479.3124389648438</v>
+        <v>459.4560546875</v>
       </c>
       <c r="AX2" t="n">
-        <v>479.8865356445312</v>
+        <v>465.84814453125</v>
       </c>
       <c r="AY2" t="n">
-        <v>480.1610717773438</v>
+        <v>470.924560546875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>480.4469604492188</v>
+        <v>474.5862426757812</v>
       </c>
       <c r="BA2" t="n">
-        <v>480.7077331542969</v>
+        <v>477.38916015625</v>
       </c>
       <c r="BB2" t="n">
-        <v>480.6692810058594</v>
+        <v>480.6023559570312</v>
       </c>
       <c r="BC2" t="n">
-        <v>480.6305541992188</v>
+        <v>484.2216491699219</v>
       </c>
       <c r="BD2" t="n">
-        <v>481.0266418457031</v>
+        <v>487.2169189453125</v>
       </c>
       <c r="BE2" t="n">
-        <v>480.4764099121094</v>
+        <v>490.6027526855469</v>
       </c>
       <c r="BF2" t="n">
-        <v>479.3490905761719</v>
+        <v>490.5871887207031</v>
       </c>
       <c r="BG2" t="n">
-        <v>477.6820678710938</v>
+        <v>489.9322814941406</v>
       </c>
       <c r="BH2" t="n">
-        <v>474.7411499023438</v>
+        <v>487.3583679199219</v>
       </c>
       <c r="BI2" t="n">
-        <v>471.8565063476562</v>
+        <v>484.3291625976562</v>
       </c>
       <c r="BJ2" t="n">
-        <v>470.2857055664062</v>
+        <v>477.1314086914062</v>
       </c>
       <c r="BK2" t="n">
-        <v>468.6959228515625</v>
+        <v>466.81982421875</v>
       </c>
       <c r="BL2" t="n">
-        <v>466.8050537109375</v>
+        <v>459.0987548828125</v>
       </c>
       <c r="BM2" t="n">
-        <v>464.503173828125</v>
+        <v>440.2809448242188</v>
       </c>
       <c r="BN2" t="n">
-        <v>462.3183898925781</v>
+        <v>429.251953125</v>
       </c>
       <c r="BO2" t="n">
-        <v>461.1123352050781</v>
+        <v>419.6828918457031</v>
       </c>
       <c r="BP2" t="n">
-        <v>458.792724609375</v>
+        <v>410.160400390625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>455.798583984375</v>
+        <v>400.2064208984375</v>
       </c>
       <c r="BR2" t="n">
-        <v>451.5254211425781</v>
+        <v>389.8079833984375</v>
       </c>
       <c r="BS2" t="n">
-        <v>446.5841369628906</v>
+        <v>379.1083984375</v>
       </c>
       <c r="BT2" t="n">
-        <v>441.0663146972656</v>
+        <v>368.3537292480469</v>
       </c>
       <c r="BU2" t="n">
-        <v>436.8554382324219</v>
+        <v>358.5040283203125</v>
       </c>
       <c r="BV2" t="n">
-        <v>433.2938232421875</v>
+        <v>348.7141418457031</v>
       </c>
       <c r="BW2" t="n">
-        <v>429.4423828125</v>
+        <v>338.8287658691406</v>
       </c>
       <c r="BX2" t="n">
-        <v>426.225341796875</v>
+        <v>331.1483459472656</v>
       </c>
       <c r="BY2" t="n">
-        <v>420.3406372070312</v>
+        <v>322.7828369140625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>410.740478515625</v>
+        <v>317.1611938476562</v>
       </c>
       <c r="CA2" t="n">
-        <v>400.7643432617188</v>
+        <v>310.131103515625</v>
       </c>
       <c r="CB2" t="n">
-        <v>390.4333190917969</v>
+        <v>306.1788635253906</v>
       </c>
       <c r="CC2" t="n">
-        <v>385.47314453125</v>
+        <v>301.0775146484375</v>
       </c>
       <c r="CD2" t="n">
-        <v>381.5667114257812</v>
+        <v>298.2076110839844</v>
       </c>
       <c r="CE2" t="n">
-        <v>376.7919311523438</v>
+        <v>295.517578125</v>
       </c>
       <c r="CF2" t="n">
-        <v>368.6980590820312</v>
+        <v>293.2005615234375</v>
       </c>
       <c r="CG2" t="n">
-        <v>364.7545776367188</v>
+        <v>292.2342834472656</v>
       </c>
       <c r="CH2" t="n">
-        <v>361.4739685058594</v>
+        <v>292.550537109375</v>
       </c>
       <c r="CI2" t="n">
-        <v>358.0286865234375</v>
+        <v>293.6622009277344</v>
       </c>
       <c r="CJ2" t="n">
-        <v>355.8275146484375</v>
+        <v>296.1034545898438</v>
       </c>
       <c r="CK2" t="n">
-        <v>354.1344909667969</v>
+        <v>299.2234802246094</v>
       </c>
       <c r="CL2" t="n">
-        <v>351.5596923828125</v>
+        <v>303.6075439453125</v>
       </c>
       <c r="CM2" t="n">
-        <v>351.2498474121094</v>
+        <v>309.0772399902344</v>
       </c>
       <c r="CN2" t="n">
-        <v>351.572509765625</v>
+        <v>315.3056945800781</v>
       </c>
       <c r="CO2" t="n">
-        <v>351.7062683105469</v>
+        <v>322.6611633300781</v>
       </c>
       <c r="CP2" t="n">
-        <v>351.3498229980469</v>
+        <v>329.8049621582031</v>
       </c>
       <c r="CQ2" t="n">
-        <v>350.8690795898438</v>
+        <v>342.0633239746094</v>
       </c>
       <c r="CR2" t="n">
-        <v>350.38916015625</v>
+        <v>361.5693664550781</v>
       </c>
       <c r="CS2" t="n">
-        <v>349.7638549804688</v>
+        <v>367.6567077636719</v>
       </c>
       <c r="CT2" t="n">
-        <v>347.1866455078125</v>
+        <v>376.9602966308594</v>
       </c>
       <c r="CU2" t="n">
-        <v>346.1149291992188</v>
+        <v>385.6917114257812</v>
       </c>
       <c r="CV2" t="n">
-        <v>345.3628234863281</v>
+        <v>395.6603698730469</v>
       </c>
       <c r="CW2" t="n">
-        <v>344.6802368164062</v>
+        <v>402.9501953125</v>
       </c>
       <c r="CX2" t="n">
-        <v>344.5511474609375</v>
+        <v>409.3143310546875</v>
       </c>
       <c r="CY2" t="n">
-        <v>344.5518188476562</v>
+        <v>416.37255859375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>344.5744323730469</v>
+        <v>421.639404296875</v>
       </c>
       <c r="DA2" t="n">
-        <v>344.6103515625</v>
+        <v>428.8096618652344</v>
       </c>
       <c r="DB2" t="n">
-        <v>344.6607971191406</v>
+        <v>438.8732299804688</v>
       </c>
       <c r="DC2" t="n">
-        <v>345.2215576171875</v>
+        <v>444.3087158203125</v>
       </c>
       <c r="DD2" t="n">
-        <v>345.7430419921875</v>
+        <v>448.5989990234375</v>
       </c>
       <c r="DE2" t="n">
-        <v>346.4793395996094</v>
+        <v>452.4549865722656</v>
       </c>
       <c r="DF2" t="n">
-        <v>348.3523254394531</v>
+        <v>456.0473022460938</v>
       </c>
       <c r="DG2" t="n">
-        <v>349.1171875</v>
+        <v>460.1911010742188</v>
       </c>
       <c r="DH2" t="n">
-        <v>349.2100219726562</v>
+        <v>464.5877685546875</v>
       </c>
       <c r="DI2" t="n">
-        <v>349.2703552246094</v>
+        <v>466.9922485351562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>349.3238525390625</v>
+        <v>468.7877807617188</v>
       </c>
       <c r="DK2" t="n">
-        <v>349.4235534667969</v>
+        <v>469.9569702148438</v>
       </c>
       <c r="DL2" t="n">
-        <v>349.8405456542969</v>
+        <v>471.3472290039062</v>
       </c>
       <c r="DM2" t="n">
-        <v>350.0605773925781</v>
+        <v>471.5772094726562</v>
       </c>
       <c r="DN2" t="n">
-        <v>350.6463012695312</v>
+        <v>468.7521667480469</v>
       </c>
       <c r="DO2" t="n">
-        <v>350.9254150390625</v>
+        <v>462.03369140625</v>
       </c>
       <c r="DP2" t="n">
-        <v>351.2615661621094</v>
+        <v>458.6308288574219</v>
       </c>
       <c r="DQ2" t="n">
-        <v>351.7359008789062</v>
+        <v>448.1949462890625</v>
       </c>
       <c r="DR2" t="n">
-        <v>351.9296569824219</v>
+        <v>443.6723022460938</v>
       </c>
       <c r="DS2" t="n">
-        <v>352.212158203125</v>
+        <v>439.13720703125</v>
       </c>
       <c r="DT2" t="n">
-        <v>352.384521484375</v>
+        <v>433.8491821289062</v>
       </c>
       <c r="DU2" t="n">
-        <v>352.3743896484375</v>
+        <v>429.6122436523438</v>
       </c>
       <c r="DV2" t="n">
-        <v>352.2854309082031</v>
+        <v>426.3619384765625</v>
       </c>
       <c r="DW2" t="n">
-        <v>352.272705078125</v>
+        <v>417.0296630859375</v>
       </c>
       <c r="DX2" t="n">
-        <v>352.3092956542969</v>
+        <v>412.201904296875</v>
       </c>
       <c r="DY2" t="n">
-        <v>352.4188537597656</v>
+        <v>401.4596862792969</v>
       </c>
       <c r="DZ2" t="n">
-        <v>352.4524536132812</v>
+        <v>396.1527099609375</v>
       </c>
       <c r="EA2" t="n">
-        <v>352.4644470214844</v>
+        <v>386.439453125</v>
       </c>
       <c r="EB2" t="n">
-        <v>352.458984375</v>
+        <v>374.2897033691406</v>
       </c>
       <c r="EC2" t="n">
-        <v>352.4529724121094</v>
+        <v>370.32861328125</v>
       </c>
       <c r="ED2" t="n">
-        <v>352.4518432617188</v>
+        <v>368.7279663085938</v>
       </c>
       <c r="EE2" t="n">
-        <v>352.4505004882812</v>
+        <v>370.1053466796875</v>
       </c>
       <c r="EF2" t="n">
-        <v>352.4679260253906</v>
+        <v>370.5421142578125</v>
       </c>
       <c r="EG2" t="n">
-        <v>352.6660461425781</v>
+        <v>381.1781005859375</v>
       </c>
       <c r="EH2" t="n">
-        <v>352.7377624511719</v>
+        <v>393.1327819824219</v>
       </c>
       <c r="EI2" t="n">
-        <v>352.6617431640625</v>
+        <v>395.6595458984375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>352.307373046875</v>
+        <v>399.6849060058594</v>
       </c>
       <c r="EK2" t="n">
-        <v>351.9791259765625</v>
+        <v>409.0282592773438</v>
       </c>
       <c r="EL2" t="n">
-        <v>350.6825256347656</v>
+        <v>414.9735107421875</v>
       </c>
       <c r="EM2" t="n">
-        <v>350.2208251953125</v>
+        <v>421.2421264648438</v>
       </c>
       <c r="EN2" t="n">
-        <v>350.2770385742188</v>
+        <v>422.0868530273438</v>
       </c>
       <c r="EO2" t="n">
-        <v>350.3019409179688</v>
+        <v>423.8359069824219</v>
       </c>
       <c r="EP2" t="n">
-        <v>350.3775634765625</v>
+        <v>424.5036010742188</v>
       </c>
       <c r="EQ2" t="n">
-        <v>350.5724487304688</v>
+        <v>423.5960693359375</v>
       </c>
       <c r="ER2" t="n">
-        <v>350.6954650878906</v>
+        <v>421.537353515625</v>
       </c>
       <c r="ES2" t="n">
-        <v>350.9544677734375</v>
+        <v>418.4786376953125</v>
       </c>
       <c r="ET2" t="n">
-        <v>351.0787353515625</v>
+        <v>406.54931640625</v>
       </c>
       <c r="EU2" t="n">
-        <v>351.2811584472656</v>
+        <v>391.0252685546875</v>
       </c>
       <c r="EV2" t="n">
-        <v>351.2771911621094</v>
+        <v>381.6069946289062</v>
       </c>
       <c r="EW2" t="n">
-        <v>351.0637817382812</v>
+        <v>364.9232482910156</v>
       </c>
       <c r="EX2" t="n">
-        <v>350.2127685546875</v>
+        <v>359.6369018554688</v>
       </c>
       <c r="EY2" t="n">
-        <v>349.2290649414062</v>
+        <v>356.1843872070312</v>
       </c>
       <c r="EZ2" t="n">
-        <v>348.1927795410156</v>
+        <v>348.5079345703125</v>
       </c>
       <c r="FA2" t="n">
-        <v>347.7685546875</v>
+        <v>340.7820129394531</v>
       </c>
       <c r="FB2" t="n">
-        <v>347.6497802734375</v>
+        <v>338.0473022460938</v>
       </c>
       <c r="FC2" t="n">
-        <v>347.509521484375</v>
+        <v>333.4288940429688</v>
       </c>
       <c r="FD2" t="n">
-        <v>347.5609741210938</v>
+        <v>333.8400268554688</v>
       </c>
       <c r="FE2" t="n">
-        <v>347.6387023925781</v>
+        <v>333.2724609375</v>
       </c>
       <c r="FF2" t="n">
-        <v>347.73095703125</v>
+        <v>332.9881591796875</v>
       </c>
       <c r="FG2" t="n">
-        <v>347.8897705078125</v>
+        <v>337.3659057617188</v>
       </c>
       <c r="FH2" t="n">
-        <v>348.3665161132812</v>
+        <v>348.8458251953125</v>
       </c>
       <c r="FI2" t="n">
-        <v>350.4352111816406</v>
+        <v>357.34423828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>350.8532104492188</v>
+        <v>369.7570495605469</v>
       </c>
       <c r="FK2" t="n">
-        <v>353.8555297851562</v>
+        <v>388.3490600585938</v>
       </c>
       <c r="FL2" t="n">
-        <v>355.1116333007812</v>
+        <v>395.3467407226562</v>
       </c>
       <c r="FM2" t="n">
-        <v>356.60400390625</v>
+        <v>408.72802734375</v>
       </c>
       <c r="FN2" t="n">
-        <v>360.509033203125</v>
+        <v>422.0905151367188</v>
       </c>
       <c r="FO2" t="n">
-        <v>364.311767578125</v>
+        <v>429.4702758789062</v>
       </c>
       <c r="FP2" t="n">
-        <v>368.10595703125</v>
+        <v>433.0747680664062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>379.0290832519531</v>
+        <v>442.2806091308594</v>
       </c>
       <c r="FR2" t="n">
-        <v>384.009033203125</v>
+        <v>446.8494262695312</v>
       </c>
       <c r="FS2" t="n">
-        <v>394.19091796875</v>
+        <v>453.6904296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>408.7564086914062</v>
+        <v>459.9582214355469</v>
       </c>
       <c r="FU2" t="n">
-        <v>414.9674072265625</v>
+        <v>465.2905883789062</v>
       </c>
       <c r="FV2" t="n">
-        <v>426.7373962402344</v>
+        <v>467.287353515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>432.2676391601562</v>
+        <v>474.1941528320312</v>
       </c>
       <c r="FX2" t="n">
-        <v>441.3903198242188</v>
+        <v>474.0520629882812</v>
       </c>
       <c r="FY2" t="n">
-        <v>445.7520141601562</v>
+        <v>481.4512329101562</v>
       </c>
       <c r="FZ2" t="n">
-        <v>448.67919921875</v>
+        <v>485.2530517578125</v>
       </c>
       <c r="GA2" t="n">
-        <v>452.068115234375</v>
+        <v>478.6162719726562</v>
       </c>
       <c r="GB2" t="n">
-        <v>457.1702880859375</v>
+        <v>468.4010009765625</v>
       </c>
       <c r="GC2" t="n">
-        <v>458.0703735351562</v>
+        <v>448.4250183105469</v>
       </c>
       <c r="GD2" t="n">
-        <v>455.4198913574219</v>
+        <v>438.6566162109375</v>
       </c>
       <c r="GE2" t="n">
-        <v>454.4575805664062</v>
+        <v>418.1080932617188</v>
       </c>
       <c r="GF2" t="n">
-        <v>444.8536987304688</v>
+        <v>402.4890747070312</v>
       </c>
       <c r="GG2" t="n">
-        <v>437.8575134277344</v>
+        <v>390.522705078125</v>
       </c>
       <c r="GH2" t="n">
-        <v>428.3045043945312</v>
+        <v>383.4399719238281</v>
       </c>
       <c r="GI2" t="n">
-        <v>417.1552124023438</v>
+        <v>382.0547485351562</v>
       </c>
       <c r="GJ2" t="n">
-        <v>408.1376647949219</v>
+        <v>381.212158203125</v>
       </c>
       <c r="GK2" t="n">
-        <v>397.9617919921875</v>
+        <v>380.4455871582031</v>
       </c>
       <c r="GL2" t="n">
-        <v>384.1221923828125</v>
+        <v>380.3405151367188</v>
       </c>
       <c r="GM2" t="n">
-        <v>377.6385192871094</v>
+        <v>381.5621643066406</v>
       </c>
       <c r="GN2" t="n">
-        <v>370.4076538085938</v>
+        <v>384.3005981445312</v>
       </c>
       <c r="GO2" t="n">
-        <v>371.0038757324219</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>371.9644775390625</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>374.786376953125</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>376.416015625</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>380.1636962890625</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>392.8872375488281</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>404.1859130859375</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>413.5398559570312</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>417.7555847167969</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>424.8253173828125</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>462.7696228027344</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>476.0748291015625</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>484.4829711914062</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>516.0316162109375</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>528.1870727539062</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>529.2909545898438</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>531.10498046875</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>540.0159912109375</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>546.2974243164062</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>548.5889282226562</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>549.3722534179688</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>548.5732421875</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>544.5580444335938</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>528.8890991210938</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>518.4727172851562</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>498.8099670410156</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>481.3384399414062</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>465.6766357421875</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>456.4978637695312</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>453.8678588867188</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>451.9712524414062</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>457.8822631835938</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>465.9546203613281</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>471.7571716308594</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>471.4253540039062</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>470.5643920898438</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>472.4592590332031</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>476.3208618164062</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>479.3204040527344</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>480.431884765625</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>480.6475830078125</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>480.1849670410156</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>478.9799499511719</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>479.1805725097656</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>479.6249694824219</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>479.7262573242188</v>
-      </c>
-      <c r="II2" t="n">
-        <v>479.9091186523438</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>480.1845092773438</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>481.4326782226562</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>482.1834716796875</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>481.8099670410156</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>481.4029541015625</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>480.9185791015625</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>480.7396850585938</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>480.697021484375</v>
+        <v>384.7098083496094</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>294.3890991210938</v>
+        <v>311.2679138183594</v>
       </c>
       <c r="C3" t="n">
-        <v>288.6729125976562</v>
+        <v>306.719482421875</v>
       </c>
       <c r="D3" t="n">
-        <v>285.36865234375</v>
+        <v>305.9207458496094</v>
       </c>
       <c r="E3" t="n">
-        <v>280.7048645019531</v>
+        <v>305.432373046875</v>
       </c>
       <c r="F3" t="n">
-        <v>275.6193542480469</v>
+        <v>305.1689147949219</v>
       </c>
       <c r="G3" t="n">
-        <v>272.9142456054688</v>
+        <v>305.0052795410156</v>
       </c>
       <c r="H3" t="n">
-        <v>270.7194213867188</v>
+        <v>304.8677978515625</v>
       </c>
       <c r="I3" t="n">
-        <v>269.2504577636719</v>
+        <v>304.7808532714844</v>
       </c>
       <c r="J3" t="n">
-        <v>267.3544921875</v>
+        <v>304.7135314941406</v>
       </c>
       <c r="K3" t="n">
-        <v>266.57421875</v>
+        <v>304.6524353027344</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5499267578125</v>
+        <v>304.5915832519531</v>
       </c>
       <c r="M3" t="n">
-        <v>264.8653869628906</v>
+        <v>304.552978515625</v>
       </c>
       <c r="N3" t="n">
-        <v>264.1006469726562</v>
+        <v>304.5155639648438</v>
       </c>
       <c r="O3" t="n">
-        <v>263.4732055664062</v>
+        <v>304.4833679199219</v>
       </c>
       <c r="P3" t="n">
-        <v>263.4432678222656</v>
+        <v>304.4525146484375</v>
       </c>
       <c r="Q3" t="n">
-        <v>262.9433898925781</v>
+        <v>304.4220886230469</v>
       </c>
       <c r="R3" t="n">
-        <v>261.9160461425781</v>
+        <v>304.3950805664062</v>
       </c>
       <c r="S3" t="n">
-        <v>260.2903442382812</v>
+        <v>304.3717956542969</v>
       </c>
       <c r="T3" t="n">
-        <v>258.8265991210938</v>
+        <v>304.3525085449219</v>
       </c>
       <c r="U3" t="n">
-        <v>258.2052917480469</v>
+        <v>304.3350830078125</v>
       </c>
       <c r="V3" t="n">
-        <v>257.1705627441406</v>
+        <v>304.3289184570312</v>
       </c>
       <c r="W3" t="n">
-        <v>256.6218566894531</v>
+        <v>304.3174133300781</v>
       </c>
       <c r="X3" t="n">
-        <v>254.6286315917969</v>
+        <v>304.3107299804688</v>
       </c>
       <c r="Y3" t="n">
-        <v>253.8858337402344</v>
+        <v>304.3067321777344</v>
       </c>
       <c r="Z3" t="n">
-        <v>253.3336486816406</v>
+        <v>304.3136291503906</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.4418029785156</v>
+        <v>304.3217163085938</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.8173370361328</v>
+        <v>304.3324584960938</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.2156524658203</v>
+        <v>304.3429260253906</v>
       </c>
       <c r="AD3" t="n">
-        <v>254.3978424072266</v>
+        <v>304.3541564941406</v>
       </c>
       <c r="AE3" t="n">
-        <v>254.6619110107422</v>
+        <v>304.3733215332031</v>
       </c>
       <c r="AF3" t="n">
-        <v>253.3240051269531</v>
+        <v>304.3904418945312</v>
       </c>
       <c r="AG3" t="n">
-        <v>251.6863098144531</v>
+        <v>304.3999633789062</v>
       </c>
       <c r="AH3" t="n">
-        <v>249.5678558349609</v>
+        <v>304.420166015625</v>
       </c>
       <c r="AI3" t="n">
-        <v>248.7599945068359</v>
+        <v>304.4421081542969</v>
       </c>
       <c r="AJ3" t="n">
-        <v>247.8058471679688</v>
+        <v>304.4715881347656</v>
       </c>
       <c r="AK3" t="n">
-        <v>246.9783782958984</v>
+        <v>304.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>246.3763580322266</v>
+        <v>304.5512390136719</v>
       </c>
       <c r="AM3" t="n">
-        <v>245.935791015625</v>
+        <v>304.6192321777344</v>
       </c>
       <c r="AN3" t="n">
-        <v>245.6639709472656</v>
+        <v>304.620849609375</v>
       </c>
       <c r="AO3" t="n">
-        <v>245.5951080322266</v>
+        <v>304.6133117675781</v>
       </c>
       <c r="AP3" t="n">
-        <v>245.2774353027344</v>
+        <v>304.5325012207031</v>
       </c>
       <c r="AQ3" t="n">
-        <v>245.1680145263672</v>
+        <v>302.7840576171875</v>
       </c>
       <c r="AR3" t="n">
-        <v>245.056396484375</v>
+        <v>303.3492126464844</v>
       </c>
       <c r="AS3" t="n">
-        <v>244.8568115234375</v>
+        <v>304.4995422363281</v>
       </c>
       <c r="AT3" t="n">
-        <v>244.5832214355469</v>
+        <v>303.7496643066406</v>
       </c>
       <c r="AU3" t="n">
-        <v>244.1104278564453</v>
+        <v>303.1620788574219</v>
       </c>
       <c r="AV3" t="n">
-        <v>243.5032043457031</v>
+        <v>303.9430236816406</v>
       </c>
       <c r="AW3" t="n">
-        <v>242.8814239501953</v>
+        <v>302.5121154785156</v>
       </c>
       <c r="AX3" t="n">
-        <v>242.4452514648438</v>
+        <v>303.785400390625</v>
       </c>
       <c r="AY3" t="n">
-        <v>242.0043792724609</v>
+        <v>303.3716125488281</v>
       </c>
       <c r="AZ3" t="n">
-        <v>241.5891876220703</v>
+        <v>302.5390930175781</v>
       </c>
       <c r="BA3" t="n">
-        <v>241.3987274169922</v>
+        <v>301.6355285644531</v>
       </c>
       <c r="BB3" t="n">
-        <v>241.4252471923828</v>
+        <v>301.3534240722656</v>
       </c>
       <c r="BC3" t="n">
-        <v>241.228515625</v>
+        <v>301.5411376953125</v>
       </c>
       <c r="BD3" t="n">
-        <v>240.4440307617188</v>
+        <v>300.9220275878906</v>
       </c>
       <c r="BE3" t="n">
-        <v>240.1540069580078</v>
+        <v>301.3465270996094</v>
       </c>
       <c r="BF3" t="n">
-        <v>239.4217987060547</v>
+        <v>301.8579711914062</v>
       </c>
       <c r="BG3" t="n">
-        <v>238.3857116699219</v>
+        <v>302.1759033203125</v>
       </c>
       <c r="BH3" t="n">
-        <v>238.1473083496094</v>
+        <v>302.0368041992188</v>
       </c>
       <c r="BI3" t="n">
-        <v>237.9537048339844</v>
+        <v>302.2145080566406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>236.6141052246094</v>
+        <v>301.5557861328125</v>
       </c>
       <c r="BK3" t="n">
-        <v>235.6650695800781</v>
+        <v>304.0299682617188</v>
       </c>
       <c r="BL3" t="n">
-        <v>234.909912109375</v>
+        <v>304.4012451171875</v>
       </c>
       <c r="BM3" t="n">
-        <v>234.456298828125</v>
+        <v>305.0803527832031</v>
       </c>
       <c r="BN3" t="n">
-        <v>233.4777221679688</v>
+        <v>306.443603515625</v>
       </c>
       <c r="BO3" t="n">
-        <v>231.5221862792969</v>
+        <v>307.0881958007812</v>
       </c>
       <c r="BP3" t="n">
-        <v>230.4119262695312</v>
+        <v>307.8174133300781</v>
       </c>
       <c r="BQ3" t="n">
-        <v>229.6791229248047</v>
+        <v>308.47802734375</v>
       </c>
       <c r="BR3" t="n">
-        <v>229.7949676513672</v>
+        <v>308.794189453125</v>
       </c>
       <c r="BS3" t="n">
-        <v>227.0931701660156</v>
+        <v>308.5942687988281</v>
       </c>
       <c r="BT3" t="n">
-        <v>226.4790802001953</v>
+        <v>307.3553466796875</v>
       </c>
       <c r="BU3" t="n">
-        <v>224.6932678222656</v>
+        <v>305.2532958984375</v>
       </c>
       <c r="BV3" t="n">
-        <v>224.0111541748047</v>
+        <v>303.8211669921875</v>
       </c>
       <c r="BW3" t="n">
-        <v>223.8017730712891</v>
+        <v>303.7861938476562</v>
       </c>
       <c r="BX3" t="n">
-        <v>221.7899475097656</v>
+        <v>302.4065551757812</v>
       </c>
       <c r="BY3" t="n">
-        <v>221.5987243652344</v>
+        <v>303.3899841308594</v>
       </c>
       <c r="BZ3" t="n">
-        <v>218.4795532226562</v>
+        <v>302.1816101074219</v>
       </c>
       <c r="CA3" t="n">
-        <v>216.9466400146484</v>
+        <v>303.7862243652344</v>
       </c>
       <c r="CB3" t="n">
-        <v>215.7308349609375</v>
+        <v>302.4373779296875</v>
       </c>
       <c r="CC3" t="n">
-        <v>216.2976226806641</v>
+        <v>303.7464904785156</v>
       </c>
       <c r="CD3" t="n">
-        <v>216.1566162109375</v>
+        <v>302.8698425292969</v>
       </c>
       <c r="CE3" t="n">
-        <v>217.0649108886719</v>
+        <v>302.7861633300781</v>
       </c>
       <c r="CF3" t="n">
-        <v>217.5100250244141</v>
+        <v>303.3165283203125</v>
       </c>
       <c r="CG3" t="n">
-        <v>217.5441741943359</v>
+        <v>303.0478210449219</v>
       </c>
       <c r="CH3" t="n">
-        <v>217.1504974365234</v>
+        <v>302.814208984375</v>
       </c>
       <c r="CI3" t="n">
-        <v>217.3041687011719</v>
+        <v>302.3798828125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>216.7863616943359</v>
+        <v>301.0187683105469</v>
       </c>
       <c r="CK3" t="n">
-        <v>216.4787902832031</v>
+        <v>298.9920043945312</v>
       </c>
       <c r="CL3" t="n">
-        <v>215.854736328125</v>
+        <v>297.5908203125</v>
       </c>
       <c r="CM3" t="n">
-        <v>214.8725738525391</v>
+        <v>296.447021484375</v>
       </c>
       <c r="CN3" t="n">
-        <v>212.7288665771484</v>
+        <v>296.04248046875</v>
       </c>
       <c r="CO3" t="n">
-        <v>209.3330841064453</v>
+        <v>295.2001953125</v>
       </c>
       <c r="CP3" t="n">
-        <v>208.9016723632812</v>
+        <v>295.1929931640625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>208.68359375</v>
+        <v>295.9049682617188</v>
       </c>
       <c r="CR3" t="n">
-        <v>208.5543212890625</v>
+        <v>296.9392395019531</v>
       </c>
       <c r="CS3" t="n">
-        <v>208.5921936035156</v>
+        <v>298.4036560058594</v>
       </c>
       <c r="CT3" t="n">
-        <v>209.4725799560547</v>
+        <v>298.2453308105469</v>
       </c>
       <c r="CU3" t="n">
-        <v>209.2998352050781</v>
+        <v>299.9122924804688</v>
       </c>
       <c r="CV3" t="n">
-        <v>209.2634124755859</v>
+        <v>299.5947265625</v>
       </c>
       <c r="CW3" t="n">
-        <v>209.5184020996094</v>
+        <v>300.9586486816406</v>
       </c>
       <c r="CX3" t="n">
-        <v>209.8168640136719</v>
+        <v>300.9316101074219</v>
       </c>
       <c r="CY3" t="n">
-        <v>210.2071533203125</v>
+        <v>300.4595031738281</v>
       </c>
       <c r="CZ3" t="n">
-        <v>210.4166107177734</v>
+        <v>301.9601135253906</v>
       </c>
       <c r="DA3" t="n">
-        <v>210.6292114257812</v>
+        <v>301.2555236816406</v>
       </c>
       <c r="DB3" t="n">
-        <v>210.83544921875</v>
+        <v>303.2987976074219</v>
       </c>
       <c r="DC3" t="n">
-        <v>211.358642578125</v>
+        <v>302.422119140625</v>
       </c>
       <c r="DD3" t="n">
-        <v>211.6915130615234</v>
+        <v>303.3127746582031</v>
       </c>
       <c r="DE3" t="n">
-        <v>212.0483093261719</v>
+        <v>304.0457153320312</v>
       </c>
       <c r="DF3" t="n">
-        <v>213.0862884521484</v>
+        <v>304.4574890136719</v>
       </c>
       <c r="DG3" t="n">
-        <v>213.6151275634766</v>
+        <v>304.5133972167969</v>
       </c>
       <c r="DH3" t="n">
-        <v>213.7079467773438</v>
+        <v>306.869384765625</v>
       </c>
       <c r="DI3" t="n">
-        <v>213.8428039550781</v>
+        <v>307.86328125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>213.8765106201172</v>
+        <v>308.6146850585938</v>
       </c>
       <c r="DK3" t="n">
-        <v>213.8592376708984</v>
+        <v>309.1844177246094</v>
       </c>
       <c r="DL3" t="n">
-        <v>213.6451721191406</v>
+        <v>309.7085266113281</v>
       </c>
       <c r="DM3" t="n">
-        <v>213.5893707275391</v>
+        <v>310.2018432617188</v>
       </c>
       <c r="DN3" t="n">
-        <v>213.4441986083984</v>
+        <v>308.1870727539062</v>
       </c>
       <c r="DO3" t="n">
-        <v>213.4344787597656</v>
+        <v>303.3803405761719</v>
       </c>
       <c r="DP3" t="n">
-        <v>213.3567962646484</v>
+        <v>300.1959533691406</v>
       </c>
       <c r="DQ3" t="n">
-        <v>213.6660461425781</v>
+        <v>287.90625</v>
       </c>
       <c r="DR3" t="n">
-        <v>213.8182220458984</v>
+        <v>280.4446105957031</v>
       </c>
       <c r="DS3" t="n">
-        <v>214.033935546875</v>
+        <v>274.1131591796875</v>
       </c>
       <c r="DT3" t="n">
-        <v>214.1500396728516</v>
+        <v>257.7059936523438</v>
       </c>
       <c r="DU3" t="n">
-        <v>214.1614990234375</v>
+        <v>251.7987213134766</v>
       </c>
       <c r="DV3" t="n">
-        <v>214.1495361328125</v>
+        <v>243.5090942382812</v>
       </c>
       <c r="DW3" t="n">
-        <v>214.1613006591797</v>
+        <v>230.5553283691406</v>
       </c>
       <c r="DX3" t="n">
-        <v>214.1941680908203</v>
+        <v>224.5626678466797</v>
       </c>
       <c r="DY3" t="n">
-        <v>214.2785186767578</v>
+        <v>217.1920623779297</v>
       </c>
       <c r="DZ3" t="n">
-        <v>214.3137969970703</v>
+        <v>216.0868530273438</v>
       </c>
       <c r="EA3" t="n">
-        <v>214.3369445800781</v>
+        <v>216.3029632568359</v>
       </c>
       <c r="EB3" t="n">
-        <v>214.3768463134766</v>
+        <v>228.5523223876953</v>
       </c>
       <c r="EC3" t="n">
-        <v>214.4048004150391</v>
+        <v>235.8132934570312</v>
       </c>
       <c r="ED3" t="n">
-        <v>214.4168395996094</v>
+        <v>255.9000244140625</v>
       </c>
       <c r="EE3" t="n">
-        <v>214.4315032958984</v>
+        <v>277.7212829589844</v>
       </c>
       <c r="EF3" t="n">
-        <v>214.4999694824219</v>
+        <v>285.971435546875</v>
       </c>
       <c r="EG3" t="n">
-        <v>214.8472442626953</v>
+        <v>301.3153686523438</v>
       </c>
       <c r="EH3" t="n">
-        <v>215.1306762695312</v>
+        <v>310.9856567382812</v>
       </c>
       <c r="EI3" t="n">
-        <v>215.1289672851562</v>
+        <v>316.0405578613281</v>
       </c>
       <c r="EJ3" t="n">
-        <v>215.7345733642578</v>
+        <v>317.5504455566406</v>
       </c>
       <c r="EK3" t="n">
-        <v>216.5517578125</v>
+        <v>319.2087097167969</v>
       </c>
       <c r="EL3" t="n">
-        <v>219.5372009277344</v>
+        <v>320.1307067871094</v>
       </c>
       <c r="EM3" t="n">
-        <v>221.0414581298828</v>
+        <v>318.4832153320312</v>
       </c>
       <c r="EN3" t="n">
-        <v>221.1308288574219</v>
+        <v>316.8848876953125</v>
       </c>
       <c r="EO3" t="n">
-        <v>221.1603546142578</v>
+        <v>315.6458740234375</v>
       </c>
       <c r="EP3" t="n">
-        <v>221.0941925048828</v>
+        <v>315.6278686523438</v>
       </c>
       <c r="EQ3" t="n">
-        <v>220.9031829833984</v>
+        <v>316.3785095214844</v>
       </c>
       <c r="ER3" t="n">
-        <v>220.7957153320312</v>
+        <v>317.3982238769531</v>
       </c>
       <c r="ES3" t="n">
-        <v>220.5997772216797</v>
+        <v>318.7160034179688</v>
       </c>
       <c r="ET3" t="n">
-        <v>220.5166473388672</v>
+        <v>324.947509765625</v>
       </c>
       <c r="EU3" t="n">
-        <v>220.4248809814453</v>
+        <v>334.4632263183594</v>
       </c>
       <c r="EV3" t="n">
-        <v>220.5423736572266</v>
+        <v>335.7784729003906</v>
       </c>
       <c r="EW3" t="n">
-        <v>220.6503295898438</v>
+        <v>340.2684326171875</v>
       </c>
       <c r="EX3" t="n">
-        <v>221.7264862060547</v>
+        <v>342.2312316894531</v>
       </c>
       <c r="EY3" t="n">
-        <v>223.2831573486328</v>
+        <v>343.2106628417969</v>
       </c>
       <c r="EZ3" t="n">
-        <v>224.8045043945312</v>
+        <v>345.2938842773438</v>
       </c>
       <c r="FA3" t="n">
-        <v>225.3803405761719</v>
+        <v>346.6684265136719</v>
       </c>
       <c r="FB3" t="n">
-        <v>225.3546752929688</v>
+        <v>347.1841430664062</v>
       </c>
       <c r="FC3" t="n">
-        <v>225.2739868164062</v>
+        <v>347.7734069824219</v>
       </c>
       <c r="FD3" t="n">
-        <v>225.2661590576172</v>
+        <v>343.7348327636719</v>
       </c>
       <c r="FE3" t="n">
-        <v>225.1758422851562</v>
+        <v>336.7418823242188</v>
       </c>
       <c r="FF3" t="n">
-        <v>225.1286468505859</v>
+        <v>333.0982055664062</v>
       </c>
       <c r="FG3" t="n">
-        <v>225.0530242919922</v>
+        <v>326.5364074707031</v>
       </c>
       <c r="FH3" t="n">
-        <v>225.1686096191406</v>
+        <v>325.3232727050781</v>
       </c>
       <c r="FI3" t="n">
-        <v>227.0167083740234</v>
+        <v>324.5841064453125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>232.2237091064453</v>
+        <v>325.6096801757812</v>
       </c>
       <c r="FK3" t="n">
-        <v>234.7851104736328</v>
+        <v>326.4830017089844</v>
       </c>
       <c r="FL3" t="n">
-        <v>234.9738922119141</v>
+        <v>323.6642456054688</v>
       </c>
       <c r="FM3" t="n">
-        <v>234.9117126464844</v>
+        <v>321.8882751464844</v>
       </c>
       <c r="FN3" t="n">
-        <v>235.8218841552734</v>
+        <v>322.5837707519531</v>
       </c>
       <c r="FO3" t="n">
-        <v>235.6511840820312</v>
+        <v>321.1865234375</v>
       </c>
       <c r="FP3" t="n">
-        <v>237.0182952880859</v>
+        <v>321.384033203125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>239.5922546386719</v>
+        <v>318.6620178222656</v>
       </c>
       <c r="FR3" t="n">
-        <v>238.9411010742188</v>
+        <v>318.3978881835938</v>
       </c>
       <c r="FS3" t="n">
-        <v>240.6856384277344</v>
+        <v>314.3763122558594</v>
       </c>
       <c r="FT3" t="n">
-        <v>242.6810607910156</v>
+        <v>311.9761352539062</v>
       </c>
       <c r="FU3" t="n">
-        <v>241.705078125</v>
+        <v>309.0706176757812</v>
       </c>
       <c r="FV3" t="n">
-        <v>242.5020751953125</v>
+        <v>307.677978515625</v>
       </c>
       <c r="FW3" t="n">
-        <v>243.1501922607422</v>
+        <v>307.0123596191406</v>
       </c>
       <c r="FX3" t="n">
-        <v>237.138427734375</v>
+        <v>305.976806640625</v>
       </c>
       <c r="FY3" t="n">
-        <v>230.7496643066406</v>
+        <v>302.679931640625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>228.7232208251953</v>
+        <v>296.6752319335938</v>
       </c>
       <c r="GA3" t="n">
-        <v>226.9976043701172</v>
+        <v>285.6387023925781</v>
       </c>
       <c r="GB3" t="n">
-        <v>219.3134613037109</v>
+        <v>287.1767578125</v>
       </c>
       <c r="GC3" t="n">
-        <v>217.5396118164062</v>
+        <v>287.1793212890625</v>
       </c>
       <c r="GD3" t="n">
-        <v>212.6260986328125</v>
+        <v>286.4120788574219</v>
       </c>
       <c r="GE3" t="n">
-        <v>210.8460388183594</v>
+        <v>286.5582580566406</v>
       </c>
       <c r="GF3" t="n">
-        <v>207.4393005371094</v>
+        <v>285.3831481933594</v>
       </c>
       <c r="GG3" t="n">
-        <v>206.3740844726562</v>
+        <v>284.0979614257812</v>
       </c>
       <c r="GH3" t="n">
-        <v>202.8350830078125</v>
+        <v>282.0890502929688</v>
       </c>
       <c r="GI3" t="n">
-        <v>202.61474609375</v>
+        <v>281.2650756835938</v>
       </c>
       <c r="GJ3" t="n">
-        <v>195.1627044677734</v>
+        <v>280.5482788085938</v>
       </c>
       <c r="GK3" t="n">
-        <v>185.3291625976562</v>
+        <v>277.5185241699219</v>
       </c>
       <c r="GL3" t="n">
-        <v>180.0964202880859</v>
+        <v>275.724609375</v>
       </c>
       <c r="GM3" t="n">
-        <v>174.7565460205078</v>
+        <v>272.2314147949219</v>
       </c>
       <c r="GN3" t="n">
-        <v>171.8776092529297</v>
+        <v>267.2633666992188</v>
       </c>
       <c r="GO3" t="n">
-        <v>168.4891662597656</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>166.8877105712891</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>162.1310272216797</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>157.9737091064453</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>155.4312591552734</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>150.7543640136719</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>144.3399505615234</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>139.0002899169922</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>167.5160064697266</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>176.5443572998047</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>228.4382781982422</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>266.0531311035156</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>279.2475891113281</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>309.4634704589844</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>346.7973327636719</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>334.9020385742188</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>325.3905029296875</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>322.64697265625</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>321.6781616210938</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>323.0451354980469</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>333.5348510742188</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>334.4034729003906</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>336.716796875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>342.7224731445312</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>342.984619140625</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>341.9324645996094</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>342.8801879882812</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>340.5704956054688</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>338.9248962402344</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>327.7061462402344</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>311.9371032714844</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>311.2160339355469</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>311.9613647460938</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>313.1324768066406</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>315.921142578125</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>322.0592956542969</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>322.1098327636719</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>324.1565856933594</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>327.7673034667969</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>330.5792846679688</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>331.2786560058594</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>333.0736999511719</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>332.8731689453125</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>333.8140258789062</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>334.6275329589844</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>334.6043090820312</v>
-      </c>
-      <c r="II3" t="n">
-        <v>334.5179748535156</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>334.546142578125</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>335.5146179199219</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>336.0631103515625</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>335.9457092285156</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>335.7748718261719</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>335.4980773925781</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>335.3326721191406</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>335.0981140136719</v>
+        <v>266.7833251953125</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1280.526733398438</v>
+        <v>1069.416748046875</v>
       </c>
       <c r="C4" t="n">
-        <v>1283.736938476562</v>
+        <v>1065.650146484375</v>
       </c>
       <c r="D4" t="n">
-        <v>1285.9794921875</v>
+        <v>1057.922973632812</v>
       </c>
       <c r="E4" t="n">
-        <v>1287.44287109375</v>
+        <v>1058.218139648438</v>
       </c>
       <c r="F4" t="n">
-        <v>1291.773315429688</v>
+        <v>1058.446166992188</v>
       </c>
       <c r="G4" t="n">
-        <v>1300.720458984375</v>
+        <v>1058.665161132812</v>
       </c>
       <c r="H4" t="n">
-        <v>1307.137451171875</v>
+        <v>1058.91357421875</v>
       </c>
       <c r="I4" t="n">
-        <v>1313.225463867188</v>
+        <v>1059.135986328125</v>
       </c>
       <c r="J4" t="n">
-        <v>1313.66650390625</v>
+        <v>1059.375732421875</v>
       </c>
       <c r="K4" t="n">
-        <v>1316.289306640625</v>
+        <v>1059.5712890625</v>
       </c>
       <c r="L4" t="n">
-        <v>1316.911865234375</v>
+        <v>1059.791748046875</v>
       </c>
       <c r="M4" t="n">
-        <v>1317.357299804688</v>
+        <v>1059.765502929688</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.232055664062</v>
+        <v>1059.761108398438</v>
       </c>
       <c r="O4" t="n">
-        <v>1315.319213867188</v>
+        <v>1059.757202148438</v>
       </c>
       <c r="P4" t="n">
-        <v>1314.7841796875</v>
+        <v>1059.759643554688</v>
       </c>
       <c r="Q4" t="n">
-        <v>1314.307495117188</v>
+        <v>1059.763549804688</v>
       </c>
       <c r="R4" t="n">
-        <v>1314.70947265625</v>
+        <v>1059.767578125</v>
       </c>
       <c r="S4" t="n">
-        <v>1313.730712890625</v>
+        <v>1059.770629882812</v>
       </c>
       <c r="T4" t="n">
-        <v>1315.693115234375</v>
+        <v>1059.7724609375</v>
       </c>
       <c r="U4" t="n">
-        <v>1314.741455078125</v>
+        <v>1059.785034179688</v>
       </c>
       <c r="V4" t="n">
-        <v>1313.854125976562</v>
+        <v>1059.793579101562</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.717041015625</v>
+        <v>1059.880126953125</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.976806640625</v>
+        <v>1059.970825195312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1301.531494140625</v>
+        <v>1060.042236328125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1292.7822265625</v>
+        <v>1059.97265625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1284.991943359375</v>
+        <v>1059.911865234375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1282.312133789062</v>
+        <v>1059.828735351562</v>
       </c>
       <c r="AC4" t="n">
-        <v>1278.2265625</v>
+        <v>1059.763549804688</v>
       </c>
       <c r="AD4" t="n">
-        <v>1271.876953125</v>
+        <v>1059.7041015625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1263.8056640625</v>
+        <v>1059.552612304688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1262.918212890625</v>
+        <v>1059.417358398438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1262.067993164062</v>
+        <v>1059.371215820312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1260.498291015625</v>
+        <v>1059.175903320312</v>
       </c>
       <c r="AI4" t="n">
-        <v>1259.6904296875</v>
+        <v>1058.94873046875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1258.406127929688</v>
+        <v>1058.628051757812</v>
       </c>
       <c r="AK4" t="n">
-        <v>1246.53076171875</v>
+        <v>1058.339721679688</v>
       </c>
       <c r="AL4" t="n">
-        <v>1241.555053710938</v>
+        <v>1057.764526367188</v>
       </c>
       <c r="AM4" t="n">
-        <v>1237.4921875</v>
+        <v>1057.309204101562</v>
       </c>
       <c r="AN4" t="n">
-        <v>1235.07421875</v>
+        <v>1057.592041015625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1224.900268554688</v>
+        <v>1057.970092773438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1212.973876953125</v>
+        <v>1058.767211914062</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1208.00634765625</v>
+        <v>1059.875854492188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1205.830078125</v>
+        <v>1063.535888671875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1202.859375</v>
+        <v>1065.419555664062</v>
       </c>
       <c r="AT4" t="n">
-        <v>1200.489868164062</v>
+        <v>1069.484741210938</v>
       </c>
       <c r="AU4" t="n">
-        <v>1196.394165039062</v>
+        <v>1076.397094726562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1194.314697265625</v>
+        <v>1079.64453125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1191.177856445312</v>
+        <v>1085.327880859375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1185.490234375</v>
+        <v>1087.755859375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1182.718994140625</v>
+        <v>1100.741577148438</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1180.73193359375</v>
+        <v>1114.83935546875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1177.907958984375</v>
+        <v>1126.783813476562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1175.669921875</v>
+        <v>1139.557006835938</v>
       </c>
       <c r="BC4" t="n">
-        <v>1173.037353515625</v>
+        <v>1147.109375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1168.785400390625</v>
+        <v>1152.957641601562</v>
       </c>
       <c r="BE4" t="n">
-        <v>1168.896240234375</v>
+        <v>1156.2255859375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1169.188232421875</v>
+        <v>1161.176879882812</v>
       </c>
       <c r="BG4" t="n">
-        <v>1169.625244140625</v>
+        <v>1163.037353515625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1169.596313476562</v>
+        <v>1162.747924804688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1169.523559570312</v>
+        <v>1162.90771484375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1167.444213867188</v>
+        <v>1135.212646484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1162.968383789062</v>
+        <v>1119.359741210938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1163.083129882812</v>
+        <v>1110.108154296875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1162.39208984375</v>
+        <v>1106.224731445312</v>
       </c>
       <c r="BN4" t="n">
-        <v>1161.328491210938</v>
+        <v>1102.953002929688</v>
       </c>
       <c r="BO4" t="n">
-        <v>1161.049926757812</v>
+        <v>1096.285888671875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1159.875854492188</v>
+        <v>1088.140991210938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1156.4580078125</v>
+        <v>1083.420288085938</v>
       </c>
       <c r="BR4" t="n">
-        <v>1152.034301757812</v>
+        <v>1084.553588867188</v>
       </c>
       <c r="BS4" t="n">
-        <v>1151.406005859375</v>
+        <v>1083.9404296875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1148.558959960938</v>
+        <v>1083.166137695312</v>
       </c>
       <c r="BU4" t="n">
-        <v>1146.426147460938</v>
+        <v>1084.103637695312</v>
       </c>
       <c r="BV4" t="n">
-        <v>1141.516845703125</v>
+        <v>1083.799926757812</v>
       </c>
       <c r="BW4" t="n">
-        <v>1139.2255859375</v>
+        <v>1082.948974609375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1136.234130859375</v>
+        <v>1082.489868164062</v>
       </c>
       <c r="BY4" t="n">
-        <v>1133.903076171875</v>
+        <v>1079.915405273438</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1125.827514648438</v>
+        <v>1082.01025390625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1124.315063476562</v>
+        <v>1079.225219726562</v>
       </c>
       <c r="CB4" t="n">
-        <v>1122.593017578125</v>
+        <v>1081.505493164062</v>
       </c>
       <c r="CC4" t="n">
-        <v>1118.218872070312</v>
+        <v>1080.2705078125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1118.094848632812</v>
+        <v>1081.763427734375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1116.787231445312</v>
+        <v>1081.984252929688</v>
       </c>
       <c r="CF4" t="n">
-        <v>1115.433715820312</v>
+        <v>1081.210815429688</v>
       </c>
       <c r="CG4" t="n">
-        <v>1114.90478515625</v>
+        <v>1081.9267578125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1114.837158203125</v>
+        <v>1087.461547851562</v>
       </c>
       <c r="CI4" t="n">
-        <v>1114.231567382812</v>
+        <v>1097.979614257812</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1114.4462890625</v>
+        <v>1109.394653320312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1114.421630859375</v>
+        <v>1111.520751953125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1113.780639648438</v>
+        <v>1115.65966796875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1113.514526367188</v>
+        <v>1121.839233398438</v>
       </c>
       <c r="CN4" t="n">
-        <v>1112.751342773438</v>
+        <v>1128.609497070312</v>
       </c>
       <c r="CO4" t="n">
-        <v>1111.640991210938</v>
+        <v>1139.380981445312</v>
       </c>
       <c r="CP4" t="n">
-        <v>1111.051635742188</v>
+        <v>1140.479125976562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1111.08935546875</v>
+        <v>1141.353393554688</v>
       </c>
       <c r="CR4" t="n">
-        <v>1110.768432617188</v>
+        <v>1144.810791015625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1110.9609375</v>
+        <v>1144.470336914062</v>
       </c>
       <c r="CT4" t="n">
-        <v>1110.405029296875</v>
+        <v>1145.1435546875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1111.228637695312</v>
+        <v>1144.309814453125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1111.858276367188</v>
+        <v>1145.01513671875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1112.819580078125</v>
+        <v>1146.183837890625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1113.152221679688</v>
+        <v>1147.819213867188</v>
       </c>
       <c r="CY4" t="n">
-        <v>1113.886840820312</v>
+        <v>1149.665771484375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1114.4013671875</v>
+        <v>1150.690063476562</v>
       </c>
       <c r="DA4" t="n">
-        <v>1114.968505859375</v>
+        <v>1153.06298828125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1115.486694335938</v>
+        <v>1161.0078125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1116.493896484375</v>
+        <v>1156.98779296875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1117.112670898438</v>
+        <v>1156.347290039062</v>
       </c>
       <c r="DE4" t="n">
-        <v>1117.714233398438</v>
+        <v>1154.1962890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1118.74755859375</v>
+        <v>1149.186889648438</v>
       </c>
       <c r="DG4" t="n">
-        <v>1120.328491210938</v>
+        <v>1138.730346679688</v>
       </c>
       <c r="DH4" t="n">
-        <v>1121.292846679688</v>
+        <v>1117.637573242188</v>
       </c>
       <c r="DI4" t="n">
-        <v>1123.08740234375</v>
+        <v>1100.443115234375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1123.9794921875</v>
+        <v>1088.511596679688</v>
       </c>
       <c r="DK4" t="n">
-        <v>1124.866577148438</v>
+        <v>1083.041748046875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1126.46826171875</v>
+        <v>1072.912719726562</v>
       </c>
       <c r="DM4" t="n">
-        <v>1127.155151367188</v>
+        <v>1057.545166015625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1128.370483398438</v>
+        <v>1048.012329101562</v>
       </c>
       <c r="DO4" t="n">
-        <v>1128.918701171875</v>
+        <v>1031.10302734375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1128.884765625</v>
+        <v>1023.235961914062</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1128.699096679688</v>
+        <v>1015.040710449219</v>
       </c>
       <c r="DR4" t="n">
-        <v>1128.577026367188</v>
+        <v>1012.428649902344</v>
       </c>
       <c r="DS4" t="n">
-        <v>1128.444580078125</v>
+        <v>1008.831787109375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1128.387084960938</v>
+        <v>999.9655151367188</v>
       </c>
       <c r="DU4" t="n">
-        <v>1128.411499023438</v>
+        <v>1000.015014648438</v>
       </c>
       <c r="DV4" t="n">
-        <v>1128.521484375</v>
+        <v>998.7900390625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1128.556030273438</v>
+        <v>998.6339111328125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1128.549682617188</v>
+        <v>998.2805786132812</v>
       </c>
       <c r="DY4" t="n">
-        <v>1128.5126953125</v>
+        <v>1006.10302734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1128.506958007812</v>
+        <v>1009.393676757812</v>
       </c>
       <c r="EA4" t="n">
-        <v>1128.518310546875</v>
+        <v>1013.643432617188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1128.552734375</v>
+        <v>1020.666870117188</v>
       </c>
       <c r="EC4" t="n">
-        <v>1128.61181640625</v>
+        <v>1023.178039550781</v>
       </c>
       <c r="ED4" t="n">
-        <v>1128.6494140625</v>
+        <v>1040.02197265625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1128.691772460938</v>
+        <v>1050.142700195312</v>
       </c>
       <c r="EF4" t="n">
-        <v>1129.415771484375</v>
+        <v>1057.486938476562</v>
       </c>
       <c r="EG4" t="n">
-        <v>1135.128173828125</v>
+        <v>1089.745727539062</v>
       </c>
       <c r="EH4" t="n">
-        <v>1140.810180664062</v>
+        <v>1130.514038085938</v>
       </c>
       <c r="EI4" t="n">
-        <v>1140.52294921875</v>
+        <v>1151.564208984375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1140.296264648438</v>
+        <v>1166.335205078125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1141.101806640625</v>
+        <v>1211.149780273438</v>
       </c>
       <c r="EL4" t="n">
-        <v>1142.852661132812</v>
+        <v>1220.415283203125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1144.151123046875</v>
+        <v>1242.562866210938</v>
       </c>
       <c r="EN4" t="n">
-        <v>1145.661376953125</v>
+        <v>1255.518432617188</v>
       </c>
       <c r="EO4" t="n">
-        <v>1146.552856445312</v>
+        <v>1262.93798828125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1147.466674804688</v>
+        <v>1264.695434570312</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1149.352172851562</v>
+        <v>1262.906005859375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1150.3837890625</v>
+        <v>1255.412719726562</v>
       </c>
       <c r="ES4" t="n">
-        <v>1152.403442382812</v>
+        <v>1239.510375976562</v>
       </c>
       <c r="ET4" t="n">
-        <v>1153.352172851562</v>
+        <v>1215.453491210938</v>
       </c>
       <c r="EU4" t="n">
-        <v>1154.477905273438</v>
+        <v>1182.904418945312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1153.453002929688</v>
+        <v>1163.091674804688</v>
       </c>
       <c r="EW4" t="n">
-        <v>1152.3515625</v>
+        <v>1147.45556640625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1150.79052734375</v>
+        <v>1136.22802734375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1150.22265625</v>
+        <v>1131.864990234375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1148.794677734375</v>
+        <v>1118.042236328125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1148.018798828125</v>
+        <v>1100.433837890625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1147.0234375</v>
+        <v>1093.952392578125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1145.015869140625</v>
+        <v>1083.148803710938</v>
       </c>
       <c r="FD4" t="n">
-        <v>1143.07421875</v>
+        <v>1082.606567382812</v>
       </c>
       <c r="FE4" t="n">
-        <v>1141.428588867188</v>
+        <v>1074.444091796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1140.76953125</v>
+        <v>1065.151000976562</v>
       </c>
       <c r="FG4" t="n">
-        <v>1139.369995117188</v>
+        <v>1053.189453125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1139.68505859375</v>
+        <v>1033.0966796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1140.066284179688</v>
+        <v>1020.53125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1140.859619140625</v>
+        <v>1010.009338378906</v>
       </c>
       <c r="FK4" t="n">
-        <v>1147.76171875</v>
+        <v>991.5572509765625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1161.765014648438</v>
+        <v>986.4232177734375</v>
       </c>
       <c r="FM4" t="n">
-        <v>1161.2177734375</v>
+        <v>978.6510009765625</v>
       </c>
       <c r="FN4" t="n">
-        <v>1158.513061523438</v>
+        <v>974.3148803710938</v>
       </c>
       <c r="FO4" t="n">
-        <v>1149.487548828125</v>
+        <v>971.0160522460938</v>
       </c>
       <c r="FP4" t="n">
-        <v>1146.462280273438</v>
+        <v>969.744873046875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1117.26708984375</v>
+        <v>964.2654418945312</v>
       </c>
       <c r="FR4" t="n">
-        <v>1110.48486328125</v>
+        <v>956.7635498046875</v>
       </c>
       <c r="FS4" t="n">
-        <v>1092.712646484375</v>
+        <v>948.9917602539062</v>
       </c>
       <c r="FT4" t="n">
-        <v>1055.444458007812</v>
+        <v>938.7427368164062</v>
       </c>
       <c r="FU4" t="n">
-        <v>1047.902465820312</v>
+        <v>927.2145385742188</v>
       </c>
       <c r="FV4" t="n">
-        <v>1026.302368164062</v>
+        <v>919.2619018554688</v>
       </c>
       <c r="FW4" t="n">
-        <v>1018.089050292969</v>
+        <v>887.5802612304688</v>
       </c>
       <c r="FX4" t="n">
-        <v>999.3528442382812</v>
+        <v>884.3064575195312</v>
       </c>
       <c r="FY4" t="n">
-        <v>992.255859375</v>
+        <v>848.8165893554688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>981.2702026367188</v>
+        <v>823.1668701171875</v>
       </c>
       <c r="GA4" t="n">
-        <v>965.9888916015625</v>
+        <v>785.3423461914062</v>
       </c>
       <c r="GB4" t="n">
-        <v>950.1593627929688</v>
+        <v>767.868408203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>938.0556640625</v>
+        <v>754.664306640625</v>
       </c>
       <c r="GD4" t="n">
-        <v>913.6068115234375</v>
+        <v>745.1478881835938</v>
       </c>
       <c r="GE4" t="n">
-        <v>904.1190795898438</v>
+        <v>722.8704223632812</v>
       </c>
       <c r="GF4" t="n">
-        <v>885.9072265625</v>
+        <v>720.6881103515625</v>
       </c>
       <c r="GG4" t="n">
-        <v>866.4161987304688</v>
+        <v>712.2341918945312</v>
       </c>
       <c r="GH4" t="n">
-        <v>842.2811889648438</v>
+        <v>697.9375</v>
       </c>
       <c r="GI4" t="n">
-        <v>821.2778930664062</v>
+        <v>693.5249633789062</v>
       </c>
       <c r="GJ4" t="n">
-        <v>801.92626953125</v>
+        <v>690.0015869140625</v>
       </c>
       <c r="GK4" t="n">
-        <v>790.4259033203125</v>
+        <v>679.9618530273438</v>
       </c>
       <c r="GL4" t="n">
-        <v>782.5277099609375</v>
+        <v>675.9118041992188</v>
       </c>
       <c r="GM4" t="n">
-        <v>773.3656616210938</v>
+        <v>659.5523681640625</v>
       </c>
       <c r="GN4" t="n">
-        <v>761.8052368164062</v>
+        <v>644.0302124023438</v>
       </c>
       <c r="GO4" t="n">
-        <v>741.9522094726562</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>731.0919189453125</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>706.982421875</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>683.5559692382812</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>656.8137817382812</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>601.9654541015625</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>568.304931640625</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>530.678466796875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>508.2562866210938</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>494.5668334960938</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>472.2723999023438</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>475.047119140625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>474.5437622070312</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>483.2579345703125</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>545.40283203125</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>600.1292724609375</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>637.7601928710938</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>648.7985229492188</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>666.8106079101562</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>670.2333984375</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>675.1874389648438</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>672.460205078125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>665.5091552734375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>614.9835815429688</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>591.3936157226562</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>580.7930297851562</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>574.7794189453125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>572.6136474609375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>574.6409301757812</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>584.353515625</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>613.7710571289062</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>622.7003173828125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>626.1463012695312</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>634.9548950195312</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>641.689697265625</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>646.431884765625</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>648.1858520507812</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>652.0740356445312</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>662.0521240234375</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>669.287353515625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>678.7962036132812</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>682.70263671875</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>697.4552001953125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>697.525146484375</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>698.0858154296875</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>698.0194091796875</v>
-      </c>
-      <c r="II4" t="n">
-        <v>696.6378173828125</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>695.5144653320312</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>691.2664184570312</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>689.9594116210938</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>690.4970703125</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>690.8318481445312</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>691.6282958984375</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>691.7823486328125</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>692.0008544921875</v>
+        <v>642.5460815429688</v>
       </c>
     </row>
   </sheetData>

--- a/left_shoulder_Data.xlsx
+++ b/left_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>305.4590148925781</v>
       </c>
       <c r="B2" t="n">
-        <v>410.8804626464844</v>
+        <v>305.5653076171875</v>
       </c>
       <c r="C2" t="n">
-        <v>410.6481323242188</v>
+        <v>305.5853271484375</v>
       </c>
       <c r="D2" t="n">
-        <v>410.2335205078125</v>
+        <v>305.6039123535156</v>
       </c>
       <c r="E2" t="n">
-        <v>409.5886535644531</v>
+        <v>305.6203002929688</v>
       </c>
       <c r="F2" t="n">
-        <v>409.2428894042969</v>
+        <v>305.6361694335938</v>
       </c>
       <c r="G2" t="n">
-        <v>408.9899291992188</v>
+        <v>305.6553955078125</v>
       </c>
       <c r="H2" t="n">
-        <v>408.775390625</v>
+        <v>305.6717834472656</v>
       </c>
       <c r="I2" t="n">
-        <v>408.6332397460938</v>
+        <v>305.6866455078125</v>
       </c>
       <c r="J2" t="n">
-        <v>408.5264282226562</v>
+        <v>305.6997680664062</v>
       </c>
       <c r="K2" t="n">
-        <v>408.4264526367188</v>
+        <v>305.7114868164062</v>
       </c>
       <c r="L2" t="n">
-        <v>408.3219604492188</v>
+        <v>305.8562622070312</v>
       </c>
       <c r="M2" t="n">
-        <v>408.2474365234375</v>
+        <v>306.0106201171875</v>
       </c>
       <c r="N2" t="n">
-        <v>408.1742858886719</v>
+        <v>306.1645202636719</v>
       </c>
       <c r="O2" t="n">
-        <v>408.1085815429688</v>
+        <v>306.3487854003906</v>
       </c>
       <c r="P2" t="n">
-        <v>408.05029296875</v>
+        <v>306.5664367675781</v>
       </c>
       <c r="Q2" t="n">
-        <v>407.9985961914062</v>
+        <v>306.6112976074219</v>
       </c>
       <c r="R2" t="n">
-        <v>407.9522705078125</v>
+        <v>306.5184631347656</v>
       </c>
       <c r="S2" t="n">
-        <v>407.9110412597656</v>
+        <v>305.9288330078125</v>
       </c>
       <c r="T2" t="n">
-        <v>407.8740844726562</v>
+        <v>305.111083984375</v>
       </c>
       <c r="U2" t="n">
-        <v>407.8412475585938</v>
+        <v>304.4169616699219</v>
       </c>
       <c r="V2" t="n">
-        <v>407.8137817382812</v>
+        <v>303.9288940429688</v>
       </c>
       <c r="W2" t="n">
-        <v>407.7822265625</v>
+        <v>303.7919616699219</v>
       </c>
       <c r="X2" t="n">
-        <v>407.7565307617188</v>
+        <v>303.2544555664062</v>
       </c>
       <c r="Y2" t="n">
-        <v>407.7349853515625</v>
+        <v>302.5979919433594</v>
       </c>
       <c r="Z2" t="n">
-        <v>407.7291259765625</v>
+        <v>300.6356201171875</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.7249450683594</v>
+        <v>298.6744995117188</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.7248840332031</v>
+        <v>297.4510498046875</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.7248840332031</v>
+        <v>297.3529052734375</v>
       </c>
       <c r="AD2" t="n">
-        <v>407.7263793945312</v>
+        <v>299.1820373535156</v>
       </c>
       <c r="AE2" t="n">
-        <v>407.7377014160156</v>
+        <v>300.2973937988281</v>
       </c>
       <c r="AF2" t="n">
-        <v>407.7466430664062</v>
+        <v>301.7644653320312</v>
       </c>
       <c r="AG2" t="n">
-        <v>407.74658203125</v>
+        <v>301.8927917480469</v>
       </c>
       <c r="AH2" t="n">
-        <v>407.7613830566406</v>
+        <v>302.2004089355469</v>
       </c>
       <c r="AI2" t="n">
-        <v>407.77880859375</v>
+        <v>302.6487121582031</v>
       </c>
       <c r="AJ2" t="n">
-        <v>407.8062133789062</v>
+        <v>303.0122680664062</v>
       </c>
       <c r="AK2" t="n">
-        <v>407.831787109375</v>
+        <v>302.9932861328125</v>
       </c>
       <c r="AL2" t="n">
-        <v>407.8763427734375</v>
+        <v>307.1275939941406</v>
       </c>
       <c r="AM2" t="n">
-        <v>407.923828125</v>
+        <v>310.0008544921875</v>
       </c>
       <c r="AN2" t="n">
-        <v>407.8967590332031</v>
+        <v>318.3202819824219</v>
       </c>
       <c r="AO2" t="n">
-        <v>407.8590087890625</v>
+        <v>323.2145385742188</v>
       </c>
       <c r="AP2" t="n">
-        <v>407.7344360351562</v>
+        <v>331.7261047363281</v>
       </c>
       <c r="AQ2" t="n">
-        <v>408.7538452148438</v>
+        <v>335.9215087890625</v>
       </c>
       <c r="AR2" t="n">
-        <v>420.4610900878906</v>
+        <v>341.1135864257812</v>
       </c>
       <c r="AS2" t="n">
-        <v>426.7626953125</v>
+        <v>343.8952026367188</v>
       </c>
       <c r="AT2" t="n">
-        <v>440.998779296875</v>
+        <v>343.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>447.6281127929688</v>
+        <v>342.6881408691406</v>
       </c>
       <c r="AV2" t="n">
-        <v>452.9412231445312</v>
+        <v>345.0341491699219</v>
       </c>
       <c r="AW2" t="n">
-        <v>459.4560546875</v>
+        <v>347.1346740722656</v>
       </c>
       <c r="AX2" t="n">
-        <v>465.84814453125</v>
+        <v>347.3760986328125</v>
       </c>
       <c r="AY2" t="n">
-        <v>470.924560546875</v>
+        <v>347.5371704101562</v>
       </c>
       <c r="AZ2" t="n">
-        <v>474.5862426757812</v>
+        <v>347.6505126953125</v>
       </c>
       <c r="BA2" t="n">
-        <v>477.38916015625</v>
+        <v>348.7023315429688</v>
       </c>
       <c r="BB2" t="n">
-        <v>480.6023559570312</v>
+        <v>348.7432861328125</v>
       </c>
       <c r="BC2" t="n">
-        <v>484.2216491699219</v>
+        <v>349.8113403320312</v>
       </c>
       <c r="BD2" t="n">
-        <v>487.2169189453125</v>
+        <v>351.2609252929688</v>
       </c>
       <c r="BE2" t="n">
-        <v>490.6027526855469</v>
+        <v>352.470703125</v>
       </c>
       <c r="BF2" t="n">
-        <v>490.5871887207031</v>
+        <v>354.3186950683594</v>
       </c>
       <c r="BG2" t="n">
-        <v>489.9322814941406</v>
+        <v>355.2932739257812</v>
       </c>
       <c r="BH2" t="n">
-        <v>487.3583679199219</v>
+        <v>357.7755126953125</v>
       </c>
       <c r="BI2" t="n">
-        <v>484.3291625976562</v>
+        <v>361.1807556152344</v>
       </c>
       <c r="BJ2" t="n">
-        <v>477.1314086914062</v>
+        <v>363.1805725097656</v>
       </c>
       <c r="BK2" t="n">
-        <v>466.81982421875</v>
+        <v>365.6895751953125</v>
       </c>
       <c r="BL2" t="n">
-        <v>459.0987548828125</v>
+        <v>368.136962890625</v>
       </c>
       <c r="BM2" t="n">
-        <v>440.2809448242188</v>
+        <v>370.5993957519531</v>
       </c>
       <c r="BN2" t="n">
-        <v>429.251953125</v>
+        <v>373.2718505859375</v>
       </c>
       <c r="BO2" t="n">
-        <v>419.6828918457031</v>
+        <v>375.619140625</v>
       </c>
       <c r="BP2" t="n">
-        <v>410.160400390625</v>
+        <v>377.5318603515625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>400.2064208984375</v>
+        <v>380.1884765625</v>
       </c>
       <c r="BR2" t="n">
-        <v>389.8079833984375</v>
+        <v>382.1508178710938</v>
       </c>
       <c r="BS2" t="n">
-        <v>379.1083984375</v>
+        <v>385.9175415039062</v>
       </c>
       <c r="BT2" t="n">
-        <v>368.3537292480469</v>
+        <v>388.2925415039062</v>
       </c>
       <c r="BU2" t="n">
-        <v>358.5040283203125</v>
+        <v>392.0213317871094</v>
       </c>
       <c r="BV2" t="n">
-        <v>348.7141418457031</v>
+        <v>393.888916015625</v>
       </c>
       <c r="BW2" t="n">
-        <v>338.8287658691406</v>
+        <v>395.609375</v>
       </c>
       <c r="BX2" t="n">
-        <v>331.1483459472656</v>
+        <v>396.1808471679688</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.7828369140625</v>
+        <v>397.2218322753906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>317.1611938476562</v>
+        <v>398.4761962890625</v>
       </c>
       <c r="CA2" t="n">
-        <v>310.131103515625</v>
+        <v>399.9333190917969</v>
       </c>
       <c r="CB2" t="n">
-        <v>306.1788635253906</v>
+        <v>401.1112976074219</v>
       </c>
       <c r="CC2" t="n">
-        <v>301.0775146484375</v>
+        <v>401.2605285644531</v>
       </c>
       <c r="CD2" t="n">
-        <v>298.2076110839844</v>
+        <v>402.4395141601562</v>
       </c>
       <c r="CE2" t="n">
-        <v>295.517578125</v>
+        <v>402.2722778320312</v>
       </c>
       <c r="CF2" t="n">
-        <v>293.2005615234375</v>
+        <v>402.2045593261719</v>
       </c>
       <c r="CG2" t="n">
-        <v>292.2342834472656</v>
+        <v>401.6541137695312</v>
       </c>
       <c r="CH2" t="n">
-        <v>292.550537109375</v>
+        <v>401.4615478515625</v>
       </c>
       <c r="CI2" t="n">
-        <v>293.6622009277344</v>
+        <v>401.6430053710938</v>
       </c>
       <c r="CJ2" t="n">
-        <v>296.1034545898438</v>
+        <v>401.6827087402344</v>
       </c>
       <c r="CK2" t="n">
-        <v>299.2234802246094</v>
+        <v>401.8657836914062</v>
       </c>
       <c r="CL2" t="n">
-        <v>303.6075439453125</v>
+        <v>401.4616394042969</v>
       </c>
       <c r="CM2" t="n">
-        <v>309.0772399902344</v>
+        <v>401.2495727539062</v>
       </c>
       <c r="CN2" t="n">
-        <v>315.3056945800781</v>
+        <v>399.6978149414062</v>
       </c>
       <c r="CO2" t="n">
-        <v>322.6611633300781</v>
+        <v>398.6196594238281</v>
       </c>
       <c r="CP2" t="n">
-        <v>329.8049621582031</v>
+        <v>396.7491149902344</v>
       </c>
       <c r="CQ2" t="n">
-        <v>342.0633239746094</v>
+        <v>395.586669921875</v>
       </c>
       <c r="CR2" t="n">
-        <v>361.5693664550781</v>
+        <v>393.0957641601562</v>
       </c>
       <c r="CS2" t="n">
-        <v>367.6567077636719</v>
+        <v>391.4054565429688</v>
       </c>
       <c r="CT2" t="n">
-        <v>376.9602966308594</v>
+        <v>388.8152770996094</v>
       </c>
       <c r="CU2" t="n">
-        <v>385.6917114257812</v>
+        <v>386.7590637207031</v>
       </c>
       <c r="CV2" t="n">
-        <v>395.6603698730469</v>
+        <v>384.633056640625</v>
       </c>
       <c r="CW2" t="n">
-        <v>402.9501953125</v>
+        <v>382.7802734375</v>
       </c>
       <c r="CX2" t="n">
-        <v>409.3143310546875</v>
+        <v>381.62890625</v>
       </c>
       <c r="CY2" t="n">
-        <v>416.37255859375</v>
+        <v>378.584716796875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>421.639404296875</v>
+        <v>377.0812377929688</v>
       </c>
       <c r="DA2" t="n">
-        <v>428.8096618652344</v>
+        <v>375.3825378417969</v>
       </c>
       <c r="DB2" t="n">
-        <v>438.8732299804688</v>
+        <v>374.2975463867188</v>
       </c>
       <c r="DC2" t="n">
-        <v>444.3087158203125</v>
+        <v>373.2144470214844</v>
       </c>
       <c r="DD2" t="n">
-        <v>448.5989990234375</v>
+        <v>372.3203125</v>
       </c>
       <c r="DE2" t="n">
-        <v>452.4549865722656</v>
+        <v>371.3450927734375</v>
       </c>
       <c r="DF2" t="n">
-        <v>456.0473022460938</v>
+        <v>370.44921875</v>
       </c>
       <c r="DG2" t="n">
-        <v>460.1911010742188</v>
+        <v>369.7586669921875</v>
       </c>
       <c r="DH2" t="n">
-        <v>464.5877685546875</v>
+        <v>368.7237854003906</v>
       </c>
       <c r="DI2" t="n">
-        <v>466.9922485351562</v>
+        <v>368.4643249511719</v>
       </c>
       <c r="DJ2" t="n">
-        <v>468.7877807617188</v>
+        <v>368.1892700195312</v>
       </c>
       <c r="DK2" t="n">
-        <v>469.9569702148438</v>
+        <v>368.0074462890625</v>
       </c>
       <c r="DL2" t="n">
-        <v>471.3472290039062</v>
+        <v>367.8260498046875</v>
       </c>
       <c r="DM2" t="n">
-        <v>471.5772094726562</v>
+        <v>367.6561889648438</v>
       </c>
       <c r="DN2" t="n">
-        <v>468.7521667480469</v>
+        <v>367.4422607421875</v>
       </c>
       <c r="DO2" t="n">
-        <v>462.03369140625</v>
+        <v>367.1988220214844</v>
       </c>
       <c r="DP2" t="n">
-        <v>458.6308288574219</v>
+        <v>367.0713806152344</v>
       </c>
       <c r="DQ2" t="n">
-        <v>448.1949462890625</v>
+        <v>366.9889831542969</v>
       </c>
       <c r="DR2" t="n">
-        <v>443.6723022460938</v>
+        <v>366.9448852539062</v>
       </c>
       <c r="DS2" t="n">
-        <v>439.13720703125</v>
+        <v>366.9747619628906</v>
       </c>
       <c r="DT2" t="n">
-        <v>433.8491821289062</v>
+        <v>366.9766235351562</v>
       </c>
       <c r="DU2" t="n">
-        <v>429.6122436523438</v>
+        <v>366.9964904785156</v>
       </c>
       <c r="DV2" t="n">
-        <v>426.3619384765625</v>
+        <v>367.0364685058594</v>
       </c>
       <c r="DW2" t="n">
-        <v>417.0296630859375</v>
+        <v>367.1018981933594</v>
       </c>
       <c r="DX2" t="n">
-        <v>412.201904296875</v>
+        <v>367.1576538085938</v>
       </c>
       <c r="DY2" t="n">
-        <v>401.4596862792969</v>
+        <v>367.1805419921875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>396.1527099609375</v>
+        <v>367.2094116210938</v>
       </c>
       <c r="EA2" t="n">
-        <v>386.439453125</v>
+        <v>367.2053527832031</v>
       </c>
       <c r="EB2" t="n">
-        <v>374.2897033691406</v>
+        <v>367.126708984375</v>
       </c>
       <c r="EC2" t="n">
-        <v>370.32861328125</v>
+        <v>367.198486328125</v>
       </c>
       <c r="ED2" t="n">
-        <v>368.7279663085938</v>
+        <v>367.5037841796875</v>
       </c>
       <c r="EE2" t="n">
-        <v>370.1053466796875</v>
+        <v>369.1749267578125</v>
       </c>
       <c r="EF2" t="n">
-        <v>370.5421142578125</v>
+        <v>369.6866455078125</v>
       </c>
       <c r="EG2" t="n">
-        <v>381.1781005859375</v>
+        <v>369.9759216308594</v>
       </c>
       <c r="EH2" t="n">
-        <v>393.1327819824219</v>
+        <v>369.9276123046875</v>
       </c>
       <c r="EI2" t="n">
-        <v>395.6595458984375</v>
+        <v>369.9832763671875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>399.6849060058594</v>
+        <v>370.0802917480469</v>
       </c>
       <c r="EK2" t="n">
-        <v>409.0282592773438</v>
+        <v>370.9373474121094</v>
       </c>
       <c r="EL2" t="n">
-        <v>414.9735107421875</v>
+        <v>371.7020874023438</v>
       </c>
       <c r="EM2" t="n">
-        <v>421.2421264648438</v>
+        <v>372.3623962402344</v>
       </c>
       <c r="EN2" t="n">
-        <v>422.0868530273438</v>
+        <v>372.8336181640625</v>
       </c>
       <c r="EO2" t="n">
-        <v>423.8359069824219</v>
+        <v>372.9440307617188</v>
       </c>
       <c r="EP2" t="n">
-        <v>424.5036010742188</v>
+        <v>372.9996032714844</v>
       </c>
       <c r="EQ2" t="n">
-        <v>423.5960693359375</v>
+        <v>373.2350463867188</v>
       </c>
       <c r="ER2" t="n">
-        <v>421.537353515625</v>
+        <v>373.8447875976562</v>
       </c>
       <c r="ES2" t="n">
-        <v>418.4786376953125</v>
+        <v>373.9025268554688</v>
       </c>
       <c r="ET2" t="n">
-        <v>406.54931640625</v>
+        <v>373.8455200195312</v>
       </c>
       <c r="EU2" t="n">
-        <v>391.0252685546875</v>
+        <v>373.8115234375</v>
       </c>
       <c r="EV2" t="n">
-        <v>381.6069946289062</v>
+        <v>373.7634887695312</v>
       </c>
       <c r="EW2" t="n">
-        <v>364.9232482910156</v>
+        <v>373.7207641601562</v>
       </c>
       <c r="EX2" t="n">
-        <v>359.6369018554688</v>
+        <v>373.6667175292969</v>
       </c>
       <c r="EY2" t="n">
-        <v>356.1843872070312</v>
+        <v>373.7032775878906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>348.5079345703125</v>
+        <v>373.8003234863281</v>
       </c>
       <c r="FA2" t="n">
-        <v>340.7820129394531</v>
+        <v>373.7545166015625</v>
       </c>
       <c r="FB2" t="n">
-        <v>338.0473022460938</v>
+        <v>373.8624267578125</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.4288940429688</v>
+        <v>373.9539184570312</v>
       </c>
       <c r="FD2" t="n">
-        <v>333.8400268554688</v>
+        <v>374.1647338867188</v>
       </c>
       <c r="FE2" t="n">
-        <v>333.2724609375</v>
+        <v>374.3463745117188</v>
       </c>
       <c r="FF2" t="n">
-        <v>332.9881591796875</v>
+        <v>374.4782104492188</v>
       </c>
       <c r="FG2" t="n">
-        <v>337.3659057617188</v>
+        <v>374.6474609375</v>
       </c>
       <c r="FH2" t="n">
-        <v>348.8458251953125</v>
+        <v>374.5257568359375</v>
       </c>
       <c r="FI2" t="n">
-        <v>357.34423828125</v>
+        <v>374.4341430664062</v>
       </c>
       <c r="FJ2" t="n">
-        <v>369.7570495605469</v>
+        <v>374.4733276367188</v>
       </c>
       <c r="FK2" t="n">
-        <v>388.3490600585938</v>
+        <v>374.5274353027344</v>
       </c>
       <c r="FL2" t="n">
-        <v>395.3467407226562</v>
+        <v>374.536376953125</v>
       </c>
       <c r="FM2" t="n">
-        <v>408.72802734375</v>
+        <v>374.7171020507812</v>
       </c>
       <c r="FN2" t="n">
-        <v>422.0905151367188</v>
+        <v>374.8070068359375</v>
       </c>
       <c r="FO2" t="n">
-        <v>429.4702758789062</v>
+        <v>374.8822021484375</v>
       </c>
       <c r="FP2" t="n">
-        <v>433.0747680664062</v>
+        <v>374.9957885742188</v>
       </c>
       <c r="FQ2" t="n">
-        <v>442.2806091308594</v>
+        <v>375.0937194824219</v>
       </c>
       <c r="FR2" t="n">
-        <v>446.8494262695312</v>
+        <v>375.1447143554688</v>
       </c>
       <c r="FS2" t="n">
-        <v>453.6904296875</v>
+        <v>375.2135620117188</v>
       </c>
       <c r="FT2" t="n">
-        <v>459.9582214355469</v>
+        <v>375.2758483886719</v>
       </c>
       <c r="FU2" t="n">
-        <v>465.2905883789062</v>
+        <v>375.2720336914062</v>
       </c>
       <c r="FV2" t="n">
-        <v>467.287353515625</v>
+        <v>375.2225341796875</v>
       </c>
       <c r="FW2" t="n">
-        <v>474.1941528320312</v>
+        <v>375.1646118164062</v>
       </c>
       <c r="FX2" t="n">
-        <v>474.0520629882812</v>
+        <v>375.0801391601562</v>
       </c>
       <c r="FY2" t="n">
-        <v>481.4512329101562</v>
+        <v>375.0975036621094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>485.2530517578125</v>
+        <v>375.0941162109375</v>
       </c>
       <c r="GA2" t="n">
-        <v>478.6162719726562</v>
+        <v>375.2108459472656</v>
       </c>
       <c r="GB2" t="n">
-        <v>468.4010009765625</v>
+        <v>375.2842407226562</v>
       </c>
       <c r="GC2" t="n">
-        <v>448.4250183105469</v>
+        <v>375.4396057128906</v>
       </c>
       <c r="GD2" t="n">
-        <v>438.6566162109375</v>
+        <v>375.5408325195312</v>
       </c>
       <c r="GE2" t="n">
-        <v>418.1080932617188</v>
+        <v>375.5538330078125</v>
       </c>
       <c r="GF2" t="n">
-        <v>402.4890747070312</v>
+        <v>375.4659423828125</v>
       </c>
       <c r="GG2" t="n">
-        <v>390.522705078125</v>
+        <v>375.3936157226562</v>
       </c>
       <c r="GH2" t="n">
-        <v>383.4399719238281</v>
+        <v>375.2500610351562</v>
       </c>
       <c r="GI2" t="n">
-        <v>382.0547485351562</v>
+        <v>374.9026184082031</v>
       </c>
       <c r="GJ2" t="n">
-        <v>381.212158203125</v>
+        <v>374.8657836914062</v>
       </c>
       <c r="GK2" t="n">
-        <v>380.4455871582031</v>
+        <v>374.7747192382812</v>
       </c>
       <c r="GL2" t="n">
-        <v>380.3405151367188</v>
+        <v>374.6637573242188</v>
       </c>
       <c r="GM2" t="n">
-        <v>381.5621643066406</v>
+        <v>374.3870544433594</v>
       </c>
       <c r="GN2" t="n">
-        <v>384.3005981445312</v>
+        <v>373.952880859375</v>
       </c>
       <c r="GO2" t="n">
-        <v>384.7098083496094</v>
+        <v>373.4212951660156</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>372.2911987304688</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>371.2375183105469</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>370.2887573242188</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>369.6577453613281</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>369.204833984375</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>368.9547119140625</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>368.1101989746094</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>366.5377197265625</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>365.5855712890625</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>364.0956115722656</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>362.9894714355469</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>362.6465148925781</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>362.2799072265625</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>361.7310791015625</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>361.5511474609375</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>360.9642944335938</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>361.272216796875</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>362.3994140625</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>363.624755859375</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>363.9515686035156</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>363.6361083984375</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>364.0852355957031</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>365.11328125</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>365.5774536132812</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>365.9008178710938</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>366.7811889648438</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>365.1391906738281</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>362.9337158203125</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>360.903564453125</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>358.7266235351562</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>356.1828002929688</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>352.4289245605469</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>349.824951171875</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>343.7848510742188</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>338.1067504882812</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>334.5439147949219</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>332.0884704589844</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>331.5392761230469</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>329.4627380371094</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>328.8386840820312</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>328.5756225585938</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>328.5708312988281</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>329.568603515625</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>331.7929382324219</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>338.1936950683594</v>
+      </c>
+      <c r="II2" t="n">
+        <v>343.1637573242188</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>348.5999755859375</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>353.2005310058594</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>361.97119140625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>364.1007080078125</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>292.738525390625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>389.3074951171875</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>348.4989929199219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>328.5473327636719</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>324.3414916992188</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>327.1694641113281</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>359.1828002929688</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>344.123779296875</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>312.0034484863281</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>295.7792053222656</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>271.0083618164062</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>258.3746337890625</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>254.1779479980469</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>256.3717956542969</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>263.2321472167969</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>271.4048767089844</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>275.0367431640625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>272.255126953125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>274.0927734375</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>283.2077941894531</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>288.4644775390625</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>289.4828796386719</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>288.3204040527344</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>285.4878234863281</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>285.5000915527344</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>285.0374145507812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>150.5057983398438</v>
       </c>
       <c r="B3" t="n">
-        <v>311.2679138183594</v>
+        <v>150.5946807861328</v>
       </c>
       <c r="C3" t="n">
-        <v>306.719482421875</v>
+        <v>150.6096038818359</v>
       </c>
       <c r="D3" t="n">
-        <v>305.9207458496094</v>
+        <v>150.6330108642578</v>
       </c>
       <c r="E3" t="n">
-        <v>305.432373046875</v>
+        <v>150.6563568115234</v>
       </c>
       <c r="F3" t="n">
-        <v>305.1689147949219</v>
+        <v>150.67626953125</v>
       </c>
       <c r="G3" t="n">
-        <v>305.0052795410156</v>
+        <v>150.6853485107422</v>
       </c>
       <c r="H3" t="n">
-        <v>304.8677978515625</v>
+        <v>150.6944732666016</v>
       </c>
       <c r="I3" t="n">
-        <v>304.7808532714844</v>
+        <v>150.7026672363281</v>
       </c>
       <c r="J3" t="n">
-        <v>304.7135314941406</v>
+        <v>150.7098388671875</v>
       </c>
       <c r="K3" t="n">
-        <v>304.6524353027344</v>
+        <v>150.7163238525391</v>
       </c>
       <c r="L3" t="n">
-        <v>304.5915832519531</v>
+        <v>150.5010833740234</v>
       </c>
       <c r="M3" t="n">
-        <v>304.552978515625</v>
+        <v>150.3252410888672</v>
       </c>
       <c r="N3" t="n">
-        <v>304.5155639648438</v>
+        <v>150.1758117675781</v>
       </c>
       <c r="O3" t="n">
-        <v>304.4833679199219</v>
+        <v>149.9953460693359</v>
       </c>
       <c r="P3" t="n">
-        <v>304.4525146484375</v>
+        <v>149.7995147705078</v>
       </c>
       <c r="Q3" t="n">
-        <v>304.4220886230469</v>
+        <v>149.7569122314453</v>
       </c>
       <c r="R3" t="n">
-        <v>304.3950805664062</v>
+        <v>149.3600006103516</v>
       </c>
       <c r="S3" t="n">
-        <v>304.3717956542969</v>
+        <v>148.08935546875</v>
       </c>
       <c r="T3" t="n">
-        <v>304.3525085449219</v>
+        <v>146.4409790039062</v>
       </c>
       <c r="U3" t="n">
-        <v>304.3350830078125</v>
+        <v>144.8216857910156</v>
       </c>
       <c r="V3" t="n">
-        <v>304.3289184570312</v>
+        <v>143.4740600585938</v>
       </c>
       <c r="W3" t="n">
-        <v>304.3174133300781</v>
+        <v>142.3214416503906</v>
       </c>
       <c r="X3" t="n">
-        <v>304.3107299804688</v>
+        <v>140.4056091308594</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.3067321777344</v>
+        <v>138.2618103027344</v>
       </c>
       <c r="Z3" t="n">
-        <v>304.3136291503906</v>
+        <v>136.166748046875</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.3217163085938</v>
+        <v>134.7003479003906</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.3324584960938</v>
+        <v>134.6293182373047</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.3429260253906</v>
+        <v>133.845703125</v>
       </c>
       <c r="AD3" t="n">
-        <v>304.3541564941406</v>
+        <v>134.0808868408203</v>
       </c>
       <c r="AE3" t="n">
-        <v>304.3733215332031</v>
+        <v>133.4345245361328</v>
       </c>
       <c r="AF3" t="n">
-        <v>304.3904418945312</v>
+        <v>133.3773651123047</v>
       </c>
       <c r="AG3" t="n">
-        <v>304.3999633789062</v>
+        <v>133.1324615478516</v>
       </c>
       <c r="AH3" t="n">
-        <v>304.420166015625</v>
+        <v>133.4815063476562</v>
       </c>
       <c r="AI3" t="n">
-        <v>304.4421081542969</v>
+        <v>133.833251953125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>304.4715881347656</v>
+        <v>134.2447814941406</v>
       </c>
       <c r="AK3" t="n">
-        <v>304.5</v>
+        <v>134.3832244873047</v>
       </c>
       <c r="AL3" t="n">
-        <v>304.5512390136719</v>
+        <v>135.8825836181641</v>
       </c>
       <c r="AM3" t="n">
-        <v>304.6192321777344</v>
+        <v>140.0080413818359</v>
       </c>
       <c r="AN3" t="n">
-        <v>304.620849609375</v>
+        <v>141.9680480957031</v>
       </c>
       <c r="AO3" t="n">
-        <v>304.6133117675781</v>
+        <v>146.5315856933594</v>
       </c>
       <c r="AP3" t="n">
-        <v>304.5325012207031</v>
+        <v>147.3028869628906</v>
       </c>
       <c r="AQ3" t="n">
-        <v>302.7840576171875</v>
+        <v>150.765380859375</v>
       </c>
       <c r="AR3" t="n">
-        <v>303.3492126464844</v>
+        <v>153.7127227783203</v>
       </c>
       <c r="AS3" t="n">
-        <v>304.4995422363281</v>
+        <v>159.5915985107422</v>
       </c>
       <c r="AT3" t="n">
-        <v>303.7496643066406</v>
+        <v>167.2543640136719</v>
       </c>
       <c r="AU3" t="n">
-        <v>303.1620788574219</v>
+        <v>177.7302398681641</v>
       </c>
       <c r="AV3" t="n">
-        <v>303.9430236816406</v>
+        <v>184.3795013427734</v>
       </c>
       <c r="AW3" t="n">
-        <v>302.5121154785156</v>
+        <v>190.3723602294922</v>
       </c>
       <c r="AX3" t="n">
-        <v>303.785400390625</v>
+        <v>193.8039245605469</v>
       </c>
       <c r="AY3" t="n">
-        <v>303.3716125488281</v>
+        <v>198.2712097167969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>302.5390930175781</v>
+        <v>201.7582550048828</v>
       </c>
       <c r="BA3" t="n">
-        <v>301.6355285644531</v>
+        <v>203.8602600097656</v>
       </c>
       <c r="BB3" t="n">
-        <v>301.3534240722656</v>
+        <v>205.0591125488281</v>
       </c>
       <c r="BC3" t="n">
-        <v>301.5411376953125</v>
+        <v>205.5043792724609</v>
       </c>
       <c r="BD3" t="n">
-        <v>300.9220275878906</v>
+        <v>206.1200408935547</v>
       </c>
       <c r="BE3" t="n">
-        <v>301.3465270996094</v>
+        <v>206.6677856445312</v>
       </c>
       <c r="BF3" t="n">
-        <v>301.8579711914062</v>
+        <v>206.3654479980469</v>
       </c>
       <c r="BG3" t="n">
-        <v>302.1759033203125</v>
+        <v>205.5975952148438</v>
       </c>
       <c r="BH3" t="n">
-        <v>302.0368041992188</v>
+        <v>205.9924011230469</v>
       </c>
       <c r="BI3" t="n">
-        <v>302.2145080566406</v>
+        <v>207.47412109375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>301.5557861328125</v>
+        <v>208.0369567871094</v>
       </c>
       <c r="BK3" t="n">
-        <v>304.0299682617188</v>
+        <v>208.7139587402344</v>
       </c>
       <c r="BL3" t="n">
-        <v>304.4012451171875</v>
+        <v>210.4900512695312</v>
       </c>
       <c r="BM3" t="n">
-        <v>305.0803527832031</v>
+        <v>212.0765991210938</v>
       </c>
       <c r="BN3" t="n">
-        <v>306.443603515625</v>
+        <v>213.0400543212891</v>
       </c>
       <c r="BO3" t="n">
-        <v>307.0881958007812</v>
+        <v>215.0881805419922</v>
       </c>
       <c r="BP3" t="n">
-        <v>307.8174133300781</v>
+        <v>217.4572143554688</v>
       </c>
       <c r="BQ3" t="n">
-        <v>308.47802734375</v>
+        <v>218.0747680664062</v>
       </c>
       <c r="BR3" t="n">
-        <v>308.794189453125</v>
+        <v>219.9451293945312</v>
       </c>
       <c r="BS3" t="n">
-        <v>308.5942687988281</v>
+        <v>221.6747741699219</v>
       </c>
       <c r="BT3" t="n">
-        <v>307.3553466796875</v>
+        <v>225.1912841796875</v>
       </c>
       <c r="BU3" t="n">
-        <v>305.2532958984375</v>
+        <v>225.3415222167969</v>
       </c>
       <c r="BV3" t="n">
-        <v>303.8211669921875</v>
+        <v>227.1423645019531</v>
       </c>
       <c r="BW3" t="n">
-        <v>303.7861938476562</v>
+        <v>227.2533874511719</v>
       </c>
       <c r="BX3" t="n">
-        <v>302.4065551757812</v>
+        <v>228.3721008300781</v>
       </c>
       <c r="BY3" t="n">
-        <v>303.3899841308594</v>
+        <v>230.0966796875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>302.1816101074219</v>
+        <v>230.9449920654297</v>
       </c>
       <c r="CA3" t="n">
-        <v>303.7862243652344</v>
+        <v>231.5493774414062</v>
       </c>
       <c r="CB3" t="n">
-        <v>302.4373779296875</v>
+        <v>231.9250030517578</v>
       </c>
       <c r="CC3" t="n">
-        <v>303.7464904785156</v>
+        <v>232.4188079833984</v>
       </c>
       <c r="CD3" t="n">
-        <v>302.8698425292969</v>
+        <v>231.8876190185547</v>
       </c>
       <c r="CE3" t="n">
-        <v>302.7861633300781</v>
+        <v>232.1922760009766</v>
       </c>
       <c r="CF3" t="n">
-        <v>303.3165283203125</v>
+        <v>232.1006622314453</v>
       </c>
       <c r="CG3" t="n">
-        <v>303.0478210449219</v>
+        <v>232.5679626464844</v>
       </c>
       <c r="CH3" t="n">
-        <v>302.814208984375</v>
+        <v>232.9379577636719</v>
       </c>
       <c r="CI3" t="n">
-        <v>302.3798828125</v>
+        <v>233.4582824707031</v>
       </c>
       <c r="CJ3" t="n">
-        <v>301.0187683105469</v>
+        <v>234.4099578857422</v>
       </c>
       <c r="CK3" t="n">
-        <v>298.9920043945312</v>
+        <v>234.7689666748047</v>
       </c>
       <c r="CL3" t="n">
-        <v>297.5908203125</v>
+        <v>235.4610137939453</v>
       </c>
       <c r="CM3" t="n">
-        <v>296.447021484375</v>
+        <v>235.9085693359375</v>
       </c>
       <c r="CN3" t="n">
-        <v>296.04248046875</v>
+        <v>236.3861846923828</v>
       </c>
       <c r="CO3" t="n">
-        <v>295.2001953125</v>
+        <v>236.42578125</v>
       </c>
       <c r="CP3" t="n">
-        <v>295.1929931640625</v>
+        <v>238.0301513671875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>295.9049682617188</v>
+        <v>238.5910186767578</v>
       </c>
       <c r="CR3" t="n">
-        <v>296.9392395019531</v>
+        <v>239.8747253417969</v>
       </c>
       <c r="CS3" t="n">
-        <v>298.4036560058594</v>
+        <v>240.0742950439453</v>
       </c>
       <c r="CT3" t="n">
-        <v>298.2453308105469</v>
+        <v>240.7657470703125</v>
       </c>
       <c r="CU3" t="n">
-        <v>299.9122924804688</v>
+        <v>240.4571685791016</v>
       </c>
       <c r="CV3" t="n">
-        <v>299.5947265625</v>
+        <v>240.6237945556641</v>
       </c>
       <c r="CW3" t="n">
-        <v>300.9586486816406</v>
+        <v>240.5343475341797</v>
       </c>
       <c r="CX3" t="n">
-        <v>300.9316101074219</v>
+        <v>241.0680541992188</v>
       </c>
       <c r="CY3" t="n">
-        <v>300.4595031738281</v>
+        <v>242.2655029296875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>301.9601135253906</v>
+        <v>242.7510986328125</v>
       </c>
       <c r="DA3" t="n">
-        <v>301.2555236816406</v>
+        <v>242.7544250488281</v>
       </c>
       <c r="DB3" t="n">
-        <v>303.2987976074219</v>
+        <v>243.0379486083984</v>
       </c>
       <c r="DC3" t="n">
-        <v>302.422119140625</v>
+        <v>243.1035461425781</v>
       </c>
       <c r="DD3" t="n">
-        <v>303.3127746582031</v>
+        <v>243.0471649169922</v>
       </c>
       <c r="DE3" t="n">
-        <v>304.0457153320312</v>
+        <v>243.0953369140625</v>
       </c>
       <c r="DF3" t="n">
-        <v>304.4574890136719</v>
+        <v>243.0312194824219</v>
       </c>
       <c r="DG3" t="n">
-        <v>304.5133972167969</v>
+        <v>242.7933349609375</v>
       </c>
       <c r="DH3" t="n">
-        <v>306.869384765625</v>
+        <v>242.6094818115234</v>
       </c>
       <c r="DI3" t="n">
-        <v>307.86328125</v>
+        <v>242.5121459960938</v>
       </c>
       <c r="DJ3" t="n">
-        <v>308.6146850585938</v>
+        <v>242.4878082275391</v>
       </c>
       <c r="DK3" t="n">
-        <v>309.1844177246094</v>
+        <v>242.3765716552734</v>
       </c>
       <c r="DL3" t="n">
-        <v>309.7085266113281</v>
+        <v>242.2999725341797</v>
       </c>
       <c r="DM3" t="n">
-        <v>310.2018432617188</v>
+        <v>242.2306518554688</v>
       </c>
       <c r="DN3" t="n">
-        <v>308.1870727539062</v>
+        <v>242.1473388671875</v>
       </c>
       <c r="DO3" t="n">
-        <v>303.3803405761719</v>
+        <v>242.0560760498047</v>
       </c>
       <c r="DP3" t="n">
-        <v>300.1959533691406</v>
+        <v>242.01318359375</v>
       </c>
       <c r="DQ3" t="n">
-        <v>287.90625</v>
+        <v>242.0140991210938</v>
       </c>
       <c r="DR3" t="n">
-        <v>280.4446105957031</v>
+        <v>242.0181121826172</v>
       </c>
       <c r="DS3" t="n">
-        <v>274.1131591796875</v>
+        <v>242.0261993408203</v>
       </c>
       <c r="DT3" t="n">
-        <v>257.7059936523438</v>
+        <v>242.0803680419922</v>
       </c>
       <c r="DU3" t="n">
-        <v>251.7987213134766</v>
+        <v>242.104736328125</v>
       </c>
       <c r="DV3" t="n">
-        <v>243.5090942382812</v>
+        <v>242.0897216796875</v>
       </c>
       <c r="DW3" t="n">
-        <v>230.5553283691406</v>
+        <v>242.068603515625</v>
       </c>
       <c r="DX3" t="n">
-        <v>224.5626678466797</v>
+        <v>242.0359954833984</v>
       </c>
       <c r="DY3" t="n">
-        <v>217.1920623779297</v>
+        <v>242.0118713378906</v>
       </c>
       <c r="DZ3" t="n">
-        <v>216.0868530273438</v>
+        <v>241.9701843261719</v>
       </c>
       <c r="EA3" t="n">
-        <v>216.3029632568359</v>
+        <v>241.92431640625</v>
       </c>
       <c r="EB3" t="n">
-        <v>228.5523223876953</v>
+        <v>241.9181518554688</v>
       </c>
       <c r="EC3" t="n">
-        <v>235.8132934570312</v>
+        <v>241.9857482910156</v>
       </c>
       <c r="ED3" t="n">
-        <v>255.9000244140625</v>
+        <v>242.1453399658203</v>
       </c>
       <c r="EE3" t="n">
-        <v>277.7212829589844</v>
+        <v>242.9762420654297</v>
       </c>
       <c r="EF3" t="n">
-        <v>285.971435546875</v>
+        <v>243.2110900878906</v>
       </c>
       <c r="EG3" t="n">
-        <v>301.3153686523438</v>
+        <v>243.6593933105469</v>
       </c>
       <c r="EH3" t="n">
-        <v>310.9856567382812</v>
+        <v>243.8456115722656</v>
       </c>
       <c r="EI3" t="n">
-        <v>316.0405578613281</v>
+        <v>244.0677795410156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>317.5504455566406</v>
+        <v>244.1896820068359</v>
       </c>
       <c r="EK3" t="n">
-        <v>319.2087097167969</v>
+        <v>243.6963806152344</v>
       </c>
       <c r="EL3" t="n">
-        <v>320.1307067871094</v>
+        <v>243.3442840576172</v>
       </c>
       <c r="EM3" t="n">
-        <v>318.4832153320312</v>
+        <v>243.2838287353516</v>
       </c>
       <c r="EN3" t="n">
-        <v>316.8848876953125</v>
+        <v>243.2187347412109</v>
       </c>
       <c r="EO3" t="n">
-        <v>315.6458740234375</v>
+        <v>243.2668304443359</v>
       </c>
       <c r="EP3" t="n">
-        <v>315.6278686523438</v>
+        <v>243.2947235107422</v>
       </c>
       <c r="EQ3" t="n">
-        <v>316.3785095214844</v>
+        <v>242.7802581787109</v>
       </c>
       <c r="ER3" t="n">
-        <v>317.3982238769531</v>
+        <v>242.1832427978516</v>
       </c>
       <c r="ES3" t="n">
-        <v>318.7160034179688</v>
+        <v>242.1857299804688</v>
       </c>
       <c r="ET3" t="n">
-        <v>324.947509765625</v>
+        <v>242.2010498046875</v>
       </c>
       <c r="EU3" t="n">
-        <v>334.4632263183594</v>
+        <v>242.2323455810547</v>
       </c>
       <c r="EV3" t="n">
-        <v>335.7784729003906</v>
+        <v>242.2677307128906</v>
       </c>
       <c r="EW3" t="n">
-        <v>340.2684326171875</v>
+        <v>242.2268524169922</v>
       </c>
       <c r="EX3" t="n">
-        <v>342.2312316894531</v>
+        <v>242.1156158447266</v>
       </c>
       <c r="EY3" t="n">
-        <v>343.2106628417969</v>
+        <v>242.1107177734375</v>
       </c>
       <c r="EZ3" t="n">
-        <v>345.2938842773438</v>
+        <v>242.0829467773438</v>
       </c>
       <c r="FA3" t="n">
-        <v>346.6684265136719</v>
+        <v>241.8271026611328</v>
       </c>
       <c r="FB3" t="n">
-        <v>347.1841430664062</v>
+        <v>241.8449249267578</v>
       </c>
       <c r="FC3" t="n">
-        <v>347.7734069824219</v>
+        <v>241.8409881591797</v>
       </c>
       <c r="FD3" t="n">
-        <v>343.7348327636719</v>
+        <v>241.7915191650391</v>
       </c>
       <c r="FE3" t="n">
-        <v>336.7418823242188</v>
+        <v>241.6675720214844</v>
       </c>
       <c r="FF3" t="n">
-        <v>333.0982055664062</v>
+        <v>241.6451721191406</v>
       </c>
       <c r="FG3" t="n">
-        <v>326.5364074707031</v>
+        <v>241.8136596679688</v>
       </c>
       <c r="FH3" t="n">
-        <v>325.3232727050781</v>
+        <v>241.6830291748047</v>
       </c>
       <c r="FI3" t="n">
-        <v>324.5841064453125</v>
+        <v>241.6185150146484</v>
       </c>
       <c r="FJ3" t="n">
-        <v>325.6096801757812</v>
+        <v>241.7380065917969</v>
       </c>
       <c r="FK3" t="n">
-        <v>326.4830017089844</v>
+        <v>241.7330017089844</v>
       </c>
       <c r="FL3" t="n">
-        <v>323.6642456054688</v>
+        <v>241.6539306640625</v>
       </c>
       <c r="FM3" t="n">
-        <v>321.8882751464844</v>
+        <v>241.7806701660156</v>
       </c>
       <c r="FN3" t="n">
-        <v>322.5837707519531</v>
+        <v>241.8170928955078</v>
       </c>
       <c r="FO3" t="n">
-        <v>321.1865234375</v>
+        <v>241.8558349609375</v>
       </c>
       <c r="FP3" t="n">
-        <v>321.384033203125</v>
+        <v>241.908447265625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>318.6620178222656</v>
+        <v>241.9530181884766</v>
       </c>
       <c r="FR3" t="n">
-        <v>318.3978881835938</v>
+        <v>241.9753723144531</v>
       </c>
       <c r="FS3" t="n">
-        <v>314.3763122558594</v>
+        <v>241.9389953613281</v>
       </c>
       <c r="FT3" t="n">
-        <v>311.9761352539062</v>
+        <v>241.9593200683594</v>
       </c>
       <c r="FU3" t="n">
-        <v>309.0706176757812</v>
+        <v>241.8675079345703</v>
       </c>
       <c r="FV3" t="n">
-        <v>307.677978515625</v>
+        <v>241.8081970214844</v>
       </c>
       <c r="FW3" t="n">
-        <v>307.0123596191406</v>
+        <v>241.7435302734375</v>
       </c>
       <c r="FX3" t="n">
-        <v>305.976806640625</v>
+        <v>241.6530456542969</v>
       </c>
       <c r="FY3" t="n">
-        <v>302.679931640625</v>
+        <v>241.6632232666016</v>
       </c>
       <c r="FZ3" t="n">
-        <v>296.6752319335938</v>
+        <v>241.6564483642578</v>
       </c>
       <c r="GA3" t="n">
-        <v>285.6387023925781</v>
+        <v>241.7568359375</v>
       </c>
       <c r="GB3" t="n">
-        <v>287.1767578125</v>
+        <v>241.8190155029297</v>
       </c>
       <c r="GC3" t="n">
-        <v>287.1793212890625</v>
+        <v>241.9745025634766</v>
       </c>
       <c r="GD3" t="n">
-        <v>286.4120788574219</v>
+        <v>242.1692810058594</v>
       </c>
       <c r="GE3" t="n">
-        <v>286.5582580566406</v>
+        <v>242.2640991210938</v>
       </c>
       <c r="GF3" t="n">
-        <v>285.3831481933594</v>
+        <v>242.4168548583984</v>
       </c>
       <c r="GG3" t="n">
-        <v>284.0979614257812</v>
+        <v>242.5221862792969</v>
       </c>
       <c r="GH3" t="n">
-        <v>282.0890502929688</v>
+        <v>242.8360137939453</v>
       </c>
       <c r="GI3" t="n">
-        <v>281.2650756835938</v>
+        <v>242.933837890625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>280.5482788085938</v>
+        <v>242.6068267822266</v>
       </c>
       <c r="GK3" t="n">
-        <v>277.5185241699219</v>
+        <v>242.1075134277344</v>
       </c>
       <c r="GL3" t="n">
-        <v>275.724609375</v>
+        <v>241.8478546142578</v>
       </c>
       <c r="GM3" t="n">
-        <v>272.2314147949219</v>
+        <v>241.6572418212891</v>
       </c>
       <c r="GN3" t="n">
-        <v>267.2633666992188</v>
+        <v>241.1843719482422</v>
       </c>
       <c r="GO3" t="n">
-        <v>266.7833251953125</v>
+        <v>240.7458953857422</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>240.500732421875</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>240.4683837890625</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>241.0745391845703</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>241.4499664306641</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>241.2193908691406</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>241.1042175292969</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>241.1939849853516</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>241.6890106201172</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>241.7603912353516</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>241.3968048095703</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>241.1972198486328</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>241.1717834472656</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>241.2294158935547</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>241.0230712890625</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>240.7564239501953</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>239.9281005859375</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>239.7094268798828</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>239.9775390625</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>238.5226287841797</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>233.2439575195312</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>231.4595184326172</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>229.0456390380859</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>228.4304351806641</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>227.0279388427734</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>226.2451171875</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>222.5344085693359</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>219.0201110839844</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>217.0221405029297</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>216.0435333251953</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>215.1690979003906</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>212.3878173828125</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>209.7079315185547</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>208.0551910400391</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>202.115478515625</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>195.5448455810547</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>193.5437469482422</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>191.7606048583984</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>188.4297027587891</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>180.0199737548828</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>177.3248138427734</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>172.2255096435547</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>166.2274932861328</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>160.3673400878906</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>154.6105194091797</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>147.8712615966797</v>
+      </c>
+      <c r="II3" t="n">
+        <v>138.45263671875</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>124.1008605957031</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>106.8725051879883</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>89.78752136230469</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>68.91848754882812</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>27.73652267456055</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>254.4478149414062</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>302.1219177246094</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>306.3587951660156</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>289.8101806640625</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>272.0567321777344</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>123.1865539550781</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>127.7023468017578</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>197.3249816894531</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>168.8863067626953</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>186.8130493164062</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>207.8895721435547</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>239.6786193847656</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>269.3739929199219</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>302.496337890625</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>302.5675048828125</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>290.7923889160156</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>289.5003662109375</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>284.1759338378906</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>283.5778503417969</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>283.8044128417969</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>284.6210632324219</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>285.9782104492188</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>297.8296203613281</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>300.9755859375</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>305.0498657226562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>933.1566772460938</v>
       </c>
       <c r="B4" t="n">
-        <v>1069.416748046875</v>
+        <v>933.1463012695312</v>
       </c>
       <c r="C4" t="n">
-        <v>1065.650146484375</v>
+        <v>933.1383056640625</v>
       </c>
       <c r="D4" t="n">
-        <v>1057.922973632812</v>
+        <v>933.1304931640625</v>
       </c>
       <c r="E4" t="n">
-        <v>1058.218139648438</v>
+        <v>933.1229248046875</v>
       </c>
       <c r="F4" t="n">
-        <v>1058.446166992188</v>
+        <v>933.116455078125</v>
       </c>
       <c r="G4" t="n">
-        <v>1058.665161132812</v>
+        <v>933.0994262695312</v>
       </c>
       <c r="H4" t="n">
-        <v>1058.91357421875</v>
+        <v>933.075927734375</v>
       </c>
       <c r="I4" t="n">
-        <v>1059.135986328125</v>
+        <v>933.05126953125</v>
       </c>
       <c r="J4" t="n">
-        <v>1059.375732421875</v>
+        <v>933.0244140625</v>
       </c>
       <c r="K4" t="n">
-        <v>1059.5712890625</v>
+        <v>932.9988403320312</v>
       </c>
       <c r="L4" t="n">
-        <v>1059.791748046875</v>
+        <v>932.5679321289062</v>
       </c>
       <c r="M4" t="n">
-        <v>1059.765502929688</v>
+        <v>932.1460571289062</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.761108398438</v>
+        <v>931.6550903320312</v>
       </c>
       <c r="O4" t="n">
-        <v>1059.757202148438</v>
+        <v>931.0371704101562</v>
       </c>
       <c r="P4" t="n">
-        <v>1059.759643554688</v>
+        <v>930.3684692382812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1059.763549804688</v>
+        <v>929.2681274414062</v>
       </c>
       <c r="R4" t="n">
-        <v>1059.767578125</v>
+        <v>925.6492309570312</v>
       </c>
       <c r="S4" t="n">
-        <v>1059.770629882812</v>
+        <v>915.6724243164062</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.7724609375</v>
+        <v>903.051513671875</v>
       </c>
       <c r="U4" t="n">
-        <v>1059.785034179688</v>
+        <v>890.666748046875</v>
       </c>
       <c r="V4" t="n">
-        <v>1059.793579101562</v>
+        <v>879.8079833984375</v>
       </c>
       <c r="W4" t="n">
-        <v>1059.880126953125</v>
+        <v>869.2598876953125</v>
       </c>
       <c r="X4" t="n">
-        <v>1059.970825195312</v>
+        <v>854.0282592773438</v>
       </c>
       <c r="Y4" t="n">
-        <v>1060.042236328125</v>
+        <v>838.0220947265625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1059.97265625</v>
+        <v>821.0989990234375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1059.911865234375</v>
+        <v>807.3466796875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1059.828735351562</v>
+        <v>797.9556884765625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1059.763549804688</v>
+        <v>790.6659545898438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1059.7041015625</v>
+        <v>787.1668090820312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1059.552612304688</v>
+        <v>781.0525512695312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1059.417358398438</v>
+        <v>776.7750244140625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1059.371215820312</v>
+        <v>771.6861572265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1059.175903320312</v>
+        <v>769.011962890625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1058.94873046875</v>
+        <v>767.8594970703125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1058.628051757812</v>
+        <v>767.3338623046875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1058.339721679688</v>
+        <v>769.1044921875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1057.764526367188</v>
+        <v>779.9495849609375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1057.309204101562</v>
+        <v>798.54931640625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1057.592041015625</v>
+        <v>822.8087158203125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1057.970092773438</v>
+        <v>845.98193359375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1058.767211914062</v>
+        <v>876.9049072265625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1059.875854492188</v>
+        <v>908.0963134765625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1063.535888671875</v>
+        <v>944.1055297851562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1065.419555664062</v>
+        <v>980.6741943359375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1069.484741210938</v>
+        <v>1012.322082519531</v>
       </c>
       <c r="AU4" t="n">
-        <v>1076.397094726562</v>
+        <v>1051.018188476562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1079.64453125</v>
+        <v>1088.79248046875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1085.327880859375</v>
+        <v>1127.68603515625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1087.755859375</v>
+        <v>1160.64111328125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1100.741577148438</v>
+        <v>1196.557983398438</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1114.83935546875</v>
+        <v>1227.457275390625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1126.783813476562</v>
+        <v>1260.084350585938</v>
       </c>
       <c r="BB4" t="n">
-        <v>1139.557006835938</v>
+        <v>1286.223388671875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1147.109375</v>
+        <v>1316.947998046875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1152.957641601562</v>
+        <v>1342.85400390625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1156.2255859375</v>
+        <v>1363.988647460938</v>
       </c>
       <c r="BF4" t="n">
-        <v>1161.176879882812</v>
+        <v>1391.81494140625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1163.037353515625</v>
+        <v>1403.478759765625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1162.747924804688</v>
+        <v>1429.029907226562</v>
       </c>
       <c r="BI4" t="n">
-        <v>1162.90771484375</v>
+        <v>1468.47900390625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1135.212646484375</v>
+        <v>1484.901000976562</v>
       </c>
       <c r="BK4" t="n">
-        <v>1119.359741210938</v>
+        <v>1500.716918945312</v>
       </c>
       <c r="BL4" t="n">
-        <v>1110.108154296875</v>
+        <v>1512.042602539062</v>
       </c>
       <c r="BM4" t="n">
-        <v>1106.224731445312</v>
+        <v>1536.123168945312</v>
       </c>
       <c r="BN4" t="n">
-        <v>1102.953002929688</v>
+        <v>1550.71044921875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1096.285888671875</v>
+        <v>1566.862182617188</v>
       </c>
       <c r="BP4" t="n">
-        <v>1088.140991210938</v>
+        <v>1583.9736328125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1083.420288085938</v>
+        <v>1599.013305664062</v>
       </c>
       <c r="BR4" t="n">
-        <v>1084.553588867188</v>
+        <v>1613.210815429688</v>
       </c>
       <c r="BS4" t="n">
-        <v>1083.9404296875</v>
+        <v>1644.304931640625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1083.166137695312</v>
+        <v>1665.63671875</v>
       </c>
       <c r="BU4" t="n">
-        <v>1084.103637695312</v>
+        <v>1681.78076171875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1083.799926757812</v>
+        <v>1707.245239257812</v>
       </c>
       <c r="BW4" t="n">
-        <v>1082.948974609375</v>
+        <v>1732.17138671875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1082.489868164062</v>
+        <v>1741.581176757812</v>
       </c>
       <c r="BY4" t="n">
-        <v>1079.915405273438</v>
+        <v>1777.118774414062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1082.01025390625</v>
+        <v>1797.229858398438</v>
       </c>
       <c r="CA4" t="n">
-        <v>1079.225219726562</v>
+        <v>1823.4482421875</v>
       </c>
       <c r="CB4" t="n">
-        <v>1081.505493164062</v>
+        <v>1827.85107421875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1080.2705078125</v>
+        <v>1855.118530273438</v>
       </c>
       <c r="CD4" t="n">
-        <v>1081.763427734375</v>
+        <v>1861.40478515625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1081.984252929688</v>
+        <v>1874.688232421875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1081.210815429688</v>
+        <v>1882.593627929688</v>
       </c>
       <c r="CG4" t="n">
-        <v>1081.9267578125</v>
+        <v>1900.001098632812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1087.461547851562</v>
+        <v>1913.52392578125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1097.979614257812</v>
+        <v>1924.38720703125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1109.394653320312</v>
+        <v>1945.25537109375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1111.520751953125</v>
+        <v>1949.683349609375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1115.65966796875</v>
+        <v>1975.206909179688</v>
       </c>
       <c r="CM4" t="n">
-        <v>1121.839233398438</v>
+        <v>1977.258666992188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1128.609497070312</v>
+        <v>2002.813110351562</v>
       </c>
       <c r="CO4" t="n">
-        <v>1139.380981445312</v>
+        <v>2003.260375976562</v>
       </c>
       <c r="CP4" t="n">
-        <v>1140.479125976562</v>
+        <v>2014.851318359375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1141.353393554688</v>
+        <v>2020.5107421875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1144.810791015625</v>
+        <v>2024.379516601562</v>
       </c>
       <c r="CS4" t="n">
-        <v>1144.470336914062</v>
+        <v>2030.451538085938</v>
       </c>
       <c r="CT4" t="n">
-        <v>1145.1435546875</v>
+        <v>2041.767944335938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1144.309814453125</v>
+        <v>2044.8955078125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1145.01513671875</v>
+        <v>2050.126708984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1146.183837890625</v>
+        <v>2055.337646484375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1147.819213867188</v>
+        <v>2090.76220703125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1149.665771484375</v>
+        <v>2116.58056640625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1150.690063476562</v>
+        <v>2115.3447265625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1153.06298828125</v>
+        <v>2132.89111328125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1161.0078125</v>
+        <v>2137.814453125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1156.98779296875</v>
+        <v>2138.77099609375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1156.347290039062</v>
+        <v>2142.51611328125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1154.1962890625</v>
+        <v>2151.768310546875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1149.186889648438</v>
+        <v>2157.853515625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1138.730346679688</v>
+        <v>2162.759033203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1117.637573242188</v>
+        <v>2179.057373046875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1100.443115234375</v>
+        <v>2178.2861328125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1088.511596679688</v>
+        <v>2176.949951171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1083.041748046875</v>
+        <v>2177.70751953125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1072.912719726562</v>
+        <v>2178.2900390625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1057.545166015625</v>
+        <v>2178.910400390625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1048.012329101562</v>
+        <v>2179.537109375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1031.10302734375</v>
+        <v>2180.52294921875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1023.235961914062</v>
+        <v>2180.780517578125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1015.040710449219</v>
+        <v>2182.86376953125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1012.428649902344</v>
+        <v>2183.99951171875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1008.831787109375</v>
+        <v>2183.974853515625</v>
       </c>
       <c r="DT4" t="n">
-        <v>999.9655151367188</v>
+        <v>2183.89892578125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1000.015014648438</v>
+        <v>2183.8212890625</v>
       </c>
       <c r="DV4" t="n">
-        <v>998.7900390625</v>
+        <v>2183.77294921875</v>
       </c>
       <c r="DW4" t="n">
-        <v>998.6339111328125</v>
+        <v>2183.63525390625</v>
       </c>
       <c r="DX4" t="n">
-        <v>998.2805786132812</v>
+        <v>2181.7275390625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1006.10302734375</v>
+        <v>2180.75927734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1009.393676757812</v>
+        <v>2179.013427734375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1013.643432617188</v>
+        <v>2178.420654296875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1020.666870117188</v>
+        <v>2177.8369140625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1023.178039550781</v>
+        <v>2176.29833984375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1040.02197265625</v>
+        <v>2176.089111328125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1050.142700195312</v>
+        <v>2173.994384765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1057.486938476562</v>
+        <v>2163.821533203125</v>
       </c>
       <c r="EG4" t="n">
-        <v>1089.745727539062</v>
+        <v>2162.413330078125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1130.514038085938</v>
+        <v>2159.27294921875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1151.564208984375</v>
+        <v>2160.018798828125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1166.335205078125</v>
+        <v>2159.3681640625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1211.149780273438</v>
+        <v>2155.208251953125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1220.415283203125</v>
+        <v>2150.972412109375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1242.562866210938</v>
+        <v>2140.284912109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1255.518432617188</v>
+        <v>2140.934814453125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1262.93798828125</v>
+        <v>2140.342041015625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1264.695434570312</v>
+        <v>2139.635009765625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1262.906005859375</v>
+        <v>2131.152587890625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1255.412719726562</v>
+        <v>2133.4482421875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1239.510375976562</v>
+        <v>2133.433837890625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1215.453491210938</v>
+        <v>2133.60009765625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1182.904418945312</v>
+        <v>2133.400390625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1163.091674804688</v>
+        <v>2132.674560546875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1147.45556640625</v>
+        <v>2130.866455078125</v>
       </c>
       <c r="EX4" t="n">
-        <v>1136.22802734375</v>
+        <v>2123.5224609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1131.864990234375</v>
+        <v>2121.764892578125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1118.042236328125</v>
+        <v>2122.43798828125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1100.433837890625</v>
+        <v>2110.558349609375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1093.952392578125</v>
+        <v>2110.8232421875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1083.148803710938</v>
+        <v>2110.778564453125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1082.606567382812</v>
+        <v>2111.837646484375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1074.444091796875</v>
+        <v>2112.504638671875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1065.151000976562</v>
+        <v>2113.2236328125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1053.189453125</v>
+        <v>2121.224365234375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1033.0966796875</v>
+        <v>2119.597412109375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1020.53125</v>
+        <v>2119.9853515625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1010.009338378906</v>
+        <v>2128.617431640625</v>
       </c>
       <c r="FK4" t="n">
-        <v>991.5572509765625</v>
+        <v>2126.555419921875</v>
       </c>
       <c r="FL4" t="n">
-        <v>986.4232177734375</v>
+        <v>2120.620849609375</v>
       </c>
       <c r="FM4" t="n">
-        <v>978.6510009765625</v>
+        <v>2123.74658203125</v>
       </c>
       <c r="FN4" t="n">
-        <v>974.3148803710938</v>
+        <v>2123.0986328125</v>
       </c>
       <c r="FO4" t="n">
-        <v>971.0160522460938</v>
+        <v>2123.1669921875</v>
       </c>
       <c r="FP4" t="n">
-        <v>969.744873046875</v>
+        <v>2122.766845703125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>964.2654418945312</v>
+        <v>2122.337158203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>956.7635498046875</v>
+        <v>2122.031005859375</v>
       </c>
       <c r="FS4" t="n">
-        <v>948.9917602539062</v>
+        <v>2116.243896484375</v>
       </c>
       <c r="FT4" t="n">
-        <v>938.7427368164062</v>
+        <v>2115.175537109375</v>
       </c>
       <c r="FU4" t="n">
-        <v>927.2145385742188</v>
+        <v>2107.69091796875</v>
       </c>
       <c r="FV4" t="n">
-        <v>919.2619018554688</v>
+        <v>2104.852294921875</v>
       </c>
       <c r="FW4" t="n">
-        <v>887.5802612304688</v>
+        <v>2101.659423828125</v>
       </c>
       <c r="FX4" t="n">
-        <v>884.3064575195312</v>
+        <v>2097.54248046875</v>
       </c>
       <c r="FY4" t="n">
-        <v>848.8165893554688</v>
+        <v>2096.98876953125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>823.1668701171875</v>
+        <v>2095.70068359375</v>
       </c>
       <c r="GA4" t="n">
-        <v>785.3423461914062</v>
+        <v>2096.5947265625</v>
       </c>
       <c r="GB4" t="n">
-        <v>767.868408203125</v>
+        <v>2097.19677734375</v>
       </c>
       <c r="GC4" t="n">
-        <v>754.664306640625</v>
+        <v>2098.149169921875</v>
       </c>
       <c r="GD4" t="n">
-        <v>745.1478881835938</v>
+        <v>2100.36376953125</v>
       </c>
       <c r="GE4" t="n">
-        <v>722.8704223632812</v>
+        <v>2102.000244140625</v>
       </c>
       <c r="GF4" t="n">
-        <v>720.6881103515625</v>
+        <v>2101.2490234375</v>
       </c>
       <c r="GG4" t="n">
-        <v>712.2341918945312</v>
+        <v>2101.79736328125</v>
       </c>
       <c r="GH4" t="n">
-        <v>697.9375</v>
+        <v>2111.255859375</v>
       </c>
       <c r="GI4" t="n">
-        <v>693.5249633789062</v>
+        <v>2121.56640625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>690.0015869140625</v>
+        <v>2113.111572265625</v>
       </c>
       <c r="GK4" t="n">
-        <v>679.9618530273438</v>
+        <v>2109.850341796875</v>
       </c>
       <c r="GL4" t="n">
-        <v>675.9118041992188</v>
+        <v>2116.3818359375</v>
       </c>
       <c r="GM4" t="n">
-        <v>659.5523681640625</v>
+        <v>2122.749755859375</v>
       </c>
       <c r="GN4" t="n">
-        <v>644.0302124023438</v>
+        <v>2121.582275390625</v>
       </c>
       <c r="GO4" t="n">
-        <v>642.5460815429688</v>
+        <v>2114.28564453125</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2111.93359375</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2125.252685546875</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2122.837158203125</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2121.207275390625</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2120.725830078125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2118.35888671875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2108.214111328125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2101.537353515625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2099.92333984375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2098.634765625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2079.556884765625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2072.910888671875</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2062.9375</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2030.676513671875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2018.14990234375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1966.55908203125</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1939.604858398438</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1888.585205078125</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1845.92431640625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1794.356689453125</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1769.35009765625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1728.474487304688</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1696.642456054688</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1656.070922851562</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1640.215454101562</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1615.957275390625</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1588.199462890625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1554.163940429688</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1522.139038085938</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1495.257568359375</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1454.890380859375</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1416.330810546875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1390.427856445312</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1357.5400390625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1326.076171875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1294.104125976562</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1260.295043945312</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1231.414794921875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1175.840087890625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1150.025024414062</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1108.160278320312</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1051.955078125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>998.9570922851562</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>934.0242919921875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>865.3202514648438</v>
+      </c>
+      <c r="II4" t="n">
+        <v>795.120849609375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>729.1765747070312</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>659.952880859375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>595.9473876953125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>541.0062255859375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>490.3614501953125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>542.4772338867188</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>582.4598388671875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>569.7672119140625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>570.6936645507812</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>570.3336791992188</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>549.6397094726562</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>547.344482421875</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>602.6431884765625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>594.8207397460938</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>628.2764282226562</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>634.8754272460938</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>642.1438598632812</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>679.3834838867188</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>726.5232543945312</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>773.949462890625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>807.57421875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>822.261474609375</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>836.00927734375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>856.6324462890625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>862.202392578125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>857.1028442382812</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>839.4937744140625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>824.0328369140625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>799.2676391601562</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>768.7328491210938</v>
       </c>
     </row>
   </sheetData>

--- a/left_shoulder_Data.xlsx
+++ b/left_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>305.4590148925781</v>
+        <v>474.1519775390625</v>
       </c>
       <c r="B2" t="n">
-        <v>305.5653076171875</v>
+        <v>474.0482177734375</v>
       </c>
       <c r="C2" t="n">
-        <v>305.5853271484375</v>
+        <v>472.7301635742188</v>
       </c>
       <c r="D2" t="n">
-        <v>305.6039123535156</v>
+        <v>472.5356750488281</v>
       </c>
       <c r="E2" t="n">
-        <v>305.6203002929688</v>
+        <v>472.1627807617188</v>
       </c>
       <c r="F2" t="n">
-        <v>305.6361694335938</v>
+        <v>472.000732421875</v>
       </c>
       <c r="G2" t="n">
-        <v>305.6553955078125</v>
+        <v>471.4578552246094</v>
       </c>
       <c r="H2" t="n">
-        <v>305.6717834472656</v>
+        <v>469.8853149414062</v>
       </c>
       <c r="I2" t="n">
-        <v>305.6866455078125</v>
+        <v>467.4165649414062</v>
       </c>
       <c r="J2" t="n">
-        <v>305.6997680664062</v>
+        <v>463.7523803710938</v>
       </c>
       <c r="K2" t="n">
-        <v>305.7114868164062</v>
+        <v>458.7070007324219</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8562622070312</v>
+        <v>454.6521606445312</v>
       </c>
       <c r="M2" t="n">
-        <v>306.0106201171875</v>
+        <v>447.8175659179688</v>
       </c>
       <c r="N2" t="n">
-        <v>306.1645202636719</v>
+        <v>434.9533081054688</v>
       </c>
       <c r="O2" t="n">
-        <v>306.3487854003906</v>
+        <v>422.3148193359375</v>
       </c>
       <c r="P2" t="n">
-        <v>306.5664367675781</v>
+        <v>414.7806396484375</v>
       </c>
       <c r="Q2" t="n">
-        <v>306.6112976074219</v>
+        <v>409.2843933105469</v>
       </c>
       <c r="R2" t="n">
-        <v>306.5184631347656</v>
+        <v>409.5508422851562</v>
       </c>
       <c r="S2" t="n">
-        <v>305.9288330078125</v>
+        <v>407.9075317382812</v>
       </c>
       <c r="T2" t="n">
-        <v>305.111083984375</v>
+        <v>409.1699829101562</v>
       </c>
       <c r="U2" t="n">
-        <v>304.4169616699219</v>
+        <v>408.3903198242188</v>
       </c>
       <c r="V2" t="n">
-        <v>303.9288940429688</v>
+        <v>407.5370788574219</v>
       </c>
       <c r="W2" t="n">
-        <v>303.7919616699219</v>
+        <v>406.2255859375</v>
       </c>
       <c r="X2" t="n">
-        <v>303.2544555664062</v>
+        <v>404.6338195800781</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.5979919433594</v>
+        <v>403.8027648925781</v>
       </c>
       <c r="Z2" t="n">
-        <v>300.6356201171875</v>
+        <v>403.4905395507812</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.6744995117188</v>
+        <v>403.1955261230469</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.4510498046875</v>
+        <v>402.9895324707031</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.3529052734375</v>
+        <v>402.6766357421875</v>
       </c>
       <c r="AD2" t="n">
-        <v>299.1820373535156</v>
+        <v>402.7615966796875</v>
       </c>
       <c r="AE2" t="n">
-        <v>300.2973937988281</v>
+        <v>403.3481140136719</v>
       </c>
       <c r="AF2" t="n">
-        <v>301.7644653320312</v>
+        <v>404.3705444335938</v>
       </c>
       <c r="AG2" t="n">
-        <v>301.8927917480469</v>
+        <v>406.169189453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>302.2004089355469</v>
+        <v>408.3697814941406</v>
       </c>
       <c r="AI2" t="n">
-        <v>302.6487121582031</v>
+        <v>410.3683166503906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>303.0122680664062</v>
+        <v>412.386962890625</v>
       </c>
       <c r="AK2" t="n">
-        <v>302.9932861328125</v>
+        <v>414.3402709960938</v>
       </c>
       <c r="AL2" t="n">
-        <v>307.1275939941406</v>
+        <v>415.9911804199219</v>
       </c>
       <c r="AM2" t="n">
-        <v>310.0008544921875</v>
+        <v>417.2305603027344</v>
       </c>
       <c r="AN2" t="n">
-        <v>318.3202819824219</v>
+        <v>417.9346923828125</v>
       </c>
       <c r="AO2" t="n">
-        <v>323.2145385742188</v>
+        <v>418.3882141113281</v>
       </c>
       <c r="AP2" t="n">
-        <v>331.7261047363281</v>
+        <v>418.6137084960938</v>
       </c>
       <c r="AQ2" t="n">
-        <v>335.9215087890625</v>
+        <v>418.8293151855469</v>
       </c>
       <c r="AR2" t="n">
-        <v>341.1135864257812</v>
+        <v>418.02734375</v>
       </c>
       <c r="AS2" t="n">
-        <v>343.8952026367188</v>
+        <v>416.0540466308594</v>
       </c>
       <c r="AT2" t="n">
-        <v>343.75</v>
+        <v>412.2943725585938</v>
       </c>
       <c r="AU2" t="n">
-        <v>342.6881408691406</v>
+        <v>409.4183044433594</v>
       </c>
       <c r="AV2" t="n">
-        <v>345.0341491699219</v>
+        <v>405.449462890625</v>
       </c>
       <c r="AW2" t="n">
-        <v>347.1346740722656</v>
+        <v>401.3390502929688</v>
       </c>
       <c r="AX2" t="n">
-        <v>347.3760986328125</v>
+        <v>392.93310546875</v>
       </c>
       <c r="AY2" t="n">
-        <v>347.5371704101562</v>
+        <v>386.1980590820312</v>
       </c>
       <c r="AZ2" t="n">
-        <v>347.6505126953125</v>
+        <v>376.0131225585938</v>
       </c>
       <c r="BA2" t="n">
-        <v>348.7023315429688</v>
+        <v>368.1930541992188</v>
       </c>
       <c r="BB2" t="n">
-        <v>348.7432861328125</v>
+        <v>358.165283203125</v>
       </c>
       <c r="BC2" t="n">
-        <v>349.8113403320312</v>
+        <v>349.6939392089844</v>
       </c>
       <c r="BD2" t="n">
-        <v>351.2609252929688</v>
+        <v>344.2525634765625</v>
       </c>
       <c r="BE2" t="n">
-        <v>352.470703125</v>
+        <v>336.0679321289062</v>
       </c>
       <c r="BF2" t="n">
-        <v>354.3186950683594</v>
+        <v>327.7809143066406</v>
       </c>
       <c r="BG2" t="n">
-        <v>355.2932739257812</v>
+        <v>320.9411926269531</v>
       </c>
       <c r="BH2" t="n">
-        <v>357.7755126953125</v>
+        <v>314.1443786621094</v>
       </c>
       <c r="BI2" t="n">
-        <v>361.1807556152344</v>
+        <v>309.6824035644531</v>
       </c>
       <c r="BJ2" t="n">
-        <v>363.1805725097656</v>
+        <v>305.2969055175781</v>
       </c>
       <c r="BK2" t="n">
-        <v>365.6895751953125</v>
+        <v>302.46435546875</v>
       </c>
       <c r="BL2" t="n">
-        <v>368.136962890625</v>
+        <v>299.0030212402344</v>
       </c>
       <c r="BM2" t="n">
-        <v>370.5993957519531</v>
+        <v>295.6646423339844</v>
       </c>
       <c r="BN2" t="n">
-        <v>373.2718505859375</v>
+        <v>292.8172607421875</v>
       </c>
       <c r="BO2" t="n">
-        <v>375.619140625</v>
+        <v>290.2885131835938</v>
       </c>
       <c r="BP2" t="n">
-        <v>377.5318603515625</v>
+        <v>288.4600219726562</v>
       </c>
       <c r="BQ2" t="n">
-        <v>380.1884765625</v>
+        <v>286.8630676269531</v>
       </c>
       <c r="BR2" t="n">
-        <v>382.1508178710938</v>
+        <v>285.5382080078125</v>
       </c>
       <c r="BS2" t="n">
-        <v>385.9175415039062</v>
+        <v>284.944580078125</v>
       </c>
       <c r="BT2" t="n">
-        <v>388.2925415039062</v>
+        <v>284.4176330566406</v>
       </c>
       <c r="BU2" t="n">
-        <v>392.0213317871094</v>
+        <v>284.0619201660156</v>
       </c>
       <c r="BV2" t="n">
-        <v>393.888916015625</v>
+        <v>283.8694763183594</v>
       </c>
       <c r="BW2" t="n">
-        <v>395.609375</v>
+        <v>283.8677368164062</v>
       </c>
       <c r="BX2" t="n">
-        <v>396.1808471679688</v>
+        <v>283.8814086914062</v>
       </c>
       <c r="BY2" t="n">
-        <v>397.2218322753906</v>
+        <v>283.8558349609375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>398.4761962890625</v>
+        <v>283.8629455566406</v>
       </c>
       <c r="CA2" t="n">
-        <v>399.9333190917969</v>
+        <v>283.904052734375</v>
       </c>
       <c r="CB2" t="n">
-        <v>401.1112976074219</v>
+        <v>283.9339599609375</v>
       </c>
       <c r="CC2" t="n">
-        <v>401.2605285644531</v>
+        <v>283.9726257324219</v>
       </c>
       <c r="CD2" t="n">
-        <v>402.4395141601562</v>
+        <v>283.8851623535156</v>
       </c>
       <c r="CE2" t="n">
-        <v>402.2722778320312</v>
+        <v>283.8341064453125</v>
       </c>
       <c r="CF2" t="n">
-        <v>402.2045593261719</v>
+        <v>283.7786254882812</v>
       </c>
       <c r="CG2" t="n">
-        <v>401.6541137695312</v>
+        <v>283.8595275878906</v>
       </c>
       <c r="CH2" t="n">
-        <v>401.4615478515625</v>
+        <v>283.9626770019531</v>
       </c>
       <c r="CI2" t="n">
-        <v>401.6430053710938</v>
+        <v>284.053466796875</v>
       </c>
       <c r="CJ2" t="n">
-        <v>401.6827087402344</v>
+        <v>284.1923217773438</v>
       </c>
       <c r="CK2" t="n">
-        <v>401.8657836914062</v>
+        <v>284.2926635742188</v>
       </c>
       <c r="CL2" t="n">
-        <v>401.4616394042969</v>
+        <v>284.3887329101562</v>
       </c>
       <c r="CM2" t="n">
-        <v>401.2495727539062</v>
+        <v>284.4013366699219</v>
       </c>
       <c r="CN2" t="n">
-        <v>399.6978149414062</v>
+        <v>284.3937072753906</v>
       </c>
       <c r="CO2" t="n">
-        <v>398.6196594238281</v>
+        <v>284.4496459960938</v>
       </c>
       <c r="CP2" t="n">
-        <v>396.7491149902344</v>
+        <v>284.453857421875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>395.586669921875</v>
+        <v>284.4667053222656</v>
       </c>
       <c r="CR2" t="n">
-        <v>393.0957641601562</v>
+        <v>284.4461975097656</v>
       </c>
       <c r="CS2" t="n">
-        <v>391.4054565429688</v>
+        <v>284.430908203125</v>
       </c>
       <c r="CT2" t="n">
-        <v>388.8152770996094</v>
+        <v>284.4233093261719</v>
       </c>
       <c r="CU2" t="n">
-        <v>386.7590637207031</v>
+        <v>284.4394836425781</v>
       </c>
       <c r="CV2" t="n">
-        <v>384.633056640625</v>
+        <v>284.4735412597656</v>
       </c>
       <c r="CW2" t="n">
-        <v>382.7802734375</v>
+        <v>284.5320129394531</v>
       </c>
       <c r="CX2" t="n">
-        <v>381.62890625</v>
+        <v>284.8112182617188</v>
       </c>
       <c r="CY2" t="n">
-        <v>378.584716796875</v>
+        <v>285.7393493652344</v>
       </c>
       <c r="CZ2" t="n">
-        <v>377.0812377929688</v>
+        <v>286.7545776367188</v>
       </c>
       <c r="DA2" t="n">
-        <v>375.3825378417969</v>
+        <v>287.9578552246094</v>
       </c>
       <c r="DB2" t="n">
-        <v>374.2975463867188</v>
+        <v>289.0890808105469</v>
       </c>
       <c r="DC2" t="n">
-        <v>373.2144470214844</v>
+        <v>290.0041809082031</v>
       </c>
       <c r="DD2" t="n">
-        <v>372.3203125</v>
+        <v>291.5335083007812</v>
       </c>
       <c r="DE2" t="n">
-        <v>371.3450927734375</v>
+        <v>294.0369262695312</v>
       </c>
       <c r="DF2" t="n">
-        <v>370.44921875</v>
+        <v>296.0561828613281</v>
       </c>
       <c r="DG2" t="n">
-        <v>369.7586669921875</v>
+        <v>298.7612609863281</v>
       </c>
       <c r="DH2" t="n">
-        <v>368.7237854003906</v>
+        <v>301.7326354980469</v>
       </c>
       <c r="DI2" t="n">
-        <v>368.4643249511719</v>
+        <v>304.9169311523438</v>
       </c>
       <c r="DJ2" t="n">
-        <v>368.1892700195312</v>
+        <v>308.2380981445312</v>
       </c>
       <c r="DK2" t="n">
-        <v>368.0074462890625</v>
+        <v>313.2067565917969</v>
       </c>
       <c r="DL2" t="n">
-        <v>367.8260498046875</v>
+        <v>322.4998474121094</v>
       </c>
       <c r="DM2" t="n">
-        <v>367.6561889648438</v>
+        <v>328.6123352050781</v>
       </c>
       <c r="DN2" t="n">
-        <v>367.4422607421875</v>
+        <v>338.1903686523438</v>
       </c>
       <c r="DO2" t="n">
-        <v>367.1988220214844</v>
+        <v>349.2718200683594</v>
       </c>
       <c r="DP2" t="n">
-        <v>367.0713806152344</v>
+        <v>367.2586669921875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>366.9889831542969</v>
+        <v>374.3717041015625</v>
       </c>
       <c r="DR2" t="n">
-        <v>366.9448852539062</v>
+        <v>381.068359375</v>
       </c>
       <c r="DS2" t="n">
-        <v>366.9747619628906</v>
+        <v>395.2060546875</v>
       </c>
       <c r="DT2" t="n">
-        <v>366.9766235351562</v>
+        <v>402.0438232421875</v>
       </c>
       <c r="DU2" t="n">
-        <v>366.9964904785156</v>
+        <v>408.5346984863281</v>
       </c>
       <c r="DV2" t="n">
-        <v>367.0364685058594</v>
+        <v>418.4732360839844</v>
       </c>
       <c r="DW2" t="n">
-        <v>367.1018981933594</v>
+        <v>426.3538818359375</v>
       </c>
       <c r="DX2" t="n">
-        <v>367.1576538085938</v>
+        <v>430.4927062988281</v>
       </c>
       <c r="DY2" t="n">
-        <v>367.1805419921875</v>
+        <v>434.9457397460938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>367.2094116210938</v>
+        <v>439.5953369140625</v>
       </c>
       <c r="EA2" t="n">
-        <v>367.2053527832031</v>
+        <v>441.1536254882812</v>
       </c>
       <c r="EB2" t="n">
-        <v>367.126708984375</v>
+        <v>444.6241760253906</v>
       </c>
       <c r="EC2" t="n">
-        <v>367.198486328125</v>
+        <v>445.7096862792969</v>
       </c>
       <c r="ED2" t="n">
-        <v>367.5037841796875</v>
+        <v>447.7577514648438</v>
       </c>
       <c r="EE2" t="n">
-        <v>369.1749267578125</v>
+        <v>448.7052001953125</v>
       </c>
       <c r="EF2" t="n">
-        <v>369.6866455078125</v>
+        <v>449.6266479492188</v>
       </c>
       <c r="EG2" t="n">
-        <v>369.9759216308594</v>
+        <v>450.3320922851562</v>
       </c>
       <c r="EH2" t="n">
-        <v>369.9276123046875</v>
+        <v>446.7830810546875</v>
       </c>
       <c r="EI2" t="n">
-        <v>369.9832763671875</v>
+        <v>439.9396362304688</v>
       </c>
       <c r="EJ2" t="n">
-        <v>370.0802917480469</v>
+        <v>436.8448181152344</v>
       </c>
       <c r="EK2" t="n">
-        <v>370.9373474121094</v>
+        <v>429.67138671875</v>
       </c>
       <c r="EL2" t="n">
-        <v>371.7020874023438</v>
+        <v>424.0545959472656</v>
       </c>
       <c r="EM2" t="n">
-        <v>372.3623962402344</v>
+        <v>414.1174011230469</v>
       </c>
       <c r="EN2" t="n">
-        <v>372.8336181640625</v>
+        <v>406.5971374511719</v>
       </c>
       <c r="EO2" t="n">
-        <v>372.9440307617188</v>
+        <v>394.6868286132812</v>
       </c>
       <c r="EP2" t="n">
-        <v>372.9996032714844</v>
+        <v>389.5546875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>373.2350463867188</v>
+        <v>378.9433288574219</v>
       </c>
       <c r="ER2" t="n">
-        <v>373.8447875976562</v>
+        <v>372.7003479003906</v>
       </c>
       <c r="ES2" t="n">
-        <v>373.9025268554688</v>
+        <v>364.6411743164062</v>
       </c>
       <c r="ET2" t="n">
-        <v>373.8455200195312</v>
+        <v>362.1174926757812</v>
       </c>
       <c r="EU2" t="n">
-        <v>373.8115234375</v>
+        <v>358.1903686523438</v>
       </c>
       <c r="EV2" t="n">
-        <v>373.7634887695312</v>
+        <v>351.9779968261719</v>
       </c>
       <c r="EW2" t="n">
-        <v>373.7207641601562</v>
+        <v>342.5407104492188</v>
       </c>
       <c r="EX2" t="n">
-        <v>373.6667175292969</v>
+        <v>337.9888305664062</v>
       </c>
       <c r="EY2" t="n">
-        <v>373.7032775878906</v>
+        <v>326.3232421875</v>
       </c>
       <c r="EZ2" t="n">
-        <v>373.8003234863281</v>
+        <v>314.61474609375</v>
       </c>
       <c r="FA2" t="n">
-        <v>373.7545166015625</v>
+        <v>309.9674377441406</v>
       </c>
       <c r="FB2" t="n">
-        <v>373.8624267578125</v>
+        <v>305.0361022949219</v>
       </c>
       <c r="FC2" t="n">
-        <v>373.9539184570312</v>
+        <v>298.8177490234375</v>
       </c>
       <c r="FD2" t="n">
-        <v>374.1647338867188</v>
+        <v>295.0592956542969</v>
       </c>
       <c r="FE2" t="n">
-        <v>374.3463745117188</v>
+        <v>293.9613342285156</v>
       </c>
       <c r="FF2" t="n">
-        <v>374.4782104492188</v>
+        <v>292.4310913085938</v>
       </c>
       <c r="FG2" t="n">
-        <v>374.6474609375</v>
+        <v>293.2345886230469</v>
       </c>
       <c r="FH2" t="n">
-        <v>374.5257568359375</v>
+        <v>293.3227844238281</v>
       </c>
       <c r="FI2" t="n">
-        <v>374.4341430664062</v>
+        <v>295.9003295898438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>374.4733276367188</v>
+        <v>313.6296997070312</v>
       </c>
       <c r="FK2" t="n">
-        <v>374.5274353027344</v>
+        <v>326.5488891601562</v>
       </c>
       <c r="FL2" t="n">
-        <v>374.536376953125</v>
+        <v>352.0834045410156</v>
       </c>
       <c r="FM2" t="n">
-        <v>374.7171020507812</v>
+        <v>363.325439453125</v>
       </c>
       <c r="FN2" t="n">
-        <v>374.8070068359375</v>
+        <v>373.8030700683594</v>
       </c>
       <c r="FO2" t="n">
-        <v>374.8822021484375</v>
+        <v>399.5947570800781</v>
       </c>
       <c r="FP2" t="n">
-        <v>374.9957885742188</v>
+        <v>440.3076782226562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>375.0937194824219</v>
+        <v>462.3480224609375</v>
       </c>
       <c r="FR2" t="n">
-        <v>375.1447143554688</v>
+        <v>491.5852661132812</v>
       </c>
       <c r="FS2" t="n">
-        <v>375.2135620117188</v>
+        <v>502.2445373535156</v>
       </c>
       <c r="FT2" t="n">
-        <v>375.2758483886719</v>
+        <v>511.2206420898438</v>
       </c>
       <c r="FU2" t="n">
-        <v>375.2720336914062</v>
+        <v>533.5732421875</v>
       </c>
       <c r="FV2" t="n">
-        <v>375.2225341796875</v>
+        <v>541.0645751953125</v>
       </c>
       <c r="FW2" t="n">
-        <v>375.1646118164062</v>
+        <v>552.469482421875</v>
       </c>
       <c r="FX2" t="n">
-        <v>375.0801391601562</v>
+        <v>560.53662109375</v>
       </c>
       <c r="FY2" t="n">
-        <v>375.0975036621094</v>
+        <v>564.5403442382812</v>
       </c>
       <c r="FZ2" t="n">
-        <v>375.0941162109375</v>
+        <v>568.7930297851562</v>
       </c>
       <c r="GA2" t="n">
-        <v>375.2108459472656</v>
+        <v>571.910400390625</v>
       </c>
       <c r="GB2" t="n">
-        <v>375.2842407226562</v>
+        <v>571.50341796875</v>
       </c>
       <c r="GC2" t="n">
-        <v>375.4396057128906</v>
+        <v>573.21484375</v>
       </c>
       <c r="GD2" t="n">
-        <v>375.5408325195312</v>
+        <v>568.457763671875</v>
       </c>
       <c r="GE2" t="n">
-        <v>375.5538330078125</v>
+        <v>562.9451904296875</v>
       </c>
       <c r="GF2" t="n">
-        <v>375.4659423828125</v>
+        <v>554.02294921875</v>
       </c>
       <c r="GG2" t="n">
-        <v>375.3936157226562</v>
+        <v>527.7417602539062</v>
       </c>
       <c r="GH2" t="n">
-        <v>375.2500610351562</v>
+        <v>515.4446411132812</v>
       </c>
       <c r="GI2" t="n">
-        <v>374.9026184082031</v>
+        <v>489.2568359375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>374.8657836914062</v>
+        <v>470.5155944824219</v>
       </c>
       <c r="GK2" t="n">
-        <v>374.7747192382812</v>
+        <v>465.32470703125</v>
       </c>
       <c r="GL2" t="n">
-        <v>374.6637573242188</v>
+        <v>449.7611999511719</v>
       </c>
       <c r="GM2" t="n">
-        <v>374.3870544433594</v>
+        <v>434.6102600097656</v>
       </c>
       <c r="GN2" t="n">
-        <v>373.952880859375</v>
+        <v>423.1912841796875</v>
       </c>
       <c r="GO2" t="n">
-        <v>373.4212951660156</v>
+        <v>423.2822875976562</v>
       </c>
       <c r="GP2" t="n">
-        <v>372.2911987304688</v>
+        <v>418.4241333007812</v>
       </c>
       <c r="GQ2" t="n">
-        <v>371.2375183105469</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>370.2887573242188</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>369.6577453613281</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>369.204833984375</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>368.9547119140625</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>368.1101989746094</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>366.5377197265625</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>365.5855712890625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>364.0956115722656</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>362.9894714355469</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>362.6465148925781</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>362.2799072265625</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>361.7310791015625</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>361.5511474609375</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>360.9642944335938</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>361.272216796875</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>362.3994140625</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>363.624755859375</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>363.9515686035156</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>363.6361083984375</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>364.0852355957031</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>365.11328125</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>365.5774536132812</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>365.9008178710938</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>366.7811889648438</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>365.1391906738281</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>362.9337158203125</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>360.903564453125</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>358.7266235351562</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>356.1828002929688</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>352.4289245605469</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>349.824951171875</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>343.7848510742188</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>338.1067504882812</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>334.5439147949219</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>332.0884704589844</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>331.5392761230469</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>329.4627380371094</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>328.8386840820312</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>328.5756225585938</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>328.5708312988281</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>329.568603515625</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>331.7929382324219</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>338.1936950683594</v>
-      </c>
-      <c r="II2" t="n">
-        <v>343.1637573242188</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>348.5999755859375</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>353.2005310058594</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>361.97119140625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>364.1007080078125</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>292.738525390625</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>389.3074951171875</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>348.4989929199219</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>328.5473327636719</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>324.3414916992188</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>327.1694641113281</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>359.1828002929688</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>344.123779296875</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>312.0034484863281</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>295.7792053222656</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>271.0083618164062</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>258.3746337890625</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>254.1779479980469</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>256.3717956542969</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>263.2321472167969</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>271.4048767089844</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>275.0367431640625</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>272.255126953125</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>274.0927734375</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>283.2077941894531</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>288.4644775390625</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>289.4828796386719</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>288.3204040527344</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>285.4878234863281</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>285.5000915527344</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>285.0374145507812</v>
+        <v>411.9714965820312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>150.5057983398438</v>
+        <v>269.3404541015625</v>
       </c>
       <c r="B3" t="n">
-        <v>150.5946807861328</v>
+        <v>268.2850952148438</v>
       </c>
       <c r="C3" t="n">
-        <v>150.6096038818359</v>
+        <v>265.2315368652344</v>
       </c>
       <c r="D3" t="n">
-        <v>150.6330108642578</v>
+        <v>263.2785949707031</v>
       </c>
       <c r="E3" t="n">
-        <v>150.6563568115234</v>
+        <v>261.2958984375</v>
       </c>
       <c r="F3" t="n">
-        <v>150.67626953125</v>
+        <v>258.2886657714844</v>
       </c>
       <c r="G3" t="n">
-        <v>150.6853485107422</v>
+        <v>253.3192291259766</v>
       </c>
       <c r="H3" t="n">
-        <v>150.6944732666016</v>
+        <v>250.0443878173828</v>
       </c>
       <c r="I3" t="n">
-        <v>150.7026672363281</v>
+        <v>246.1240997314453</v>
       </c>
       <c r="J3" t="n">
-        <v>150.7098388671875</v>
+        <v>240.0652618408203</v>
       </c>
       <c r="K3" t="n">
-        <v>150.7163238525391</v>
+        <v>233.6985015869141</v>
       </c>
       <c r="L3" t="n">
-        <v>150.5010833740234</v>
+        <v>226.0594940185547</v>
       </c>
       <c r="M3" t="n">
-        <v>150.3252410888672</v>
+        <v>220.8233032226562</v>
       </c>
       <c r="N3" t="n">
-        <v>150.1758117675781</v>
+        <v>211.4317932128906</v>
       </c>
       <c r="O3" t="n">
-        <v>149.9953460693359</v>
+        <v>201.6053009033203</v>
       </c>
       <c r="P3" t="n">
-        <v>149.7995147705078</v>
+        <v>192.1422271728516</v>
       </c>
       <c r="Q3" t="n">
-        <v>149.7569122314453</v>
+        <v>187.8854370117188</v>
       </c>
       <c r="R3" t="n">
-        <v>149.3600006103516</v>
+        <v>180.2510986328125</v>
       </c>
       <c r="S3" t="n">
-        <v>148.08935546875</v>
+        <v>177.0414428710938</v>
       </c>
       <c r="T3" t="n">
-        <v>146.4409790039062</v>
+        <v>170.2672119140625</v>
       </c>
       <c r="U3" t="n">
-        <v>144.8216857910156</v>
+        <v>165.8565521240234</v>
       </c>
       <c r="V3" t="n">
-        <v>143.4740600585938</v>
+        <v>162.2948455810547</v>
       </c>
       <c r="W3" t="n">
-        <v>142.3214416503906</v>
+        <v>159.6842803955078</v>
       </c>
       <c r="X3" t="n">
-        <v>140.4056091308594</v>
+        <v>158.73681640625</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2618103027344</v>
+        <v>157.3074493408203</v>
       </c>
       <c r="Z3" t="n">
-        <v>136.166748046875</v>
+        <v>155.3582153320312</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.7003479003906</v>
+        <v>154.0302886962891</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.6293182373047</v>
+        <v>153.1623687744141</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.845703125</v>
+        <v>152.9003601074219</v>
       </c>
       <c r="AD3" t="n">
-        <v>134.0808868408203</v>
+        <v>152.5715942382812</v>
       </c>
       <c r="AE3" t="n">
-        <v>133.4345245361328</v>
+        <v>151.7899932861328</v>
       </c>
       <c r="AF3" t="n">
-        <v>133.3773651123047</v>
+        <v>151.7562866210938</v>
       </c>
       <c r="AG3" t="n">
-        <v>133.1324615478516</v>
+        <v>151.7168273925781</v>
       </c>
       <c r="AH3" t="n">
-        <v>133.4815063476562</v>
+        <v>151.759765625</v>
       </c>
       <c r="AI3" t="n">
-        <v>133.833251953125</v>
+        <v>152.0714874267578</v>
       </c>
       <c r="AJ3" t="n">
-        <v>134.2447814941406</v>
+        <v>152.2548217773438</v>
       </c>
       <c r="AK3" t="n">
-        <v>134.3832244873047</v>
+        <v>152.1394348144531</v>
       </c>
       <c r="AL3" t="n">
-        <v>135.8825836181641</v>
+        <v>151.6188659667969</v>
       </c>
       <c r="AM3" t="n">
-        <v>140.0080413818359</v>
+        <v>151.1049346923828</v>
       </c>
       <c r="AN3" t="n">
-        <v>141.9680480957031</v>
+        <v>150.8538970947266</v>
       </c>
       <c r="AO3" t="n">
-        <v>146.5315856933594</v>
+        <v>150.6768188476562</v>
       </c>
       <c r="AP3" t="n">
-        <v>147.3028869628906</v>
+        <v>150.6741027832031</v>
       </c>
       <c r="AQ3" t="n">
-        <v>150.765380859375</v>
+        <v>150.4241638183594</v>
       </c>
       <c r="AR3" t="n">
-        <v>153.7127227783203</v>
+        <v>152.1544189453125</v>
       </c>
       <c r="AS3" t="n">
-        <v>159.5915985107422</v>
+        <v>154.1375122070312</v>
       </c>
       <c r="AT3" t="n">
-        <v>167.2543640136719</v>
+        <v>156.2192535400391</v>
       </c>
       <c r="AU3" t="n">
-        <v>177.7302398681641</v>
+        <v>156.4947967529297</v>
       </c>
       <c r="AV3" t="n">
-        <v>184.3795013427734</v>
+        <v>156.8815307617188</v>
       </c>
       <c r="AW3" t="n">
-        <v>190.3723602294922</v>
+        <v>156.7878265380859</v>
       </c>
       <c r="AX3" t="n">
-        <v>193.8039245605469</v>
+        <v>157.3535919189453</v>
       </c>
       <c r="AY3" t="n">
-        <v>198.2712097167969</v>
+        <v>157.4972991943359</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201.7582550048828</v>
+        <v>160.7620086669922</v>
       </c>
       <c r="BA3" t="n">
-        <v>203.8602600097656</v>
+        <v>160.8974761962891</v>
       </c>
       <c r="BB3" t="n">
-        <v>205.0591125488281</v>
+        <v>162.9738616943359</v>
       </c>
       <c r="BC3" t="n">
-        <v>205.5043792724609</v>
+        <v>164.2512817382812</v>
       </c>
       <c r="BD3" t="n">
-        <v>206.1200408935547</v>
+        <v>164.642822265625</v>
       </c>
       <c r="BE3" t="n">
-        <v>206.6677856445312</v>
+        <v>165.954345703125</v>
       </c>
       <c r="BF3" t="n">
-        <v>206.3654479980469</v>
+        <v>164.8324890136719</v>
       </c>
       <c r="BG3" t="n">
-        <v>205.5975952148438</v>
+        <v>164.3620758056641</v>
       </c>
       <c r="BH3" t="n">
-        <v>205.9924011230469</v>
+        <v>164.3277740478516</v>
       </c>
       <c r="BI3" t="n">
-        <v>207.47412109375</v>
+        <v>163.9337158203125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>208.0369567871094</v>
+        <v>164.6771697998047</v>
       </c>
       <c r="BK3" t="n">
-        <v>208.7139587402344</v>
+        <v>164.7551422119141</v>
       </c>
       <c r="BL3" t="n">
-        <v>210.4900512695312</v>
+        <v>165.294677734375</v>
       </c>
       <c r="BM3" t="n">
-        <v>212.0765991210938</v>
+        <v>165.1073150634766</v>
       </c>
       <c r="BN3" t="n">
-        <v>213.0400543212891</v>
+        <v>164.9913024902344</v>
       </c>
       <c r="BO3" t="n">
-        <v>215.0881805419922</v>
+        <v>165.1502532958984</v>
       </c>
       <c r="BP3" t="n">
-        <v>217.4572143554688</v>
+        <v>164.968994140625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>218.0747680664062</v>
+        <v>165.2696990966797</v>
       </c>
       <c r="BR3" t="n">
-        <v>219.9451293945312</v>
+        <v>165.7380981445312</v>
       </c>
       <c r="BS3" t="n">
-        <v>221.6747741699219</v>
+        <v>165.8110809326172</v>
       </c>
       <c r="BT3" t="n">
-        <v>225.1912841796875</v>
+        <v>166.0425872802734</v>
       </c>
       <c r="BU3" t="n">
-        <v>225.3415222167969</v>
+        <v>166.4057006835938</v>
       </c>
       <c r="BV3" t="n">
-        <v>227.1423645019531</v>
+        <v>166.9576416015625</v>
       </c>
       <c r="BW3" t="n">
-        <v>227.2533874511719</v>
+        <v>167.1044616699219</v>
       </c>
       <c r="BX3" t="n">
-        <v>228.3721008300781</v>
+        <v>167.3540954589844</v>
       </c>
       <c r="BY3" t="n">
-        <v>230.0966796875</v>
+        <v>167.5857696533203</v>
       </c>
       <c r="BZ3" t="n">
-        <v>230.9449920654297</v>
+        <v>167.8426818847656</v>
       </c>
       <c r="CA3" t="n">
-        <v>231.5493774414062</v>
+        <v>168.1556396484375</v>
       </c>
       <c r="CB3" t="n">
-        <v>231.9250030517578</v>
+        <v>168.4199829101562</v>
       </c>
       <c r="CC3" t="n">
-        <v>232.4188079833984</v>
+        <v>168.7049560546875</v>
       </c>
       <c r="CD3" t="n">
-        <v>231.8876190185547</v>
+        <v>168.7903289794922</v>
       </c>
       <c r="CE3" t="n">
-        <v>232.1922760009766</v>
+        <v>168.8937072753906</v>
       </c>
       <c r="CF3" t="n">
-        <v>232.1006622314453</v>
+        <v>169.0193786621094</v>
       </c>
       <c r="CG3" t="n">
-        <v>232.5679626464844</v>
+        <v>169.1330871582031</v>
       </c>
       <c r="CH3" t="n">
-        <v>232.9379577636719</v>
+        <v>169.25830078125</v>
       </c>
       <c r="CI3" t="n">
-        <v>233.4582824707031</v>
+        <v>169.4015045166016</v>
       </c>
       <c r="CJ3" t="n">
-        <v>234.4099578857422</v>
+        <v>169.5438232421875</v>
       </c>
       <c r="CK3" t="n">
-        <v>234.7689666748047</v>
+        <v>169.655029296875</v>
       </c>
       <c r="CL3" t="n">
-        <v>235.4610137939453</v>
+        <v>169.8095703125</v>
       </c>
       <c r="CM3" t="n">
-        <v>235.9085693359375</v>
+        <v>169.9866485595703</v>
       </c>
       <c r="CN3" t="n">
-        <v>236.3861846923828</v>
+        <v>170.1962738037109</v>
       </c>
       <c r="CO3" t="n">
-        <v>236.42578125</v>
+        <v>170.1826934814453</v>
       </c>
       <c r="CP3" t="n">
-        <v>238.0301513671875</v>
+        <v>170.2591705322266</v>
       </c>
       <c r="CQ3" t="n">
-        <v>238.5910186767578</v>
+        <v>170.2823486328125</v>
       </c>
       <c r="CR3" t="n">
-        <v>239.8747253417969</v>
+        <v>170.3078308105469</v>
       </c>
       <c r="CS3" t="n">
-        <v>240.0742950439453</v>
+        <v>170.3216400146484</v>
       </c>
       <c r="CT3" t="n">
-        <v>240.7657470703125</v>
+        <v>170.3379974365234</v>
       </c>
       <c r="CU3" t="n">
-        <v>240.4571685791016</v>
+        <v>170.3681030273438</v>
       </c>
       <c r="CV3" t="n">
-        <v>240.6237945556641</v>
+        <v>170.3956909179688</v>
       </c>
       <c r="CW3" t="n">
-        <v>240.5343475341797</v>
+        <v>170.4369506835938</v>
       </c>
       <c r="CX3" t="n">
-        <v>241.0680541992188</v>
+        <v>170.5705718994141</v>
       </c>
       <c r="CY3" t="n">
-        <v>242.2655029296875</v>
+        <v>171.0139923095703</v>
       </c>
       <c r="CZ3" t="n">
-        <v>242.7510986328125</v>
+        <v>171.5340576171875</v>
       </c>
       <c r="DA3" t="n">
-        <v>242.7544250488281</v>
+        <v>171.9602661132812</v>
       </c>
       <c r="DB3" t="n">
-        <v>243.0379486083984</v>
+        <v>172.3410491943359</v>
       </c>
       <c r="DC3" t="n">
-        <v>243.1035461425781</v>
+        <v>172.5422821044922</v>
       </c>
       <c r="DD3" t="n">
-        <v>243.0471649169922</v>
+        <v>172.0177307128906</v>
       </c>
       <c r="DE3" t="n">
-        <v>243.0953369140625</v>
+        <v>170.7161102294922</v>
       </c>
       <c r="DF3" t="n">
-        <v>243.0312194824219</v>
+        <v>170.5785675048828</v>
       </c>
       <c r="DG3" t="n">
-        <v>242.7933349609375</v>
+        <v>169.8921966552734</v>
       </c>
       <c r="DH3" t="n">
-        <v>242.6094818115234</v>
+        <v>169.1080932617188</v>
       </c>
       <c r="DI3" t="n">
-        <v>242.5121459960938</v>
+        <v>168.1055755615234</v>
       </c>
       <c r="DJ3" t="n">
-        <v>242.4878082275391</v>
+        <v>167.5150451660156</v>
       </c>
       <c r="DK3" t="n">
-        <v>242.3765716552734</v>
+        <v>166.8220825195312</v>
       </c>
       <c r="DL3" t="n">
-        <v>242.2999725341797</v>
+        <v>168.0220489501953</v>
       </c>
       <c r="DM3" t="n">
-        <v>242.2306518554688</v>
+        <v>167.4027862548828</v>
       </c>
       <c r="DN3" t="n">
-        <v>242.1473388671875</v>
+        <v>169.8928680419922</v>
       </c>
       <c r="DO3" t="n">
-        <v>242.0560760498047</v>
+        <v>171.8088226318359</v>
       </c>
       <c r="DP3" t="n">
-        <v>242.01318359375</v>
+        <v>170.7370300292969</v>
       </c>
       <c r="DQ3" t="n">
-        <v>242.0140991210938</v>
+        <v>170.0820617675781</v>
       </c>
       <c r="DR3" t="n">
-        <v>242.0181121826172</v>
+        <v>169.7971343994141</v>
       </c>
       <c r="DS3" t="n">
-        <v>242.0261993408203</v>
+        <v>169.2751922607422</v>
       </c>
       <c r="DT3" t="n">
-        <v>242.0803680419922</v>
+        <v>169.5649108886719</v>
       </c>
       <c r="DU3" t="n">
-        <v>242.104736328125</v>
+        <v>169.8086090087891</v>
       </c>
       <c r="DV3" t="n">
-        <v>242.0897216796875</v>
+        <v>169.5755767822266</v>
       </c>
       <c r="DW3" t="n">
-        <v>242.068603515625</v>
+        <v>167.7109832763672</v>
       </c>
       <c r="DX3" t="n">
-        <v>242.0359954833984</v>
+        <v>167.0704040527344</v>
       </c>
       <c r="DY3" t="n">
-        <v>242.0118713378906</v>
+        <v>166.7021942138672</v>
       </c>
       <c r="DZ3" t="n">
-        <v>241.9701843261719</v>
+        <v>167.5627593994141</v>
       </c>
       <c r="EA3" t="n">
-        <v>241.92431640625</v>
+        <v>167.8537139892578</v>
       </c>
       <c r="EB3" t="n">
-        <v>241.9181518554688</v>
+        <v>168.2821655273438</v>
       </c>
       <c r="EC3" t="n">
-        <v>241.9857482910156</v>
+        <v>168.4906768798828</v>
       </c>
       <c r="ED3" t="n">
-        <v>242.1453399658203</v>
+        <v>168.2281494140625</v>
       </c>
       <c r="EE3" t="n">
-        <v>242.9762420654297</v>
+        <v>168.0269927978516</v>
       </c>
       <c r="EF3" t="n">
-        <v>243.2110900878906</v>
+        <v>167.8284454345703</v>
       </c>
       <c r="EG3" t="n">
-        <v>243.6593933105469</v>
+        <v>168.6531677246094</v>
       </c>
       <c r="EH3" t="n">
-        <v>243.8456115722656</v>
+        <v>171.1772155761719</v>
       </c>
       <c r="EI3" t="n">
-        <v>244.0677795410156</v>
+        <v>169.4742889404297</v>
       </c>
       <c r="EJ3" t="n">
-        <v>244.1896820068359</v>
+        <v>165.9477844238281</v>
       </c>
       <c r="EK3" t="n">
-        <v>243.6963806152344</v>
+        <v>166.5860443115234</v>
       </c>
       <c r="EL3" t="n">
-        <v>243.3442840576172</v>
+        <v>169.1684417724609</v>
       </c>
       <c r="EM3" t="n">
-        <v>243.2838287353516</v>
+        <v>166.4273223876953</v>
       </c>
       <c r="EN3" t="n">
-        <v>243.2187347412109</v>
+        <v>165.7606811523438</v>
       </c>
       <c r="EO3" t="n">
-        <v>243.2668304443359</v>
+        <v>167.7599182128906</v>
       </c>
       <c r="EP3" t="n">
-        <v>243.2947235107422</v>
+        <v>168.6721954345703</v>
       </c>
       <c r="EQ3" t="n">
-        <v>242.7802581787109</v>
+        <v>169.8744354248047</v>
       </c>
       <c r="ER3" t="n">
-        <v>242.1832427978516</v>
+        <v>168.8916168212891</v>
       </c>
       <c r="ES3" t="n">
-        <v>242.1857299804688</v>
+        <v>167.1739807128906</v>
       </c>
       <c r="ET3" t="n">
-        <v>242.2010498046875</v>
+        <v>166.8727416992188</v>
       </c>
       <c r="EU3" t="n">
-        <v>242.2323455810547</v>
+        <v>168.1321716308594</v>
       </c>
       <c r="EV3" t="n">
-        <v>242.2677307128906</v>
+        <v>165.3909454345703</v>
       </c>
       <c r="EW3" t="n">
-        <v>242.2268524169922</v>
+        <v>163.0684204101562</v>
       </c>
       <c r="EX3" t="n">
-        <v>242.1156158447266</v>
+        <v>160.0595092773438</v>
       </c>
       <c r="EY3" t="n">
-        <v>242.1107177734375</v>
+        <v>156.801025390625</v>
       </c>
       <c r="EZ3" t="n">
-        <v>242.0829467773438</v>
+        <v>151.0288238525391</v>
       </c>
       <c r="FA3" t="n">
-        <v>241.8271026611328</v>
+        <v>147.4086608886719</v>
       </c>
       <c r="FB3" t="n">
-        <v>241.8449249267578</v>
+        <v>145.2747955322266</v>
       </c>
       <c r="FC3" t="n">
-        <v>241.8409881591797</v>
+        <v>144.0532836914062</v>
       </c>
       <c r="FD3" t="n">
-        <v>241.7915191650391</v>
+        <v>145.22509765625</v>
       </c>
       <c r="FE3" t="n">
-        <v>241.6675720214844</v>
+        <v>148.9380035400391</v>
       </c>
       <c r="FF3" t="n">
-        <v>241.6451721191406</v>
+        <v>158.8301391601562</v>
       </c>
       <c r="FG3" t="n">
-        <v>241.8136596679688</v>
+        <v>162.6628112792969</v>
       </c>
       <c r="FH3" t="n">
-        <v>241.6830291748047</v>
+        <v>172.8778533935547</v>
       </c>
       <c r="FI3" t="n">
-        <v>241.6185150146484</v>
+        <v>180.0620727539062</v>
       </c>
       <c r="FJ3" t="n">
-        <v>241.7380065917969</v>
+        <v>193.9696350097656</v>
       </c>
       <c r="FK3" t="n">
-        <v>241.7330017089844</v>
+        <v>203.1691284179688</v>
       </c>
       <c r="FL3" t="n">
-        <v>241.6539306640625</v>
+        <v>223.5478515625</v>
       </c>
       <c r="FM3" t="n">
-        <v>241.7806701660156</v>
+        <v>227.0729217529297</v>
       </c>
       <c r="FN3" t="n">
-        <v>241.8170928955078</v>
+        <v>231.9669036865234</v>
       </c>
       <c r="FO3" t="n">
-        <v>241.8558349609375</v>
+        <v>249.9825134277344</v>
       </c>
       <c r="FP3" t="n">
-        <v>241.908447265625</v>
+        <v>261.2783508300781</v>
       </c>
       <c r="FQ3" t="n">
-        <v>241.9530181884766</v>
+        <v>267.2503051757812</v>
       </c>
       <c r="FR3" t="n">
-        <v>241.9753723144531</v>
+        <v>267.6621704101562</v>
       </c>
       <c r="FS3" t="n">
-        <v>241.9389953613281</v>
+        <v>261.7135009765625</v>
       </c>
       <c r="FT3" t="n">
-        <v>241.9593200683594</v>
+        <v>257.6322631835938</v>
       </c>
       <c r="FU3" t="n">
-        <v>241.8675079345703</v>
+        <v>257.7405090332031</v>
       </c>
       <c r="FV3" t="n">
-        <v>241.8081970214844</v>
+        <v>256.894775390625</v>
       </c>
       <c r="FW3" t="n">
-        <v>241.7435302734375</v>
+        <v>259.7348327636719</v>
       </c>
       <c r="FX3" t="n">
-        <v>241.6530456542969</v>
+        <v>267.3932495117188</v>
       </c>
       <c r="FY3" t="n">
-        <v>241.6632232666016</v>
+        <v>268.1610107421875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>241.6564483642578</v>
+        <v>268.3160400390625</v>
       </c>
       <c r="GA3" t="n">
-        <v>241.7568359375</v>
+        <v>269.8975830078125</v>
       </c>
       <c r="GB3" t="n">
-        <v>241.8190155029297</v>
+        <v>269.5848388671875</v>
       </c>
       <c r="GC3" t="n">
-        <v>241.9745025634766</v>
+        <v>267.9977111816406</v>
       </c>
       <c r="GD3" t="n">
-        <v>242.1692810058594</v>
+        <v>268.3092041015625</v>
       </c>
       <c r="GE3" t="n">
-        <v>242.2640991210938</v>
+        <v>267.9351196289062</v>
       </c>
       <c r="GF3" t="n">
-        <v>242.4168548583984</v>
+        <v>268.8330688476562</v>
       </c>
       <c r="GG3" t="n">
-        <v>242.5221862792969</v>
+        <v>267.6447143554688</v>
       </c>
       <c r="GH3" t="n">
-        <v>242.8360137939453</v>
+        <v>271.0469360351562</v>
       </c>
       <c r="GI3" t="n">
-        <v>242.933837890625</v>
+        <v>284.9081115722656</v>
       </c>
       <c r="GJ3" t="n">
-        <v>242.6068267822266</v>
+        <v>287.4378662109375</v>
       </c>
       <c r="GK3" t="n">
-        <v>242.1075134277344</v>
+        <v>295.6581726074219</v>
       </c>
       <c r="GL3" t="n">
-        <v>241.8478546142578</v>
+        <v>308.8061218261719</v>
       </c>
       <c r="GM3" t="n">
-        <v>241.6572418212891</v>
+        <v>308.8540649414062</v>
       </c>
       <c r="GN3" t="n">
-        <v>241.1843719482422</v>
+        <v>298.9661254882812</v>
       </c>
       <c r="GO3" t="n">
-        <v>240.7458953857422</v>
+        <v>290.4455261230469</v>
       </c>
       <c r="GP3" t="n">
-        <v>240.500732421875</v>
+        <v>283.0667114257812</v>
       </c>
       <c r="GQ3" t="n">
-        <v>240.4683837890625</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>241.0745391845703</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>241.4499664306641</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>241.2193908691406</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>241.1042175292969</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>241.1939849853516</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>241.6890106201172</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>241.7603912353516</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>241.3968048095703</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>241.1972198486328</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>241.1717834472656</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>241.2294158935547</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>241.0230712890625</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>240.7564239501953</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>239.9281005859375</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>239.7094268798828</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>239.9775390625</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>238.5226287841797</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>233.2439575195312</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>231.4595184326172</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>229.0456390380859</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>228.4304351806641</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>227.0279388427734</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>226.2451171875</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>222.5344085693359</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>219.0201110839844</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>217.0221405029297</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>216.0435333251953</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>215.1690979003906</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>212.3878173828125</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>209.7079315185547</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>208.0551910400391</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>202.115478515625</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>195.5448455810547</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>193.5437469482422</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>191.7606048583984</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>188.4297027587891</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>180.0199737548828</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>177.3248138427734</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>172.2255096435547</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>166.2274932861328</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>160.3673400878906</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>154.6105194091797</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>147.8712615966797</v>
-      </c>
-      <c r="II3" t="n">
-        <v>138.45263671875</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>124.1008605957031</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>106.8725051879883</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>89.78752136230469</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>68.91848754882812</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>27.73652267456055</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>254.4478149414062</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>302.1219177246094</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>306.3587951660156</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>289.8101806640625</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>272.0567321777344</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>123.1865539550781</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>127.7023468017578</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>197.3249816894531</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>168.8863067626953</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>186.8130493164062</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>207.8895721435547</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>239.6786193847656</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>269.3739929199219</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>302.496337890625</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>302.5675048828125</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>290.7923889160156</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>289.5003662109375</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>284.1759338378906</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>283.5778503417969</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>283.8044128417969</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>284.6210632324219</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>285.9782104492188</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>297.8296203613281</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>300.9755859375</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>305.0498657226562</v>
+        <v>270.8990173339844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>933.1566772460938</v>
+        <v>1177.0029296875</v>
       </c>
       <c r="B4" t="n">
-        <v>933.1463012695312</v>
+        <v>1158.0146484375</v>
       </c>
       <c r="C4" t="n">
-        <v>933.1383056640625</v>
+        <v>1157.446533203125</v>
       </c>
       <c r="D4" t="n">
-        <v>933.1304931640625</v>
+        <v>1145.349975585938</v>
       </c>
       <c r="E4" t="n">
-        <v>933.1229248046875</v>
+        <v>1134.459350585938</v>
       </c>
       <c r="F4" t="n">
-        <v>933.116455078125</v>
+        <v>1122.263427734375</v>
       </c>
       <c r="G4" t="n">
-        <v>933.0994262695312</v>
+        <v>1114.16064453125</v>
       </c>
       <c r="H4" t="n">
-        <v>933.075927734375</v>
+        <v>1104.729858398438</v>
       </c>
       <c r="I4" t="n">
-        <v>933.05126953125</v>
+        <v>1104.7333984375</v>
       </c>
       <c r="J4" t="n">
-        <v>933.0244140625</v>
+        <v>1103.087646484375</v>
       </c>
       <c r="K4" t="n">
-        <v>932.9988403320312</v>
+        <v>1100.5517578125</v>
       </c>
       <c r="L4" t="n">
-        <v>932.5679321289062</v>
+        <v>1097.77099609375</v>
       </c>
       <c r="M4" t="n">
-        <v>932.1460571289062</v>
+        <v>1106.705810546875</v>
       </c>
       <c r="N4" t="n">
-        <v>931.6550903320312</v>
+        <v>1126.740356445312</v>
       </c>
       <c r="O4" t="n">
-        <v>931.0371704101562</v>
+        <v>1142.266479492188</v>
       </c>
       <c r="P4" t="n">
-        <v>930.3684692382812</v>
+        <v>1163.314453125</v>
       </c>
       <c r="Q4" t="n">
-        <v>929.2681274414062</v>
+        <v>1171.550048828125</v>
       </c>
       <c r="R4" t="n">
-        <v>925.6492309570312</v>
+        <v>1189.888916015625</v>
       </c>
       <c r="S4" t="n">
-        <v>915.6724243164062</v>
+        <v>1193.363891601562</v>
       </c>
       <c r="T4" t="n">
-        <v>903.051513671875</v>
+        <v>1219.162719726562</v>
       </c>
       <c r="U4" t="n">
-        <v>890.666748046875</v>
+        <v>1229.656127929688</v>
       </c>
       <c r="V4" t="n">
-        <v>879.8079833984375</v>
+        <v>1249.457641601562</v>
       </c>
       <c r="W4" t="n">
-        <v>869.2598876953125</v>
+        <v>1258.317016601562</v>
       </c>
       <c r="X4" t="n">
-        <v>854.0282592773438</v>
+        <v>1267.000122070312</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.0220947265625</v>
+        <v>1277.312744140625</v>
       </c>
       <c r="Z4" t="n">
-        <v>821.0989990234375</v>
+        <v>1287.602905273438</v>
       </c>
       <c r="AA4" t="n">
-        <v>807.3466796875</v>
+        <v>1294.488525390625</v>
       </c>
       <c r="AB4" t="n">
-        <v>797.9556884765625</v>
+        <v>1301.509399414062</v>
       </c>
       <c r="AC4" t="n">
-        <v>790.6659545898438</v>
+        <v>1302.009155273438</v>
       </c>
       <c r="AD4" t="n">
-        <v>787.1668090820312</v>
+        <v>1303.50341796875</v>
       </c>
       <c r="AE4" t="n">
-        <v>781.0525512695312</v>
+        <v>1305.507568359375</v>
       </c>
       <c r="AF4" t="n">
-        <v>776.7750244140625</v>
+        <v>1305.372924804688</v>
       </c>
       <c r="AG4" t="n">
-        <v>771.6861572265625</v>
+        <v>1305.25390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>769.011962890625</v>
+        <v>1304.988037109375</v>
       </c>
       <c r="AI4" t="n">
-        <v>767.8594970703125</v>
+        <v>1304.300048828125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>767.3338623046875</v>
+        <v>1302.677124023438</v>
       </c>
       <c r="AK4" t="n">
-        <v>769.1044921875</v>
+        <v>1294.760375976562</v>
       </c>
       <c r="AL4" t="n">
-        <v>779.9495849609375</v>
+        <v>1280.794677734375</v>
       </c>
       <c r="AM4" t="n">
-        <v>798.54931640625</v>
+        <v>1268.95166015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>822.8087158203125</v>
+        <v>1261.451782226562</v>
       </c>
       <c r="AO4" t="n">
-        <v>845.98193359375</v>
+        <v>1256.2412109375</v>
       </c>
       <c r="AP4" t="n">
-        <v>876.9049072265625</v>
+        <v>1253.511352539062</v>
       </c>
       <c r="AQ4" t="n">
-        <v>908.0963134765625</v>
+        <v>1248.369506835938</v>
       </c>
       <c r="AR4" t="n">
-        <v>944.1055297851562</v>
+        <v>1247.116577148438</v>
       </c>
       <c r="AS4" t="n">
-        <v>980.6741943359375</v>
+        <v>1240.795776367188</v>
       </c>
       <c r="AT4" t="n">
-        <v>1012.322082519531</v>
+        <v>1230.332397460938</v>
       </c>
       <c r="AU4" t="n">
-        <v>1051.018188476562</v>
+        <v>1229.5146484375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1088.79248046875</v>
+        <v>1227.336547851562</v>
       </c>
       <c r="AW4" t="n">
-        <v>1127.68603515625</v>
+        <v>1225.9267578125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1160.64111328125</v>
+        <v>1226.118896484375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1196.557983398438</v>
+        <v>1227.912719726562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1227.457275390625</v>
+        <v>1228.64111328125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1260.084350585938</v>
+        <v>1237.439575195312</v>
       </c>
       <c r="BB4" t="n">
-        <v>1286.223388671875</v>
+        <v>1245.70654296875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1316.947998046875</v>
+        <v>1247.04931640625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1342.85400390625</v>
+        <v>1255.79833984375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1363.988647460938</v>
+        <v>1267.6650390625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1391.81494140625</v>
+        <v>1275.904663085938</v>
       </c>
       <c r="BG4" t="n">
-        <v>1403.478759765625</v>
+        <v>1289.38330078125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1429.029907226562</v>
+        <v>1294.372924804688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1468.47900390625</v>
+        <v>1301.693115234375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1484.901000976562</v>
+        <v>1304.682739257812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1500.716918945312</v>
+        <v>1312.709716796875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1512.042602539062</v>
+        <v>1314.0595703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1536.123168945312</v>
+        <v>1318.377807617188</v>
       </c>
       <c r="BN4" t="n">
-        <v>1550.71044921875</v>
+        <v>1321.740234375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1566.862182617188</v>
+        <v>1322.904174804688</v>
       </c>
       <c r="BP4" t="n">
-        <v>1583.9736328125</v>
+        <v>1323.962768554688</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1599.013305664062</v>
+        <v>1324.857421875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1613.210815429688</v>
+        <v>1326.016479492188</v>
       </c>
       <c r="BS4" t="n">
-        <v>1644.304931640625</v>
+        <v>1327.547729492188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1665.63671875</v>
+        <v>1329.101440429688</v>
       </c>
       <c r="BU4" t="n">
-        <v>1681.78076171875</v>
+        <v>1331.373657226562</v>
       </c>
       <c r="BV4" t="n">
-        <v>1707.245239257812</v>
+        <v>1334.860595703125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1732.17138671875</v>
+        <v>1336.151123046875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1741.581176757812</v>
+        <v>1338.352416992188</v>
       </c>
       <c r="BY4" t="n">
-        <v>1777.118774414062</v>
+        <v>1340.3408203125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1797.229858398438</v>
+        <v>1342.748657226562</v>
       </c>
       <c r="CA4" t="n">
-        <v>1823.4482421875</v>
+        <v>1346.185180664062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1827.85107421875</v>
+        <v>1349.101440429688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1855.118530273438</v>
+        <v>1352.394287109375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1861.40478515625</v>
+        <v>1351.63427734375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1874.688232421875</v>
+        <v>1351.6787109375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1882.593627929688</v>
+        <v>1351.7265625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1900.001098632812</v>
+        <v>1351.722900390625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1913.52392578125</v>
+        <v>1351.733520507812</v>
       </c>
       <c r="CI4" t="n">
-        <v>1924.38720703125</v>
+        <v>1351.742919921875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1945.25537109375</v>
+        <v>1352.414916992188</v>
       </c>
       <c r="CK4" t="n">
-        <v>1949.683349609375</v>
+        <v>1353.125122070312</v>
       </c>
       <c r="CL4" t="n">
-        <v>1975.206909179688</v>
+        <v>1354.523681640625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1977.258666992188</v>
+        <v>1355.255859375</v>
       </c>
       <c r="CN4" t="n">
-        <v>2002.813110351562</v>
+        <v>1355.945922851562</v>
       </c>
       <c r="CO4" t="n">
-        <v>2003.260375976562</v>
+        <v>1356.705444335938</v>
       </c>
       <c r="CP4" t="n">
-        <v>2014.851318359375</v>
+        <v>1357.448852539062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2020.5107421875</v>
+        <v>1358.264282226562</v>
       </c>
       <c r="CR4" t="n">
-        <v>2024.379516601562</v>
+        <v>1359.97021484375</v>
       </c>
       <c r="CS4" t="n">
-        <v>2030.451538085938</v>
+        <v>1360.844970703125</v>
       </c>
       <c r="CT4" t="n">
-        <v>2041.767944335938</v>
+        <v>1361.701782226562</v>
       </c>
       <c r="CU4" t="n">
-        <v>2044.8955078125</v>
+        <v>1362.609741210938</v>
       </c>
       <c r="CV4" t="n">
-        <v>2050.126708984375</v>
+        <v>1363.370483398438</v>
       </c>
       <c r="CW4" t="n">
-        <v>2055.337646484375</v>
+        <v>1364.222290039062</v>
       </c>
       <c r="CX4" t="n">
-        <v>2090.76220703125</v>
+        <v>1364.957763671875</v>
       </c>
       <c r="CY4" t="n">
-        <v>2116.58056640625</v>
+        <v>1365.571166992188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2115.3447265625</v>
+        <v>1366.4638671875</v>
       </c>
       <c r="DA4" t="n">
-        <v>2132.89111328125</v>
+        <v>1366.367431640625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2137.814453125</v>
+        <v>1366.21240234375</v>
       </c>
       <c r="DC4" t="n">
-        <v>2138.77099609375</v>
+        <v>1366.020751953125</v>
       </c>
       <c r="DD4" t="n">
-        <v>2142.51611328125</v>
+        <v>1365.781127929688</v>
       </c>
       <c r="DE4" t="n">
-        <v>2151.768310546875</v>
+        <v>1365.508422851562</v>
       </c>
       <c r="DF4" t="n">
-        <v>2157.853515625</v>
+        <v>1364.239868164062</v>
       </c>
       <c r="DG4" t="n">
-        <v>2162.759033203125</v>
+        <v>1362.733032226562</v>
       </c>
       <c r="DH4" t="n">
-        <v>2179.057373046875</v>
+        <v>1355.95654296875</v>
       </c>
       <c r="DI4" t="n">
-        <v>2178.2861328125</v>
+        <v>1344.20361328125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2176.949951171875</v>
+        <v>1334.839233398438</v>
       </c>
       <c r="DK4" t="n">
-        <v>2177.70751953125</v>
+        <v>1335.439453125</v>
       </c>
       <c r="DL4" t="n">
-        <v>2178.2900390625</v>
+        <v>1324.24658203125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2178.910400390625</v>
+        <v>1319.312744140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>2179.537109375</v>
+        <v>1309.558471679688</v>
       </c>
       <c r="DO4" t="n">
-        <v>2180.52294921875</v>
+        <v>1304.630615234375</v>
       </c>
       <c r="DP4" t="n">
-        <v>2180.780517578125</v>
+        <v>1297.207153320312</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2182.86376953125</v>
+        <v>1296.681640625</v>
       </c>
       <c r="DR4" t="n">
-        <v>2183.99951171875</v>
+        <v>1296.323852539062</v>
       </c>
       <c r="DS4" t="n">
-        <v>2183.974853515625</v>
+        <v>1295.272705078125</v>
       </c>
       <c r="DT4" t="n">
-        <v>2183.89892578125</v>
+        <v>1294.433837890625</v>
       </c>
       <c r="DU4" t="n">
-        <v>2183.8212890625</v>
+        <v>1293.72900390625</v>
       </c>
       <c r="DV4" t="n">
-        <v>2183.77294921875</v>
+        <v>1292.574096679688</v>
       </c>
       <c r="DW4" t="n">
-        <v>2183.63525390625</v>
+        <v>1287.701171875</v>
       </c>
       <c r="DX4" t="n">
-        <v>2181.7275390625</v>
+        <v>1286.372192382812</v>
       </c>
       <c r="DY4" t="n">
-        <v>2180.75927734375</v>
+        <v>1284.424560546875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2179.013427734375</v>
+        <v>1278.946899414062</v>
       </c>
       <c r="EA4" t="n">
-        <v>2178.420654296875</v>
+        <v>1275.154418945312</v>
       </c>
       <c r="EB4" t="n">
-        <v>2177.8369140625</v>
+        <v>1264.574584960938</v>
       </c>
       <c r="EC4" t="n">
-        <v>2176.29833984375</v>
+        <v>1260.912841796875</v>
       </c>
       <c r="ED4" t="n">
-        <v>2176.089111328125</v>
+        <v>1245.24267578125</v>
       </c>
       <c r="EE4" t="n">
-        <v>2173.994384765625</v>
+        <v>1235.7607421875</v>
       </c>
       <c r="EF4" t="n">
-        <v>2163.821533203125</v>
+        <v>1225.815063476562</v>
       </c>
       <c r="EG4" t="n">
-        <v>2162.413330078125</v>
+        <v>1202.513671875</v>
       </c>
       <c r="EH4" t="n">
-        <v>2159.27294921875</v>
+        <v>1196.567138671875</v>
       </c>
       <c r="EI4" t="n">
-        <v>2160.018798828125</v>
+        <v>1168.170166015625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2159.3681640625</v>
+        <v>1144.373168945312</v>
       </c>
       <c r="EK4" t="n">
-        <v>2155.208251953125</v>
+        <v>1110.573852539062</v>
       </c>
       <c r="EL4" t="n">
-        <v>2150.972412109375</v>
+        <v>1097.567016601562</v>
       </c>
       <c r="EM4" t="n">
-        <v>2140.284912109375</v>
+        <v>1062.6962890625</v>
       </c>
       <c r="EN4" t="n">
-        <v>2140.934814453125</v>
+        <v>1051.495971679688</v>
       </c>
       <c r="EO4" t="n">
-        <v>2140.342041015625</v>
+        <v>1012.285095214844</v>
       </c>
       <c r="EP4" t="n">
-        <v>2139.635009765625</v>
+        <v>999.3572998046875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2131.152587890625</v>
+        <v>976.3551025390625</v>
       </c>
       <c r="ER4" t="n">
-        <v>2133.4482421875</v>
+        <v>970.8380737304688</v>
       </c>
       <c r="ES4" t="n">
-        <v>2133.433837890625</v>
+        <v>947.2999267578125</v>
       </c>
       <c r="ET4" t="n">
-        <v>2133.60009765625</v>
+        <v>937.147705078125</v>
       </c>
       <c r="EU4" t="n">
-        <v>2133.400390625</v>
+        <v>927.428955078125</v>
       </c>
       <c r="EV4" t="n">
-        <v>2132.674560546875</v>
+        <v>893.1602172851562</v>
       </c>
       <c r="EW4" t="n">
-        <v>2130.866455078125</v>
+        <v>859.489013671875</v>
       </c>
       <c r="EX4" t="n">
-        <v>2123.5224609375</v>
+        <v>835.1312255859375</v>
       </c>
       <c r="EY4" t="n">
-        <v>2121.764892578125</v>
+        <v>797.85888671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2122.43798828125</v>
+        <v>755.9697875976562</v>
       </c>
       <c r="FA4" t="n">
-        <v>2110.558349609375</v>
+        <v>735.7011108398438</v>
       </c>
       <c r="FB4" t="n">
-        <v>2110.8232421875</v>
+        <v>715.9004516601562</v>
       </c>
       <c r="FC4" t="n">
-        <v>2110.778564453125</v>
+        <v>686.3206176757812</v>
       </c>
       <c r="FD4" t="n">
-        <v>2111.837646484375</v>
+        <v>665.9314575195312</v>
       </c>
       <c r="FE4" t="n">
-        <v>2112.504638671875</v>
+        <v>660.8026733398438</v>
       </c>
       <c r="FF4" t="n">
-        <v>2113.2236328125</v>
+        <v>655.6831665039062</v>
       </c>
       <c r="FG4" t="n">
-        <v>2121.224365234375</v>
+        <v>655.8640747070312</v>
       </c>
       <c r="FH4" t="n">
-        <v>2119.597412109375</v>
+        <v>657.283935546875</v>
       </c>
       <c r="FI4" t="n">
-        <v>2119.9853515625</v>
+        <v>660.04833984375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2128.617431640625</v>
+        <v>659.7029418945312</v>
       </c>
       <c r="FK4" t="n">
-        <v>2126.555419921875</v>
+        <v>652.6754760742188</v>
       </c>
       <c r="FL4" t="n">
-        <v>2120.620849609375</v>
+        <v>654.3402099609375</v>
       </c>
       <c r="FM4" t="n">
-        <v>2123.74658203125</v>
+        <v>655.778564453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2123.0986328125</v>
+        <v>657.0497436523438</v>
       </c>
       <c r="FO4" t="n">
-        <v>2123.1669921875</v>
+        <v>669.9322509765625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2122.766845703125</v>
+        <v>683.7252807617188</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2122.337158203125</v>
+        <v>696.7645263671875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2122.031005859375</v>
+        <v>726.2661743164062</v>
       </c>
       <c r="FS4" t="n">
-        <v>2116.243896484375</v>
+        <v>730.1426391601562</v>
       </c>
       <c r="FT4" t="n">
-        <v>2115.175537109375</v>
+        <v>745.4669189453125</v>
       </c>
       <c r="FU4" t="n">
-        <v>2107.69091796875</v>
+        <v>775.6398315429688</v>
       </c>
       <c r="FV4" t="n">
-        <v>2104.852294921875</v>
+        <v>789.8067016601562</v>
       </c>
       <c r="FW4" t="n">
-        <v>2101.659423828125</v>
+        <v>806.3758544921875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2097.54248046875</v>
+        <v>814.8673095703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>2096.98876953125</v>
+        <v>818.944091796875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2095.70068359375</v>
+        <v>819.1639404296875</v>
       </c>
       <c r="GA4" t="n">
-        <v>2096.5947265625</v>
+        <v>818.44287109375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2097.19677734375</v>
+        <v>818.2938842773438</v>
       </c>
       <c r="GC4" t="n">
-        <v>2098.149169921875</v>
+        <v>799.50537109375</v>
       </c>
       <c r="GD4" t="n">
-        <v>2100.36376953125</v>
+        <v>771.1466674804688</v>
       </c>
       <c r="GE4" t="n">
-        <v>2102.000244140625</v>
+        <v>755.1444702148438</v>
       </c>
       <c r="GF4" t="n">
-        <v>2101.2490234375</v>
+        <v>736.51611328125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2101.79736328125</v>
+        <v>716.8543701171875</v>
       </c>
       <c r="GH4" t="n">
-        <v>2111.255859375</v>
+        <v>718.7334594726562</v>
       </c>
       <c r="GI4" t="n">
-        <v>2121.56640625</v>
+        <v>700.1154174804688</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2113.111572265625</v>
+        <v>667.1430053710938</v>
       </c>
       <c r="GK4" t="n">
-        <v>2109.850341796875</v>
+        <v>691.3169555664062</v>
       </c>
       <c r="GL4" t="n">
-        <v>2116.3818359375</v>
+        <v>683.8621215820312</v>
       </c>
       <c r="GM4" t="n">
-        <v>2122.749755859375</v>
+        <v>671.706298828125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2121.582275390625</v>
+        <v>638.7394409179688</v>
       </c>
       <c r="GO4" t="n">
-        <v>2114.28564453125</v>
+        <v>640.4133911132812</v>
       </c>
       <c r="GP4" t="n">
-        <v>2111.93359375</v>
+        <v>641.503173828125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2125.252685546875</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2122.837158203125</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2121.207275390625</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2120.725830078125</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2118.35888671875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2108.214111328125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2101.537353515625</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2099.92333984375</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2098.634765625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2079.556884765625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2072.910888671875</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2062.9375</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2030.676513671875</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2018.14990234375</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1966.55908203125</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1939.604858398438</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1888.585205078125</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1845.92431640625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1794.356689453125</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1769.35009765625</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1728.474487304688</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1696.642456054688</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1656.070922851562</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1640.215454101562</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1615.957275390625</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1588.199462890625</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1554.163940429688</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1522.139038085938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1495.257568359375</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1454.890380859375</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1416.330810546875</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1390.427856445312</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1357.5400390625</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1326.076171875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1294.104125976562</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1260.295043945312</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1231.414794921875</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1175.840087890625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1150.025024414062</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1108.160278320312</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1051.955078125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>998.9570922851562</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>934.0242919921875</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>865.3202514648438</v>
-      </c>
-      <c r="II4" t="n">
-        <v>795.120849609375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>729.1765747070312</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>659.952880859375</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>595.9473876953125</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>541.0062255859375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>490.3614501953125</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>542.4772338867188</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>582.4598388671875</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>569.7672119140625</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>570.6936645507812</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>570.3336791992188</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>549.6397094726562</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>547.344482421875</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>602.6431884765625</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>594.8207397460938</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>628.2764282226562</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>634.8754272460938</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>642.1438598632812</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>679.3834838867188</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>726.5232543945312</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>773.949462890625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>807.57421875</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>822.261474609375</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>836.00927734375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>856.6324462890625</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>862.202392578125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>857.1028442382812</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>839.4937744140625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>824.0328369140625</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>799.2676391601562</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>768.7328491210938</v>
+        <v>642.79443359375</v>
       </c>
     </row>
   </sheetData>

--- a/left_shoulder_Data.xlsx
+++ b/left_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>474.1519775390625</v>
+        <v>407.8650512695312</v>
       </c>
       <c r="B2" t="n">
-        <v>474.0482177734375</v>
+        <v>398.0825500488281</v>
       </c>
       <c r="C2" t="n">
-        <v>472.7301635742188</v>
+        <v>393.0549926757812</v>
       </c>
       <c r="D2" t="n">
-        <v>472.5356750488281</v>
+        <v>389.9847412109375</v>
       </c>
       <c r="E2" t="n">
-        <v>472.1627807617188</v>
+        <v>386.9508056640625</v>
       </c>
       <c r="F2" t="n">
-        <v>472.000732421875</v>
+        <v>385.0415649414062</v>
       </c>
       <c r="G2" t="n">
-        <v>471.4578552246094</v>
+        <v>383.8699035644531</v>
       </c>
       <c r="H2" t="n">
-        <v>469.8853149414062</v>
+        <v>382.0964050292969</v>
       </c>
       <c r="I2" t="n">
-        <v>467.4165649414062</v>
+        <v>380.37744140625</v>
       </c>
       <c r="J2" t="n">
-        <v>463.7523803710938</v>
+        <v>378.4483337402344</v>
       </c>
       <c r="K2" t="n">
-        <v>458.7070007324219</v>
+        <v>376.71240234375</v>
       </c>
       <c r="L2" t="n">
-        <v>454.6521606445312</v>
+        <v>376.8279418945312</v>
       </c>
       <c r="M2" t="n">
-        <v>447.8175659179688</v>
+        <v>375.9276733398438</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9533081054688</v>
+        <v>376.6332397460938</v>
       </c>
       <c r="O2" t="n">
-        <v>422.3148193359375</v>
+        <v>376.2941284179688</v>
       </c>
       <c r="P2" t="n">
-        <v>414.7806396484375</v>
+        <v>376.2073974609375</v>
       </c>
       <c r="Q2" t="n">
-        <v>409.2843933105469</v>
+        <v>375.4744873046875</v>
       </c>
       <c r="R2" t="n">
-        <v>409.5508422851562</v>
+        <v>374.5116577148438</v>
       </c>
       <c r="S2" t="n">
-        <v>407.9075317382812</v>
+        <v>373.7174072265625</v>
       </c>
       <c r="T2" t="n">
-        <v>409.1699829101562</v>
+        <v>372.9861145019531</v>
       </c>
       <c r="U2" t="n">
-        <v>408.3903198242188</v>
+        <v>372.0073852539062</v>
       </c>
       <c r="V2" t="n">
-        <v>407.5370788574219</v>
+        <v>370.803466796875</v>
       </c>
       <c r="W2" t="n">
-        <v>406.2255859375</v>
+        <v>369.196044921875</v>
       </c>
       <c r="X2" t="n">
-        <v>404.6338195800781</v>
+        <v>367.3214721679688</v>
       </c>
       <c r="Y2" t="n">
-        <v>403.8027648925781</v>
+        <v>365.2908325195312</v>
       </c>
       <c r="Z2" t="n">
-        <v>403.4905395507812</v>
+        <v>362.5093994140625</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.1955261230469</v>
+        <v>360.8971557617188</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.9895324707031</v>
+        <v>358.3702392578125</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.6766357421875</v>
+        <v>356.5977172851562</v>
       </c>
       <c r="AD2" t="n">
-        <v>402.7615966796875</v>
+        <v>354.908203125</v>
       </c>
       <c r="AE2" t="n">
-        <v>403.3481140136719</v>
+        <v>353.4410095214844</v>
       </c>
       <c r="AF2" t="n">
-        <v>404.3705444335938</v>
+        <v>352.123046875</v>
       </c>
       <c r="AG2" t="n">
-        <v>406.169189453125</v>
+        <v>351.46484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>408.3697814941406</v>
+        <v>350.7802734375</v>
       </c>
       <c r="AI2" t="n">
-        <v>410.3683166503906</v>
+        <v>350.33544921875</v>
       </c>
       <c r="AJ2" t="n">
-        <v>412.386962890625</v>
+        <v>349.7754516601562</v>
       </c>
       <c r="AK2" t="n">
-        <v>414.3402709960938</v>
+        <v>349.3976440429688</v>
       </c>
       <c r="AL2" t="n">
-        <v>415.9911804199219</v>
+        <v>349.1602783203125</v>
       </c>
       <c r="AM2" t="n">
-        <v>417.2305603027344</v>
+        <v>348.98583984375</v>
       </c>
       <c r="AN2" t="n">
-        <v>417.9346923828125</v>
+        <v>349.0164794921875</v>
       </c>
       <c r="AO2" t="n">
-        <v>418.3882141113281</v>
+        <v>349.0285949707031</v>
       </c>
       <c r="AP2" t="n">
-        <v>418.6137084960938</v>
+        <v>349.541259765625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>418.8293151855469</v>
+        <v>350.5896606445312</v>
       </c>
       <c r="AR2" t="n">
-        <v>418.02734375</v>
+        <v>351.8937377929688</v>
       </c>
       <c r="AS2" t="n">
-        <v>416.0540466308594</v>
+        <v>353.1336975097656</v>
       </c>
       <c r="AT2" t="n">
-        <v>412.2943725585938</v>
+        <v>354.4309692382812</v>
       </c>
       <c r="AU2" t="n">
-        <v>409.4183044433594</v>
+        <v>355.3182373046875</v>
       </c>
       <c r="AV2" t="n">
-        <v>405.449462890625</v>
+        <v>356.1820068359375</v>
       </c>
       <c r="AW2" t="n">
-        <v>401.3390502929688</v>
+        <v>356.67578125</v>
       </c>
       <c r="AX2" t="n">
-        <v>392.93310546875</v>
+        <v>357.247802734375</v>
       </c>
       <c r="AY2" t="n">
-        <v>386.1980590820312</v>
+        <v>357.6949768066406</v>
       </c>
       <c r="AZ2" t="n">
-        <v>376.0131225585938</v>
+        <v>358.0968627929688</v>
       </c>
       <c r="BA2" t="n">
-        <v>368.1930541992188</v>
+        <v>358.2996215820312</v>
       </c>
       <c r="BB2" t="n">
-        <v>358.165283203125</v>
+        <v>358.4356079101562</v>
       </c>
       <c r="BC2" t="n">
-        <v>349.6939392089844</v>
+        <v>358.4023742675781</v>
       </c>
       <c r="BD2" t="n">
-        <v>344.2525634765625</v>
+        <v>358.3468017578125</v>
       </c>
       <c r="BE2" t="n">
-        <v>336.0679321289062</v>
+        <v>358.2221069335938</v>
       </c>
       <c r="BF2" t="n">
-        <v>327.7809143066406</v>
+        <v>358.0125122070312</v>
       </c>
       <c r="BG2" t="n">
-        <v>320.9411926269531</v>
+        <v>357.6667785644531</v>
       </c>
       <c r="BH2" t="n">
-        <v>314.1443786621094</v>
+        <v>357.3056640625</v>
       </c>
       <c r="BI2" t="n">
-        <v>309.6824035644531</v>
+        <v>356.8636779785156</v>
       </c>
       <c r="BJ2" t="n">
-        <v>305.2969055175781</v>
+        <v>356.2369995117188</v>
       </c>
       <c r="BK2" t="n">
-        <v>302.46435546875</v>
+        <v>355.603759765625</v>
       </c>
       <c r="BL2" t="n">
-        <v>299.0030212402344</v>
+        <v>354.8956909179688</v>
       </c>
       <c r="BM2" t="n">
-        <v>295.6646423339844</v>
+        <v>354.3779907226562</v>
       </c>
       <c r="BN2" t="n">
-        <v>292.8172607421875</v>
+        <v>354.1605224609375</v>
       </c>
       <c r="BO2" t="n">
-        <v>290.2885131835938</v>
+        <v>353.9990234375</v>
       </c>
       <c r="BP2" t="n">
-        <v>288.4600219726562</v>
+        <v>353.854736328125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>286.8630676269531</v>
+        <v>353.7326049804688</v>
       </c>
       <c r="BR2" t="n">
-        <v>285.5382080078125</v>
+        <v>353.6636962890625</v>
       </c>
       <c r="BS2" t="n">
-        <v>284.944580078125</v>
+        <v>353.64404296875</v>
       </c>
       <c r="BT2" t="n">
-        <v>284.4176330566406</v>
+        <v>353.6422119140625</v>
       </c>
       <c r="BU2" t="n">
-        <v>284.0619201660156</v>
+        <v>353.6728515625</v>
       </c>
       <c r="BV2" t="n">
-        <v>283.8694763183594</v>
+        <v>353.6973571777344</v>
       </c>
       <c r="BW2" t="n">
-        <v>283.8677368164062</v>
+        <v>353.7271728515625</v>
       </c>
       <c r="BX2" t="n">
-        <v>283.8814086914062</v>
+        <v>353.74169921875</v>
       </c>
       <c r="BY2" t="n">
-        <v>283.8558349609375</v>
+        <v>353.7649230957031</v>
       </c>
       <c r="BZ2" t="n">
-        <v>283.8629455566406</v>
+        <v>353.7820739746094</v>
       </c>
       <c r="CA2" t="n">
-        <v>283.904052734375</v>
+        <v>353.8179016113281</v>
       </c>
       <c r="CB2" t="n">
-        <v>283.9339599609375</v>
+        <v>353.8042602539062</v>
       </c>
       <c r="CC2" t="n">
-        <v>283.9726257324219</v>
+        <v>353.788330078125</v>
       </c>
       <c r="CD2" t="n">
-        <v>283.8851623535156</v>
+        <v>353.7988891601562</v>
       </c>
       <c r="CE2" t="n">
-        <v>283.8341064453125</v>
+        <v>353.8486328125</v>
       </c>
       <c r="CF2" t="n">
-        <v>283.7786254882812</v>
+        <v>353.8880615234375</v>
       </c>
       <c r="CG2" t="n">
-        <v>283.8595275878906</v>
+        <v>353.8876037597656</v>
       </c>
       <c r="CH2" t="n">
-        <v>283.9626770019531</v>
+        <v>353.8763122558594</v>
       </c>
       <c r="CI2" t="n">
-        <v>284.053466796875</v>
+        <v>353.8591003417969</v>
       </c>
       <c r="CJ2" t="n">
-        <v>284.1923217773438</v>
+        <v>353.8372192382812</v>
       </c>
       <c r="CK2" t="n">
-        <v>284.2926635742188</v>
+        <v>353.8070068359375</v>
       </c>
       <c r="CL2" t="n">
-        <v>284.3887329101562</v>
+        <v>353.7782287597656</v>
       </c>
       <c r="CM2" t="n">
-        <v>284.4013366699219</v>
+        <v>353.6705932617188</v>
       </c>
       <c r="CN2" t="n">
-        <v>284.3937072753906</v>
+        <v>353.6771240234375</v>
       </c>
       <c r="CO2" t="n">
-        <v>284.4496459960938</v>
+        <v>353.6854248046875</v>
       </c>
       <c r="CP2" t="n">
-        <v>284.453857421875</v>
+        <v>353.582275390625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>284.4667053222656</v>
+        <v>353.3583984375</v>
       </c>
       <c r="CR2" t="n">
-        <v>284.4461975097656</v>
+        <v>352.85546875</v>
       </c>
       <c r="CS2" t="n">
-        <v>284.430908203125</v>
+        <v>352.6925048828125</v>
       </c>
       <c r="CT2" t="n">
-        <v>284.4233093261719</v>
+        <v>352.5629272460938</v>
       </c>
       <c r="CU2" t="n">
-        <v>284.4394836425781</v>
+        <v>352.4640502929688</v>
       </c>
       <c r="CV2" t="n">
-        <v>284.4735412597656</v>
+        <v>352.353759765625</v>
       </c>
       <c r="CW2" t="n">
-        <v>284.5320129394531</v>
+        <v>352.22216796875</v>
       </c>
       <c r="CX2" t="n">
-        <v>284.8112182617188</v>
+        <v>352.14892578125</v>
       </c>
       <c r="CY2" t="n">
-        <v>285.7393493652344</v>
+        <v>352.0177001953125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>286.7545776367188</v>
+        <v>351.9180603027344</v>
       </c>
       <c r="DA2" t="n">
-        <v>287.9578552246094</v>
+        <v>351.8338317871094</v>
       </c>
       <c r="DB2" t="n">
-        <v>289.0890808105469</v>
+        <v>351.6757202148438</v>
       </c>
       <c r="DC2" t="n">
-        <v>290.0041809082031</v>
+        <v>351.6062927246094</v>
       </c>
       <c r="DD2" t="n">
-        <v>291.5335083007812</v>
+        <v>351.5417785644531</v>
       </c>
       <c r="DE2" t="n">
-        <v>294.0369262695312</v>
+        <v>351.4833374023438</v>
       </c>
       <c r="DF2" t="n">
-        <v>296.0561828613281</v>
+        <v>351.4491577148438</v>
       </c>
       <c r="DG2" t="n">
-        <v>298.7612609863281</v>
+        <v>351.4191284179688</v>
       </c>
       <c r="DH2" t="n">
-        <v>301.7326354980469</v>
+        <v>351.362060546875</v>
       </c>
       <c r="DI2" t="n">
-        <v>304.9169311523438</v>
+        <v>351.2682495117188</v>
       </c>
       <c r="DJ2" t="n">
-        <v>308.2380981445312</v>
+        <v>351.1819152832031</v>
       </c>
       <c r="DK2" t="n">
-        <v>313.2067565917969</v>
+        <v>351.0381774902344</v>
       </c>
       <c r="DL2" t="n">
-        <v>322.4998474121094</v>
+        <v>350.9510498046875</v>
       </c>
       <c r="DM2" t="n">
-        <v>328.6123352050781</v>
+        <v>350.8661193847656</v>
       </c>
       <c r="DN2" t="n">
-        <v>338.1903686523438</v>
+        <v>350.6636047363281</v>
       </c>
       <c r="DO2" t="n">
-        <v>349.2718200683594</v>
+        <v>350.5740356445312</v>
       </c>
       <c r="DP2" t="n">
-        <v>367.2586669921875</v>
+        <v>350.4749145507812</v>
       </c>
       <c r="DQ2" t="n">
-        <v>374.3717041015625</v>
+        <v>350.380859375</v>
       </c>
       <c r="DR2" t="n">
-        <v>381.068359375</v>
+        <v>350.2889709472656</v>
       </c>
       <c r="DS2" t="n">
-        <v>395.2060546875</v>
+        <v>350.2689819335938</v>
       </c>
       <c r="DT2" t="n">
-        <v>402.0438232421875</v>
+        <v>350.1748352050781</v>
       </c>
       <c r="DU2" t="n">
-        <v>408.5346984863281</v>
+        <v>350.1505737304688</v>
       </c>
       <c r="DV2" t="n">
-        <v>418.4732360839844</v>
+        <v>350.1104736328125</v>
       </c>
       <c r="DW2" t="n">
-        <v>426.3538818359375</v>
+        <v>350.0982666015625</v>
       </c>
       <c r="DX2" t="n">
-        <v>430.4927062988281</v>
+        <v>350.0900573730469</v>
       </c>
       <c r="DY2" t="n">
-        <v>434.9457397460938</v>
+        <v>350.0628967285156</v>
       </c>
       <c r="DZ2" t="n">
-        <v>439.5953369140625</v>
+        <v>350.0345458984375</v>
       </c>
       <c r="EA2" t="n">
-        <v>441.1536254882812</v>
+        <v>349.9628295898438</v>
       </c>
       <c r="EB2" t="n">
-        <v>444.6241760253906</v>
+        <v>349.9093017578125</v>
       </c>
       <c r="EC2" t="n">
-        <v>445.7096862792969</v>
+        <v>349.8255004882812</v>
       </c>
       <c r="ED2" t="n">
-        <v>447.7577514648438</v>
+        <v>349.6426391601562</v>
       </c>
       <c r="EE2" t="n">
-        <v>448.7052001953125</v>
+        <v>349.5389404296875</v>
       </c>
       <c r="EF2" t="n">
-        <v>449.6266479492188</v>
+        <v>349.3001708984375</v>
       </c>
       <c r="EG2" t="n">
-        <v>450.3320922851562</v>
+        <v>349.1826782226562</v>
       </c>
       <c r="EH2" t="n">
-        <v>446.7830810546875</v>
+        <v>349.0692443847656</v>
       </c>
       <c r="EI2" t="n">
-        <v>439.9396362304688</v>
+        <v>349.0446472167969</v>
       </c>
       <c r="EJ2" t="n">
-        <v>436.8448181152344</v>
+        <v>349.0765991210938</v>
       </c>
       <c r="EK2" t="n">
-        <v>429.67138671875</v>
+        <v>348.8656005859375</v>
       </c>
       <c r="EL2" t="n">
-        <v>424.0545959472656</v>
+        <v>348.6896362304688</v>
       </c>
       <c r="EM2" t="n">
-        <v>414.1174011230469</v>
+        <v>348.7759094238281</v>
       </c>
       <c r="EN2" t="n">
-        <v>406.5971374511719</v>
+        <v>348.7540283203125</v>
       </c>
       <c r="EO2" t="n">
-        <v>394.6868286132812</v>
+        <v>348.794677734375</v>
       </c>
       <c r="EP2" t="n">
-        <v>389.5546875</v>
+        <v>348.76953125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>378.9433288574219</v>
+        <v>348.6912231445312</v>
       </c>
       <c r="ER2" t="n">
-        <v>372.7003479003906</v>
+        <v>348.6316223144531</v>
       </c>
       <c r="ES2" t="n">
-        <v>364.6411743164062</v>
+        <v>348.6119384765625</v>
       </c>
       <c r="ET2" t="n">
-        <v>362.1174926757812</v>
+        <v>348.5882568359375</v>
       </c>
       <c r="EU2" t="n">
-        <v>358.1903686523438</v>
+        <v>348.533447265625</v>
       </c>
       <c r="EV2" t="n">
-        <v>351.9779968261719</v>
+        <v>348.4928894042969</v>
       </c>
       <c r="EW2" t="n">
-        <v>342.5407104492188</v>
+        <v>348.4991760253906</v>
       </c>
       <c r="EX2" t="n">
-        <v>337.9888305664062</v>
+        <v>348.5052490234375</v>
       </c>
       <c r="EY2" t="n">
-        <v>326.3232421875</v>
+        <v>348.5242309570312</v>
       </c>
       <c r="EZ2" t="n">
-        <v>314.61474609375</v>
+        <v>348.5469055175781</v>
       </c>
       <c r="FA2" t="n">
-        <v>309.9674377441406</v>
+        <v>348.5582885742188</v>
       </c>
       <c r="FB2" t="n">
-        <v>305.0361022949219</v>
+        <v>348.5594177246094</v>
       </c>
       <c r="FC2" t="n">
-        <v>298.8177490234375</v>
+        <v>348.50244140625</v>
       </c>
       <c r="FD2" t="n">
-        <v>295.0592956542969</v>
+        <v>348.519775390625</v>
       </c>
       <c r="FE2" t="n">
-        <v>293.9613342285156</v>
+        <v>348.5189208984375</v>
       </c>
       <c r="FF2" t="n">
-        <v>292.4310913085938</v>
+        <v>348.5220031738281</v>
       </c>
       <c r="FG2" t="n">
-        <v>293.2345886230469</v>
+        <v>348.5939331054688</v>
       </c>
       <c r="FH2" t="n">
-        <v>293.3227844238281</v>
+        <v>348.633056640625</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.9003295898438</v>
+        <v>348.628173828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>313.6296997070312</v>
+        <v>348.5624389648438</v>
       </c>
       <c r="FK2" t="n">
-        <v>326.5488891601562</v>
+        <v>348.5010070800781</v>
       </c>
       <c r="FL2" t="n">
-        <v>352.0834045410156</v>
+        <v>348.1202697753906</v>
       </c>
       <c r="FM2" t="n">
-        <v>363.325439453125</v>
+        <v>347.7100219726562</v>
       </c>
       <c r="FN2" t="n">
-        <v>373.8030700683594</v>
+        <v>347.0185852050781</v>
       </c>
       <c r="FO2" t="n">
-        <v>399.5947570800781</v>
+        <v>346.7965393066406</v>
       </c>
       <c r="FP2" t="n">
-        <v>440.3076782226562</v>
+        <v>346.6269226074219</v>
       </c>
       <c r="FQ2" t="n">
-        <v>462.3480224609375</v>
+        <v>346.5736389160156</v>
       </c>
       <c r="FR2" t="n">
-        <v>491.5852661132812</v>
+        <v>346.5267944335938</v>
       </c>
       <c r="FS2" t="n">
-        <v>502.2445373535156</v>
+        <v>346.5040893554688</v>
       </c>
       <c r="FT2" t="n">
-        <v>511.2206420898438</v>
+        <v>346.4696655273438</v>
       </c>
       <c r="FU2" t="n">
-        <v>533.5732421875</v>
+        <v>346.4655151367188</v>
       </c>
       <c r="FV2" t="n">
-        <v>541.0645751953125</v>
+        <v>346.4533081054688</v>
       </c>
       <c r="FW2" t="n">
-        <v>552.469482421875</v>
+        <v>346.4154357910156</v>
       </c>
       <c r="FX2" t="n">
-        <v>560.53662109375</v>
+        <v>346.3326721191406</v>
       </c>
       <c r="FY2" t="n">
-        <v>564.5403442382812</v>
+        <v>346.2490539550781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>568.7930297851562</v>
+        <v>346.2800903320312</v>
       </c>
       <c r="GA2" t="n">
-        <v>571.910400390625</v>
+        <v>346.3499755859375</v>
       </c>
       <c r="GB2" t="n">
-        <v>571.50341796875</v>
+        <v>346.4091796875</v>
       </c>
       <c r="GC2" t="n">
-        <v>573.21484375</v>
+        <v>346.4461669921875</v>
       </c>
       <c r="GD2" t="n">
-        <v>568.457763671875</v>
+        <v>346.4694213867188</v>
       </c>
       <c r="GE2" t="n">
-        <v>562.9451904296875</v>
+        <v>346.4932556152344</v>
       </c>
       <c r="GF2" t="n">
-        <v>554.02294921875</v>
+        <v>346.4813842773438</v>
       </c>
       <c r="GG2" t="n">
-        <v>527.7417602539062</v>
+        <v>346.5391845703125</v>
       </c>
       <c r="GH2" t="n">
-        <v>515.4446411132812</v>
+        <v>346.6668090820312</v>
       </c>
       <c r="GI2" t="n">
-        <v>489.2568359375</v>
+        <v>346.6708068847656</v>
       </c>
       <c r="GJ2" t="n">
-        <v>470.5155944824219</v>
+        <v>346.7486267089844</v>
       </c>
       <c r="GK2" t="n">
-        <v>465.32470703125</v>
+        <v>346.8158569335938</v>
       </c>
       <c r="GL2" t="n">
-        <v>449.7611999511719</v>
+        <v>346.8352661132812</v>
       </c>
       <c r="GM2" t="n">
-        <v>434.6102600097656</v>
+        <v>346.7119140625</v>
       </c>
       <c r="GN2" t="n">
-        <v>423.1912841796875</v>
+        <v>346.6738586425781</v>
       </c>
       <c r="GO2" t="n">
-        <v>423.2822875976562</v>
+        <v>346.5892944335938</v>
       </c>
       <c r="GP2" t="n">
-        <v>418.4241333007812</v>
+        <v>346.5317993164062</v>
       </c>
       <c r="GQ2" t="n">
-        <v>411.9714965820312</v>
+        <v>346.5126953125</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>346.491943359375</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>346.4291687011719</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>346.3953857421875</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>346.3833618164062</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>346.431640625</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>346.4849548339844</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>346.5234375</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>346.5460815429688</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>346.5748901367188</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>346.5964965820312</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>346.6044921875</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>346.6226196289062</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>346.6610107421875</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>346.7840881347656</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>346.9237060546875</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>347.044921875</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>346.9093627929688</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>346.7701416015625</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>346.6380310058594</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>346.6339416503906</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>346.6209716796875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>346.6023254394531</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>346.563232421875</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>346.5403747558594</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>346.5509033203125</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>346.5359802246094</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>346.4843139648438</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>346.44384765625</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>346.3993835449219</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>346.3445434570312</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>346.2799682617188</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>346.2439575195312</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>346.1992797851562</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>346.1294860839844</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>346.070556640625</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>346.1405029296875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>346.0903625488281</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>346.0797729492188</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>346.1830139160156</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>346.2016296386719</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>346.1978454589844</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>346.2088317871094</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>346.2109069824219</v>
+      </c>
+      <c r="II2" t="n">
+        <v>346.2103576660156</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>346.209716796875</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>346.215576171875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>346.225341796875</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>346.3836669921875</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>346.7443542480469</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>346.5441589355469</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>346.4083251953125</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>346.3488159179688</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>346.2451477050781</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>346.1560668945312</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>346.0987548828125</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>346.088134765625</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>345.9309692382812</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>345.6784362792969</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>345.43359375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>345.179443359375</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>345.1956787109375</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>345.2743225097656</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>345.5567016601562</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>345.7477416992188</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>346.0014343261719</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>346.1221008300781</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>346.1666259765625</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>346.1549072265625</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>346.0403442382812</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>345.746826171875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>345.2923278808594</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>344.791015625</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>344.2571411132812</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>343.9041748046875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>343.6168823242188</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>343.4344177246094</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>343.2725219726562</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>342.964111328125</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>343.1487426757812</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>342.94384765625</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>342.814453125</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>342.765380859375</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>342.7279663085938</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>342.7251586914062</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>342.6459045410156</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>342.9187316894531</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>343.0317687988281</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>342.6428833007812</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>342.3485107421875</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>341.0325622558594</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>338.6377258300781</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>338.2060546875</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>337.7530517578125</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>338.1443786621094</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>338.5863647460938</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>339.1931457519531</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>339.3371276855469</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>339.8302917480469</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>342.0889892578125</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>346.405029296875</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>352.301025390625</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>359.5626220703125</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>364.6607971191406</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>368.1027221679688</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>371.6868286132812</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>375.2813415527344</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>377.3402404785156</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>379.4478759765625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>379.9198913574219</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>382.3517456054688</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>383.068359375</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>384.0360107421875</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>384.5119934082031</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>387.06689453125</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>387.0447998046875</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>386.5838012695312</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>386.3419189453125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269.3404541015625</v>
+        <v>215.2879638671875</v>
       </c>
       <c r="B3" t="n">
-        <v>268.2850952148438</v>
+        <v>214.0341491699219</v>
       </c>
       <c r="C3" t="n">
-        <v>265.2315368652344</v>
+        <v>212.7682037353516</v>
       </c>
       <c r="D3" t="n">
-        <v>263.2785949707031</v>
+        <v>212.4325866699219</v>
       </c>
       <c r="E3" t="n">
-        <v>261.2958984375</v>
+        <v>212.8847503662109</v>
       </c>
       <c r="F3" t="n">
-        <v>258.2886657714844</v>
+        <v>214.0585632324219</v>
       </c>
       <c r="G3" t="n">
-        <v>253.3192291259766</v>
+        <v>215.28564453125</v>
       </c>
       <c r="H3" t="n">
-        <v>250.0443878173828</v>
+        <v>216.2044677734375</v>
       </c>
       <c r="I3" t="n">
-        <v>246.1240997314453</v>
+        <v>218.2869262695312</v>
       </c>
       <c r="J3" t="n">
-        <v>240.0652618408203</v>
+        <v>220.5421905517578</v>
       </c>
       <c r="K3" t="n">
-        <v>233.6985015869141</v>
+        <v>225.7916870117188</v>
       </c>
       <c r="L3" t="n">
-        <v>226.0594940185547</v>
+        <v>228.4592742919922</v>
       </c>
       <c r="M3" t="n">
-        <v>220.8233032226562</v>
+        <v>232.9162445068359</v>
       </c>
       <c r="N3" t="n">
-        <v>211.4317932128906</v>
+        <v>234.5148162841797</v>
       </c>
       <c r="O3" t="n">
-        <v>201.6053009033203</v>
+        <v>235.2171325683594</v>
       </c>
       <c r="P3" t="n">
-        <v>192.1422271728516</v>
+        <v>235.7380218505859</v>
       </c>
       <c r="Q3" t="n">
-        <v>187.8854370117188</v>
+        <v>235.4303894042969</v>
       </c>
       <c r="R3" t="n">
-        <v>180.2510986328125</v>
+        <v>234.1506042480469</v>
       </c>
       <c r="S3" t="n">
-        <v>177.0414428710938</v>
+        <v>233.5502319335938</v>
       </c>
       <c r="T3" t="n">
-        <v>170.2672119140625</v>
+        <v>233.1320953369141</v>
       </c>
       <c r="U3" t="n">
-        <v>165.8565521240234</v>
+        <v>233.3295593261719</v>
       </c>
       <c r="V3" t="n">
-        <v>162.2948455810547</v>
+        <v>233.998779296875</v>
       </c>
       <c r="W3" t="n">
-        <v>159.6842803955078</v>
+        <v>237.2382507324219</v>
       </c>
       <c r="X3" t="n">
-        <v>158.73681640625</v>
+        <v>240.0089263916016</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.3074493408203</v>
+        <v>241.4126892089844</v>
       </c>
       <c r="Z3" t="n">
-        <v>155.3582153320312</v>
+        <v>245.4926452636719</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.0302886962891</v>
+        <v>248.6150207519531</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.1623687744141</v>
+        <v>252.2700958251953</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.9003601074219</v>
+        <v>254.3317565917969</v>
       </c>
       <c r="AD3" t="n">
-        <v>152.5715942382812</v>
+        <v>256.4888305664062</v>
       </c>
       <c r="AE3" t="n">
-        <v>151.7899932861328</v>
+        <v>257.9112243652344</v>
       </c>
       <c r="AF3" t="n">
-        <v>151.7562866210938</v>
+        <v>259.3905029296875</v>
       </c>
       <c r="AG3" t="n">
-        <v>151.7168273925781</v>
+        <v>260.2154541015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>151.759765625</v>
+        <v>260.3537292480469</v>
       </c>
       <c r="AI3" t="n">
-        <v>152.0714874267578</v>
+        <v>260.4946899414062</v>
       </c>
       <c r="AJ3" t="n">
-        <v>152.2548217773438</v>
+        <v>260.4188537597656</v>
       </c>
       <c r="AK3" t="n">
-        <v>152.1394348144531</v>
+        <v>260.187255859375</v>
       </c>
       <c r="AL3" t="n">
-        <v>151.6188659667969</v>
+        <v>259.9905090332031</v>
       </c>
       <c r="AM3" t="n">
-        <v>151.1049346923828</v>
+        <v>259.8499450683594</v>
       </c>
       <c r="AN3" t="n">
-        <v>150.8538970947266</v>
+        <v>259.46728515625</v>
       </c>
       <c r="AO3" t="n">
-        <v>150.6768188476562</v>
+        <v>259.1455688476562</v>
       </c>
       <c r="AP3" t="n">
-        <v>150.6741027832031</v>
+        <v>258.8009948730469</v>
       </c>
       <c r="AQ3" t="n">
-        <v>150.4241638183594</v>
+        <v>258.7277526855469</v>
       </c>
       <c r="AR3" t="n">
-        <v>152.1544189453125</v>
+        <v>258.9089660644531</v>
       </c>
       <c r="AS3" t="n">
-        <v>154.1375122070312</v>
+        <v>259.1360168457031</v>
       </c>
       <c r="AT3" t="n">
-        <v>156.2192535400391</v>
+        <v>259.2716979980469</v>
       </c>
       <c r="AU3" t="n">
-        <v>156.4947967529297</v>
+        <v>259.8985900878906</v>
       </c>
       <c r="AV3" t="n">
-        <v>156.8815307617188</v>
+        <v>260.5526428222656</v>
       </c>
       <c r="AW3" t="n">
-        <v>156.7878265380859</v>
+        <v>261.9410705566406</v>
       </c>
       <c r="AX3" t="n">
-        <v>157.3535919189453</v>
+        <v>262.8144836425781</v>
       </c>
       <c r="AY3" t="n">
-        <v>157.4972991943359</v>
+        <v>263.21044921875</v>
       </c>
       <c r="AZ3" t="n">
-        <v>160.7620086669922</v>
+        <v>263.4024047851562</v>
       </c>
       <c r="BA3" t="n">
-        <v>160.8974761962891</v>
+        <v>263.4667053222656</v>
       </c>
       <c r="BB3" t="n">
-        <v>162.9738616943359</v>
+        <v>263.4964294433594</v>
       </c>
       <c r="BC3" t="n">
-        <v>164.2512817382812</v>
+        <v>263.5589599609375</v>
       </c>
       <c r="BD3" t="n">
-        <v>164.642822265625</v>
+        <v>263.610107421875</v>
       </c>
       <c r="BE3" t="n">
-        <v>165.954345703125</v>
+        <v>263.6513671875</v>
       </c>
       <c r="BF3" t="n">
-        <v>164.8324890136719</v>
+        <v>263.6304321289062</v>
       </c>
       <c r="BG3" t="n">
-        <v>164.3620758056641</v>
+        <v>263.5398864746094</v>
       </c>
       <c r="BH3" t="n">
-        <v>164.3277740478516</v>
+        <v>263.4440002441406</v>
       </c>
       <c r="BI3" t="n">
-        <v>163.9337158203125</v>
+        <v>263.2932434082031</v>
       </c>
       <c r="BJ3" t="n">
-        <v>164.6771697998047</v>
+        <v>263.0420227050781</v>
       </c>
       <c r="BK3" t="n">
-        <v>164.7551422119141</v>
+        <v>262.6865844726562</v>
       </c>
       <c r="BL3" t="n">
-        <v>165.294677734375</v>
+        <v>262.6797485351562</v>
       </c>
       <c r="BM3" t="n">
-        <v>165.1073150634766</v>
+        <v>262.7740478515625</v>
       </c>
       <c r="BN3" t="n">
-        <v>164.9913024902344</v>
+        <v>262.7229614257812</v>
       </c>
       <c r="BO3" t="n">
-        <v>165.1502532958984</v>
+        <v>262.6871948242188</v>
       </c>
       <c r="BP3" t="n">
-        <v>164.968994140625</v>
+        <v>262.7011108398438</v>
       </c>
       <c r="BQ3" t="n">
-        <v>165.2696990966797</v>
+        <v>262.7133483886719</v>
       </c>
       <c r="BR3" t="n">
-        <v>165.7380981445312</v>
+        <v>262.8002624511719</v>
       </c>
       <c r="BS3" t="n">
-        <v>165.8110809326172</v>
+        <v>262.9040832519531</v>
       </c>
       <c r="BT3" t="n">
-        <v>166.0425872802734</v>
+        <v>263.0192565917969</v>
       </c>
       <c r="BU3" t="n">
-        <v>166.4057006835938</v>
+        <v>263.1455688476562</v>
       </c>
       <c r="BV3" t="n">
-        <v>166.9576416015625</v>
+        <v>263.2843322753906</v>
       </c>
       <c r="BW3" t="n">
-        <v>167.1044616699219</v>
+        <v>263.4148559570312</v>
       </c>
       <c r="BX3" t="n">
-        <v>167.3540954589844</v>
+        <v>263.5169677734375</v>
       </c>
       <c r="BY3" t="n">
-        <v>167.5857696533203</v>
+        <v>263.6285400390625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>167.8426818847656</v>
+        <v>263.7610168457031</v>
       </c>
       <c r="CA3" t="n">
-        <v>168.1556396484375</v>
+        <v>263.9868774414062</v>
       </c>
       <c r="CB3" t="n">
-        <v>168.4199829101562</v>
+        <v>264.1368408203125</v>
       </c>
       <c r="CC3" t="n">
-        <v>168.7049560546875</v>
+        <v>264.2646179199219</v>
       </c>
       <c r="CD3" t="n">
-        <v>168.7903289794922</v>
+        <v>264.3192443847656</v>
       </c>
       <c r="CE3" t="n">
-        <v>168.8937072753906</v>
+        <v>264.3051452636719</v>
       </c>
       <c r="CF3" t="n">
-        <v>169.0193786621094</v>
+        <v>264.2901306152344</v>
       </c>
       <c r="CG3" t="n">
-        <v>169.1330871582031</v>
+        <v>264.3205261230469</v>
       </c>
       <c r="CH3" t="n">
-        <v>169.25830078125</v>
+        <v>264.3471984863281</v>
       </c>
       <c r="CI3" t="n">
-        <v>169.4015045166016</v>
+        <v>264.3822631835938</v>
       </c>
       <c r="CJ3" t="n">
-        <v>169.5438232421875</v>
+        <v>264.4107360839844</v>
       </c>
       <c r="CK3" t="n">
-        <v>169.655029296875</v>
+        <v>264.4270324707031</v>
       </c>
       <c r="CL3" t="n">
-        <v>169.8095703125</v>
+        <v>264.4358215332031</v>
       </c>
       <c r="CM3" t="n">
-        <v>169.9866485595703</v>
+        <v>264.5785217285156</v>
       </c>
       <c r="CN3" t="n">
-        <v>170.1962738037109</v>
+        <v>264.5679016113281</v>
       </c>
       <c r="CO3" t="n">
-        <v>170.1826934814453</v>
+        <v>264.5634460449219</v>
       </c>
       <c r="CP3" t="n">
-        <v>170.2591705322266</v>
+        <v>264.7577514648438</v>
       </c>
       <c r="CQ3" t="n">
-        <v>170.2823486328125</v>
+        <v>265.0776062011719</v>
       </c>
       <c r="CR3" t="n">
-        <v>170.3078308105469</v>
+        <v>265.5743103027344</v>
       </c>
       <c r="CS3" t="n">
-        <v>170.3216400146484</v>
+        <v>265.3262634277344</v>
       </c>
       <c r="CT3" t="n">
-        <v>170.3379974365234</v>
+        <v>265.0951538085938</v>
       </c>
       <c r="CU3" t="n">
-        <v>170.3681030273438</v>
+        <v>264.9256896972656</v>
       </c>
       <c r="CV3" t="n">
-        <v>170.3956909179688</v>
+        <v>264.7651672363281</v>
       </c>
       <c r="CW3" t="n">
-        <v>170.4369506835938</v>
+        <v>264.6059875488281</v>
       </c>
       <c r="CX3" t="n">
-        <v>170.5705718994141</v>
+        <v>264.4480285644531</v>
       </c>
       <c r="CY3" t="n">
-        <v>171.0139923095703</v>
+        <v>264.3992614746094</v>
       </c>
       <c r="CZ3" t="n">
-        <v>171.5340576171875</v>
+        <v>264.3932189941406</v>
       </c>
       <c r="DA3" t="n">
-        <v>171.9602661132812</v>
+        <v>264.3852844238281</v>
       </c>
       <c r="DB3" t="n">
-        <v>172.3410491943359</v>
+        <v>264.3694763183594</v>
       </c>
       <c r="DC3" t="n">
-        <v>172.5422821044922</v>
+        <v>264.3667602539062</v>
       </c>
       <c r="DD3" t="n">
-        <v>172.0177307128906</v>
+        <v>264.3805236816406</v>
       </c>
       <c r="DE3" t="n">
-        <v>170.7161102294922</v>
+        <v>264.4194641113281</v>
       </c>
       <c r="DF3" t="n">
-        <v>170.5785675048828</v>
+        <v>264.3996276855469</v>
       </c>
       <c r="DG3" t="n">
-        <v>169.8921966552734</v>
+        <v>264.3867797851562</v>
       </c>
       <c r="DH3" t="n">
-        <v>169.1080932617188</v>
+        <v>264.3612976074219</v>
       </c>
       <c r="DI3" t="n">
-        <v>168.1055755615234</v>
+        <v>264.3216552734375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>167.5150451660156</v>
+        <v>264.2868347167969</v>
       </c>
       <c r="DK3" t="n">
-        <v>166.8220825195312</v>
+        <v>264.232666015625</v>
       </c>
       <c r="DL3" t="n">
-        <v>168.0220489501953</v>
+        <v>264.2281188964844</v>
       </c>
       <c r="DM3" t="n">
-        <v>167.4027862548828</v>
+        <v>264.1791076660156</v>
       </c>
       <c r="DN3" t="n">
-        <v>169.8928680419922</v>
+        <v>264.063720703125</v>
       </c>
       <c r="DO3" t="n">
-        <v>171.8088226318359</v>
+        <v>264.0222778320312</v>
       </c>
       <c r="DP3" t="n">
-        <v>170.7370300292969</v>
+        <v>263.9771118164062</v>
       </c>
       <c r="DQ3" t="n">
-        <v>170.0820617675781</v>
+        <v>263.9404907226562</v>
       </c>
       <c r="DR3" t="n">
-        <v>169.7971343994141</v>
+        <v>263.9036560058594</v>
       </c>
       <c r="DS3" t="n">
-        <v>169.2751922607422</v>
+        <v>263.9328918457031</v>
       </c>
       <c r="DT3" t="n">
-        <v>169.5649108886719</v>
+        <v>263.93359375</v>
       </c>
       <c r="DU3" t="n">
-        <v>169.8086090087891</v>
+        <v>263.9281311035156</v>
       </c>
       <c r="DV3" t="n">
-        <v>169.5755767822266</v>
+        <v>264.0086669921875</v>
       </c>
       <c r="DW3" t="n">
-        <v>167.7109832763672</v>
+        <v>264.0606079101562</v>
       </c>
       <c r="DX3" t="n">
-        <v>167.0704040527344</v>
+        <v>264.1314392089844</v>
       </c>
       <c r="DY3" t="n">
-        <v>166.7021942138672</v>
+        <v>264.238525390625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>167.5627593994141</v>
+        <v>264.3069458007812</v>
       </c>
       <c r="EA3" t="n">
-        <v>167.8537139892578</v>
+        <v>264.4245300292969</v>
       </c>
       <c r="EB3" t="n">
-        <v>168.2821655273438</v>
+        <v>264.4821166992188</v>
       </c>
       <c r="EC3" t="n">
-        <v>168.4906768798828</v>
+        <v>264.5364379882812</v>
       </c>
       <c r="ED3" t="n">
-        <v>168.2281494140625</v>
+        <v>264.627685546875</v>
       </c>
       <c r="EE3" t="n">
-        <v>168.0269927978516</v>
+        <v>264.6807861328125</v>
       </c>
       <c r="EF3" t="n">
-        <v>167.8284454345703</v>
+        <v>264.8491821289062</v>
       </c>
       <c r="EG3" t="n">
-        <v>168.6531677246094</v>
+        <v>264.9288635253906</v>
       </c>
       <c r="EH3" t="n">
-        <v>171.1772155761719</v>
+        <v>265.0378112792969</v>
       </c>
       <c r="EI3" t="n">
-        <v>169.4742889404297</v>
+        <v>265.0039978027344</v>
       </c>
       <c r="EJ3" t="n">
-        <v>165.9477844238281</v>
+        <v>264.9271240234375</v>
       </c>
       <c r="EK3" t="n">
-        <v>166.5860443115234</v>
+        <v>265.1948547363281</v>
       </c>
       <c r="EL3" t="n">
-        <v>169.1684417724609</v>
+        <v>265.4427795410156</v>
       </c>
       <c r="EM3" t="n">
-        <v>166.4273223876953</v>
+        <v>265.0160522460938</v>
       </c>
       <c r="EN3" t="n">
-        <v>165.7606811523438</v>
+        <v>264.8479919433594</v>
       </c>
       <c r="EO3" t="n">
-        <v>167.7599182128906</v>
+        <v>264.4350891113281</v>
       </c>
       <c r="EP3" t="n">
-        <v>168.6721954345703</v>
+        <v>264.5147705078125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>169.8744354248047</v>
+        <v>264.4519958496094</v>
       </c>
       <c r="ER3" t="n">
-        <v>168.8916168212891</v>
+        <v>264.481201171875</v>
       </c>
       <c r="ES3" t="n">
-        <v>167.1739807128906</v>
+        <v>264.50732421875</v>
       </c>
       <c r="ET3" t="n">
-        <v>166.8727416992188</v>
+        <v>264.5846862792969</v>
       </c>
       <c r="EU3" t="n">
-        <v>168.1321716308594</v>
+        <v>264.7113952636719</v>
       </c>
       <c r="EV3" t="n">
-        <v>165.3909454345703</v>
+        <v>264.8067932128906</v>
       </c>
       <c r="EW3" t="n">
-        <v>163.0684204101562</v>
+        <v>264.7559204101562</v>
       </c>
       <c r="EX3" t="n">
-        <v>160.0595092773438</v>
+        <v>264.6355285644531</v>
       </c>
       <c r="EY3" t="n">
-        <v>156.801025390625</v>
+        <v>264.5856323242188</v>
       </c>
       <c r="EZ3" t="n">
-        <v>151.0288238525391</v>
+        <v>264.5247497558594</v>
       </c>
       <c r="FA3" t="n">
-        <v>147.4086608886719</v>
+        <v>264.4131774902344</v>
       </c>
       <c r="FB3" t="n">
-        <v>145.2747955322266</v>
+        <v>264.3671875</v>
       </c>
       <c r="FC3" t="n">
-        <v>144.0532836914062</v>
+        <v>264.3733520507812</v>
       </c>
       <c r="FD3" t="n">
-        <v>145.22509765625</v>
+        <v>264.4000549316406</v>
       </c>
       <c r="FE3" t="n">
-        <v>148.9380035400391</v>
+        <v>264.4193115234375</v>
       </c>
       <c r="FF3" t="n">
-        <v>158.8301391601562</v>
+        <v>264.4407653808594</v>
       </c>
       <c r="FG3" t="n">
-        <v>162.6628112792969</v>
+        <v>264.5151672363281</v>
       </c>
       <c r="FH3" t="n">
-        <v>172.8778533935547</v>
+        <v>264.5607299804688</v>
       </c>
       <c r="FI3" t="n">
-        <v>180.0620727539062</v>
+        <v>264.6056518554688</v>
       </c>
       <c r="FJ3" t="n">
-        <v>193.9696350097656</v>
+        <v>264.6185607910156</v>
       </c>
       <c r="FK3" t="n">
-        <v>203.1691284179688</v>
+        <v>264.6177673339844</v>
       </c>
       <c r="FL3" t="n">
-        <v>223.5478515625</v>
+        <v>264.5359191894531</v>
       </c>
       <c r="FM3" t="n">
-        <v>227.0729217529297</v>
+        <v>264.4049072265625</v>
       </c>
       <c r="FN3" t="n">
-        <v>231.9669036865234</v>
+        <v>264.2117614746094</v>
       </c>
       <c r="FO3" t="n">
-        <v>249.9825134277344</v>
+        <v>264.1819763183594</v>
       </c>
       <c r="FP3" t="n">
-        <v>261.2783508300781</v>
+        <v>264.2430725097656</v>
       </c>
       <c r="FQ3" t="n">
-        <v>267.2503051757812</v>
+        <v>264.296875</v>
       </c>
       <c r="FR3" t="n">
-        <v>267.6621704101562</v>
+        <v>264.4220886230469</v>
       </c>
       <c r="FS3" t="n">
-        <v>261.7135009765625</v>
+        <v>264.4805603027344</v>
       </c>
       <c r="FT3" t="n">
-        <v>257.6322631835938</v>
+        <v>264.5679016113281</v>
       </c>
       <c r="FU3" t="n">
-        <v>257.7405090332031</v>
+        <v>264.5753173828125</v>
       </c>
       <c r="FV3" t="n">
-        <v>256.894775390625</v>
+        <v>264.5699462890625</v>
       </c>
       <c r="FW3" t="n">
-        <v>259.7348327636719</v>
+        <v>264.5407104492188</v>
       </c>
       <c r="FX3" t="n">
-        <v>267.3932495117188</v>
+        <v>264.4678039550781</v>
       </c>
       <c r="FY3" t="n">
-        <v>268.1610107421875</v>
+        <v>264.4273986816406</v>
       </c>
       <c r="FZ3" t="n">
-        <v>268.3160400390625</v>
+        <v>264.4586791992188</v>
       </c>
       <c r="GA3" t="n">
-        <v>269.8975830078125</v>
+        <v>264.5167846679688</v>
       </c>
       <c r="GB3" t="n">
-        <v>269.5848388671875</v>
+        <v>264.6120300292969</v>
       </c>
       <c r="GC3" t="n">
-        <v>267.9977111816406</v>
+        <v>264.686767578125</v>
       </c>
       <c r="GD3" t="n">
-        <v>268.3092041015625</v>
+        <v>264.7127075195312</v>
       </c>
       <c r="GE3" t="n">
-        <v>267.9351196289062</v>
+        <v>264.7530517578125</v>
       </c>
       <c r="GF3" t="n">
-        <v>268.8330688476562</v>
+        <v>264.7961730957031</v>
       </c>
       <c r="GG3" t="n">
-        <v>267.6447143554688</v>
+        <v>264.70361328125</v>
       </c>
       <c r="GH3" t="n">
-        <v>271.0469360351562</v>
+        <v>264.48291015625</v>
       </c>
       <c r="GI3" t="n">
-        <v>284.9081115722656</v>
+        <v>264.4373474121094</v>
       </c>
       <c r="GJ3" t="n">
-        <v>287.4378662109375</v>
+        <v>264.2507934570312</v>
       </c>
       <c r="GK3" t="n">
-        <v>295.6581726074219</v>
+        <v>263.9545288085938</v>
       </c>
       <c r="GL3" t="n">
-        <v>308.8061218261719</v>
+        <v>263.8200378417969</v>
       </c>
       <c r="GM3" t="n">
-        <v>308.8540649414062</v>
+        <v>263.984130859375</v>
       </c>
       <c r="GN3" t="n">
-        <v>298.9661254882812</v>
+        <v>264.0466003417969</v>
       </c>
       <c r="GO3" t="n">
-        <v>290.4455261230469</v>
+        <v>264.2051086425781</v>
       </c>
       <c r="GP3" t="n">
-        <v>283.0667114257812</v>
+        <v>264.36669921875</v>
       </c>
       <c r="GQ3" t="n">
-        <v>270.8990173339844</v>
+        <v>264.5167541503906</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>264.5957336425781</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>264.7638549804688</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>264.9247131347656</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>265.1122131347656</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>265.2009887695312</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>265.2610778808594</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>265.3091430664062</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>265.3515319824219</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>265.3683776855469</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>265.3851013183594</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>265.3950805664062</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>265.4037475585938</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>265.3590393066406</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>264.8292236328125</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>264.3939208984375</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>263.9306335449219</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>263.9965515136719</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>264.065673828125</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>264.2117919921875</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>264.1738586425781</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>264.13134765625</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>264.1428833007812</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>264.1661376953125</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>264.1480102539062</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>264.0347900390625</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>263.933837890625</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>263.9162902832031</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>263.9284057617188</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>263.9957275390625</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>264.0857238769531</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>264.2921142578125</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>264.4644470214844</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>264.6060791015625</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>264.9437866210938</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>265.3052673339844</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>265.4116516113281</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>265.51220703125</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>265.5630798339844</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>265.5979919433594</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>265.62158203125</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>265.6678771972656</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>265.6651916503906</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>265.6688537597656</v>
+      </c>
+      <c r="II3" t="n">
+        <v>265.6757202148438</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>265.6806335449219</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>265.66943359375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>265.625244140625</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>265.0776672363281</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>264.0478515625</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>264.1907958984375</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>264.0983276367188</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>264.1352233886719</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>264.3748168945312</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>264.5680541992188</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>264.7328186035156</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>264.8210144042969</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>264.7100830078125</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>264.353271484375</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>264.0263366699219</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>264.0742492675781</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>264.36328125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>264.6410522460938</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>264.6899719238281</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>264.8262329101562</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>265</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>265.09375</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>265.1466979980469</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>265.1664123535156</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>265.1409606933594</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>265.0399780273438</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>264.9592895507812</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>264.771728515625</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>264.5789489746094</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>264.4772338867188</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>264.3871154785156</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>264.3488159179688</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>264.3527221679688</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>263.9223327636719</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>263.0662536621094</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>263.402099609375</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>263.3272705078125</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>263.3476867675781</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>263.472412109375</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>263.6628112792969</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>264.3454895019531</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>264.4189453125</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>264.6131286621094</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>265.4776611328125</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>265.3873291015625</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>265.1383056640625</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>264.3092041015625</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>263.9076538085938</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>263.5274353027344</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>263.5708618164062</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>263.4961547851562</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>262.1427307128906</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>261.0525817871094</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>261.2296142578125</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>261.3667297363281</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>262.2958068847656</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>262.000732421875</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>250.6774597167969</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>246.3000335693359</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>244.0861968994141</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>239.8900604248047</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>230.031494140625</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>227.1236572265625</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>224.1784820556641</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>223.3120574951172</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>222.2978210449219</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>217.9581909179688</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>210.0261688232422</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>203.3512878417969</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>198.0902099609375</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>196.0435943603516</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>194.3668212890625</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>192.4159393310547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1177.0029296875</v>
+        <v>901.5302124023438</v>
       </c>
       <c r="B4" t="n">
-        <v>1158.0146484375</v>
+        <v>926.4788818359375</v>
       </c>
       <c r="C4" t="n">
-        <v>1157.446533203125</v>
+        <v>948.9639892578125</v>
       </c>
       <c r="D4" t="n">
-        <v>1145.349975585938</v>
+        <v>968.8107299804688</v>
       </c>
       <c r="E4" t="n">
-        <v>1134.459350585938</v>
+        <v>993.39306640625</v>
       </c>
       <c r="F4" t="n">
-        <v>1122.263427734375</v>
+        <v>1023.081848144531</v>
       </c>
       <c r="G4" t="n">
-        <v>1114.16064453125</v>
+        <v>1054.4658203125</v>
       </c>
       <c r="H4" t="n">
-        <v>1104.729858398438</v>
+        <v>1096.105834960938</v>
       </c>
       <c r="I4" t="n">
-        <v>1104.7333984375</v>
+        <v>1136.473754882812</v>
       </c>
       <c r="J4" t="n">
-        <v>1103.087646484375</v>
+        <v>1181.03564453125</v>
       </c>
       <c r="K4" t="n">
-        <v>1100.5517578125</v>
+        <v>1218.816650390625</v>
       </c>
       <c r="L4" t="n">
-        <v>1097.77099609375</v>
+        <v>1258.734375</v>
       </c>
       <c r="M4" t="n">
-        <v>1106.705810546875</v>
+        <v>1299.862670898438</v>
       </c>
       <c r="N4" t="n">
-        <v>1126.740356445312</v>
+        <v>1331.829833984375</v>
       </c>
       <c r="O4" t="n">
-        <v>1142.266479492188</v>
+        <v>1372.1025390625</v>
       </c>
       <c r="P4" t="n">
-        <v>1163.314453125</v>
+        <v>1401.5185546875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1171.550048828125</v>
+        <v>1431.054931640625</v>
       </c>
       <c r="R4" t="n">
-        <v>1189.888916015625</v>
+        <v>1462.3115234375</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.363891601562</v>
+        <v>1487.969970703125</v>
       </c>
       <c r="T4" t="n">
-        <v>1219.162719726562</v>
+        <v>1515.952758789062</v>
       </c>
       <c r="U4" t="n">
-        <v>1229.656127929688</v>
+        <v>1545.094970703125</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.457641601562</v>
+        <v>1572.412719726562</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.317016601562</v>
+        <v>1601.006713867188</v>
       </c>
       <c r="X4" t="n">
-        <v>1267.000122070312</v>
+        <v>1627.64453125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1277.312744140625</v>
+        <v>1667.779296875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1287.602905273438</v>
+        <v>1691.91064453125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1294.488525390625</v>
+        <v>1723.355590820312</v>
       </c>
       <c r="AB4" t="n">
-        <v>1301.509399414062</v>
+        <v>1746.162963867188</v>
       </c>
       <c r="AC4" t="n">
-        <v>1302.009155273438</v>
+        <v>1792.731201171875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1303.50341796875</v>
+        <v>1821.722412109375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1305.507568359375</v>
+        <v>1840.924438476562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1305.372924804688</v>
+        <v>1866.39013671875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1305.25390625</v>
+        <v>1883.104858398438</v>
       </c>
       <c r="AH4" t="n">
-        <v>1304.988037109375</v>
+        <v>1919.711059570312</v>
       </c>
       <c r="AI4" t="n">
-        <v>1304.300048828125</v>
+        <v>1943.411743164062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1302.677124023438</v>
+        <v>1956.752197265625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1294.760375976562</v>
+        <v>1976.39697265625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1280.794677734375</v>
+        <v>1993.984497070312</v>
       </c>
       <c r="AM4" t="n">
-        <v>1268.95166015625</v>
+        <v>2004.740112304688</v>
       </c>
       <c r="AN4" t="n">
-        <v>1261.451782226562</v>
+        <v>2010.64111328125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1256.2412109375</v>
+        <v>2018.29150390625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1253.511352539062</v>
+        <v>2026.693603515625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1248.369506835938</v>
+        <v>2032.407348632812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1247.116577148438</v>
+        <v>2036.82373046875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1240.795776367188</v>
+        <v>2046.268188476562</v>
       </c>
       <c r="AT4" t="n">
-        <v>1230.332397460938</v>
+        <v>2054.461669921875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1229.5146484375</v>
+        <v>2056.20849609375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1227.336547851562</v>
+        <v>2057.609619140625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1225.9267578125</v>
+        <v>2059.04248046875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1226.118896484375</v>
+        <v>2061.035400390625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1227.912719726562</v>
+        <v>2072.5712890625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1228.64111328125</v>
+        <v>2082.569091796875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1237.439575195312</v>
+        <v>2089.0537109375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1245.70654296875</v>
+        <v>2096.697509765625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1247.04931640625</v>
+        <v>2099.07470703125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1255.79833984375</v>
+        <v>2107.14697265625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1267.6650390625</v>
+        <v>2105.82080078125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1275.904663085938</v>
+        <v>2107.08349609375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1289.38330078125</v>
+        <v>2111.234130859375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1294.372924804688</v>
+        <v>2115.68896484375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1301.693115234375</v>
+        <v>2125.38525390625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1304.682739257812</v>
+        <v>2140.029052734375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1312.709716796875</v>
+        <v>2132.6416015625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1314.0595703125</v>
+        <v>2134.89794921875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1318.377807617188</v>
+        <v>2135.25439453125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1321.740234375</v>
+        <v>2135.57568359375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1322.904174804688</v>
+        <v>2135.109619140625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1323.962768554688</v>
+        <v>2135.234130859375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1324.857421875</v>
+        <v>2135.317138671875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1326.016479492188</v>
+        <v>2135.380126953125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1327.547729492188</v>
+        <v>2135.38134765625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1329.101440429688</v>
+        <v>2135.385009765625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1331.373657226562</v>
+        <v>2135.446533203125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1334.860595703125</v>
+        <v>2135.517822265625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1336.151123046875</v>
+        <v>2135.577880859375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1338.352416992188</v>
+        <v>2135.648681640625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1340.3408203125</v>
+        <v>2135.712646484375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1342.748657226562</v>
+        <v>2135.7578125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1346.185180664062</v>
+        <v>2136.0625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1349.101440429688</v>
+        <v>2136.273193359375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1352.394287109375</v>
+        <v>2136.462646484375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1351.63427734375</v>
+        <v>2136.599609375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1351.6787109375</v>
+        <v>2136.7275390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1351.7265625</v>
+        <v>2136.656494140625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1351.722900390625</v>
+        <v>2136.651611328125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1351.733520507812</v>
+        <v>2136.660400390625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1351.742919921875</v>
+        <v>2136.65966796875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1352.414916992188</v>
+        <v>2136.665283203125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1353.125122070312</v>
+        <v>2136.6875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1354.523681640625</v>
+        <v>2136.712158203125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1355.255859375</v>
+        <v>2136.77783203125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1355.945922851562</v>
+        <v>2136.8134765625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1356.705444335938</v>
+        <v>2136.804931640625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1357.448852539062</v>
+        <v>2135.183349609375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1358.264282226562</v>
+        <v>2135.060546875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1359.97021484375</v>
+        <v>2134.86669921875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1360.844970703125</v>
+        <v>2143.074951171875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1361.701782226562</v>
+        <v>2147.971923828125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1362.609741210938</v>
+        <v>2149.38427734375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1363.370483398438</v>
+        <v>2151.084716796875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1364.222290039062</v>
+        <v>2153.810302734375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1364.957763671875</v>
+        <v>2152.533935546875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1365.571166992188</v>
+        <v>2151.886962890625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1366.4638671875</v>
+        <v>2149.168701171875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1366.367431640625</v>
+        <v>2146.544921875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1366.21240234375</v>
+        <v>2146.9755859375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1366.020751953125</v>
+        <v>2145.88818359375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1365.781127929688</v>
+        <v>2145.54541015625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1365.508422851562</v>
+        <v>2147.442626953125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1364.239868164062</v>
+        <v>2147.29052734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1362.733032226562</v>
+        <v>2147.409912109375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1355.95654296875</v>
+        <v>2147.53271484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1344.20361328125</v>
+        <v>2147.66943359375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1334.839233398438</v>
+        <v>2147.7890625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1335.439453125</v>
+        <v>2148.198486328125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1324.24658203125</v>
+        <v>2147.872314453125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1319.312744140625</v>
+        <v>2147.732177734375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1309.558471679688</v>
+        <v>2147.40869140625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1304.630615234375</v>
+        <v>2147.111328125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1297.207153320312</v>
+        <v>2146.79150390625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1296.681640625</v>
+        <v>2146.34326171875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1296.323852539062</v>
+        <v>2145.939208984375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1295.272705078125</v>
+        <v>2138.875244140625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1294.433837890625</v>
+        <v>2133.397705078125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1293.72900390625</v>
+        <v>2136.359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1292.574096679688</v>
+        <v>2135.0576171875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1287.701171875</v>
+        <v>2134.87451171875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1286.372192382812</v>
+        <v>2134.942626953125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1284.424560546875</v>
+        <v>2135.058837890625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1278.946899414062</v>
+        <v>2135.1396484375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1275.154418945312</v>
+        <v>2135.349609375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1264.574584960938</v>
+        <v>2135.441650390625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1260.912841796875</v>
+        <v>2135.605224609375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1245.24267578125</v>
+        <v>2135.943115234375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1235.7607421875</v>
+        <v>2136.0966796875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1225.815063476562</v>
+        <v>2136.143310546875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1202.513671875</v>
+        <v>2136.27197265625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1196.567138671875</v>
+        <v>2136.419921875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1168.170166015625</v>
+        <v>2136.608642578125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1144.373168945312</v>
+        <v>2136.57666015625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1110.573852539062</v>
+        <v>2136.22412109375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1097.567016601562</v>
+        <v>2135.951904296875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1062.6962890625</v>
+        <v>2140.626953125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1051.495971679688</v>
+        <v>2144.26611328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1012.285095214844</v>
+        <v>2147.927978515625</v>
       </c>
       <c r="EP4" t="n">
-        <v>999.3572998046875</v>
+        <v>2143.952880859375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>976.3551025390625</v>
+        <v>2144.068115234375</v>
       </c>
       <c r="ER4" t="n">
-        <v>970.8380737304688</v>
+        <v>2143.232177734375</v>
       </c>
       <c r="ES4" t="n">
-        <v>947.2999267578125</v>
+        <v>2143.31494140625</v>
       </c>
       <c r="ET4" t="n">
-        <v>937.147705078125</v>
+        <v>2141.2099609375</v>
       </c>
       <c r="EU4" t="n">
-        <v>927.428955078125</v>
+        <v>2140.3701171875</v>
       </c>
       <c r="EV4" t="n">
-        <v>893.1602172851562</v>
+        <v>2139.653076171875</v>
       </c>
       <c r="EW4" t="n">
-        <v>859.489013671875</v>
+        <v>2137.22314453125</v>
       </c>
       <c r="EX4" t="n">
-        <v>835.1312255859375</v>
+        <v>2137.680908203125</v>
       </c>
       <c r="EY4" t="n">
-        <v>797.85888671875</v>
+        <v>2138.703857421875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>755.9697875976562</v>
+        <v>2139.501953125</v>
       </c>
       <c r="FA4" t="n">
-        <v>735.7011108398438</v>
+        <v>2136.111083984375</v>
       </c>
       <c r="FB4" t="n">
-        <v>715.9004516601562</v>
+        <v>2135.04150390625</v>
       </c>
       <c r="FC4" t="n">
-        <v>686.3206176757812</v>
+        <v>2130.60595703125</v>
       </c>
       <c r="FD4" t="n">
-        <v>665.9314575195312</v>
+        <v>2131.302490234375</v>
       </c>
       <c r="FE4" t="n">
-        <v>660.8026733398438</v>
+        <v>2130.531005859375</v>
       </c>
       <c r="FF4" t="n">
-        <v>655.6831665039062</v>
+        <v>2129.92626953125</v>
       </c>
       <c r="FG4" t="n">
-        <v>655.8640747070312</v>
+        <v>2128.9267578125</v>
       </c>
       <c r="FH4" t="n">
-        <v>657.283935546875</v>
+        <v>2128.8671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>660.04833984375</v>
+        <v>2128.834228515625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>659.7029418945312</v>
+        <v>2128.84375</v>
       </c>
       <c r="FK4" t="n">
-        <v>652.6754760742188</v>
+        <v>2128.86376953125</v>
       </c>
       <c r="FL4" t="n">
-        <v>654.3402099609375</v>
+        <v>2128.977783203125</v>
       </c>
       <c r="FM4" t="n">
-        <v>655.778564453125</v>
+        <v>2129.125244140625</v>
       </c>
       <c r="FN4" t="n">
-        <v>657.0497436523438</v>
+        <v>2129.33349609375</v>
       </c>
       <c r="FO4" t="n">
-        <v>669.9322509765625</v>
+        <v>2129.374267578125</v>
       </c>
       <c r="FP4" t="n">
-        <v>683.7252807617188</v>
+        <v>2129.376953125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>696.7645263671875</v>
+        <v>2129.36279296875</v>
       </c>
       <c r="FR4" t="n">
-        <v>726.2661743164062</v>
+        <v>2129.3466796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>730.1426391601562</v>
+        <v>2129.354736328125</v>
       </c>
       <c r="FT4" t="n">
-        <v>745.4669189453125</v>
+        <v>2129.404052734375</v>
       </c>
       <c r="FU4" t="n">
-        <v>775.6398315429688</v>
+        <v>2129.42333984375</v>
       </c>
       <c r="FV4" t="n">
-        <v>789.8067016601562</v>
+        <v>2129.455078125</v>
       </c>
       <c r="FW4" t="n">
-        <v>806.3758544921875</v>
+        <v>2135.7080078125</v>
       </c>
       <c r="FX4" t="n">
-        <v>814.8673095703125</v>
+        <v>2144.793212890625</v>
       </c>
       <c r="FY4" t="n">
-        <v>818.944091796875</v>
+        <v>2148.10400390625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>819.1639404296875</v>
+        <v>2147.425537109375</v>
       </c>
       <c r="GA4" t="n">
-        <v>818.44287109375</v>
+        <v>2146.00732421875</v>
       </c>
       <c r="GB4" t="n">
-        <v>818.2938842773438</v>
+        <v>2135.44775390625</v>
       </c>
       <c r="GC4" t="n">
-        <v>799.50537109375</v>
+        <v>2133.906982421875</v>
       </c>
       <c r="GD4" t="n">
-        <v>771.1466674804688</v>
+        <v>2135.217529296875</v>
       </c>
       <c r="GE4" t="n">
-        <v>755.1444702148438</v>
+        <v>2136.388916015625</v>
       </c>
       <c r="GF4" t="n">
-        <v>736.51611328125</v>
+        <v>2136.382568359375</v>
       </c>
       <c r="GG4" t="n">
-        <v>716.8543701171875</v>
+        <v>2135.982421875</v>
       </c>
       <c r="GH4" t="n">
-        <v>718.7334594726562</v>
+        <v>2135.317138671875</v>
       </c>
       <c r="GI4" t="n">
-        <v>700.1154174804688</v>
+        <v>2132.234375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>667.1430053710938</v>
+        <v>2133.482666015625</v>
       </c>
       <c r="GK4" t="n">
-        <v>691.3169555664062</v>
+        <v>2143.336181640625</v>
       </c>
       <c r="GL4" t="n">
-        <v>683.8621215820312</v>
+        <v>2143.1962890625</v>
       </c>
       <c r="GM4" t="n">
-        <v>671.706298828125</v>
+        <v>2133.1103515625</v>
       </c>
       <c r="GN4" t="n">
-        <v>638.7394409179688</v>
+        <v>2133.626953125</v>
       </c>
       <c r="GO4" t="n">
-        <v>640.4133911132812</v>
+        <v>2132.225341796875</v>
       </c>
       <c r="GP4" t="n">
-        <v>641.503173828125</v>
+        <v>2131.302978515625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>642.79443359375</v>
+        <v>2130.56494140625</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2130.195068359375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2129.501708984375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2129.42138671875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2129.289794921875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2129.141357421875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2128.5087890625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2128.206787109375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2127.857421875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2127.599365234375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2127.71337890625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2127.6884765625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2127.674560546875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2127.656494140625</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2140.853515625</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2142.214111328125</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2136.86865234375</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2135.284423828125</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2134.87060546875</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2127.28564453125</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2127.375732421875</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2128.0302734375</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2128.970947265625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2130.916748046875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2132.76904296875</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2134.894775390625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2137.093994140625</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2138.548583984375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2137.59814453125</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2134.255615234375</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2126.352294921875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2126.361572265625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2126.101318359375</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2125.510986328125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2127.9052734375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2130.296875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2126.42041015625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2124.453369140625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2119.208251953125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2126.139404296875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2126.21875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2126.215576171875</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2126.207763671875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2126.29052734375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2126.294677734375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2126.29541015625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2126.992431640625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2130.697998046875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2136.997314453125</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2137.872314453125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2137.898681640625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2142.4931640625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2139.21337890625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2127.522705078125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2127.573486328125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2127.115234375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2127.80224609375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2127.90625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2128.046875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2128.17626953125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2128.3017578125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2123.152099609375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2116.34228515625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2118.8515625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2116.368408203125</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2114.9677734375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2115.150634765625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2114.9931640625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2115.52685546875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2118.641845703125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2120.592041015625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2119.66845703125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2119.74658203125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2119.719482421875</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2119.7587890625</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2119.81005859375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2119.918212890625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2120.063232421875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2135.456787109375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2131.700927734375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2125.843017578125</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2120.495849609375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2119.1015625</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2120.219970703125</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2111.3369140625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2104.7578125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2095.44970703125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2084.304931640625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2075.191650390625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2071.686279296875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2060.508544921875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2041.758422851562</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2036.47119140625</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2026.825439453125</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2008.361572265625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1989.966552734375</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1978.43310546875</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1937.975708007812</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1881.781494140625</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1832.135864257812</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1761.26318359375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1698.388305664062</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1617.522827148438</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1569.337280273438</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1517.2109375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1457.88818359375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1373.908203125</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1310.652954101562</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1218.400512695312</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1148.637939453125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1075.286010742188</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>988.455078125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>934.4595336914062</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>891.6973266601562</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>832.251708984375</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>811.7999267578125</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>799.6751098632812</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>786.21142578125</v>
       </c>
     </row>
   </sheetData>

--- a/left_shoulder_Data.xlsx
+++ b/left_shoulder_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>407.8650512695312</v>
+        <v>390.346435546875</v>
       </c>
       <c r="B2" t="n">
-        <v>398.0825500488281</v>
+        <v>386.4982604980469</v>
       </c>
       <c r="C2" t="n">
-        <v>393.0549926757812</v>
+        <v>384.1527099609375</v>
       </c>
       <c r="D2" t="n">
-        <v>389.9847412109375</v>
+        <v>379.026123046875</v>
       </c>
       <c r="E2" t="n">
-        <v>386.9508056640625</v>
+        <v>374.7938537597656</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0415649414062</v>
+        <v>368.417236328125</v>
       </c>
       <c r="G2" t="n">
-        <v>383.8699035644531</v>
+        <v>362.8479614257812</v>
       </c>
       <c r="H2" t="n">
-        <v>382.0964050292969</v>
+        <v>358.0882568359375</v>
       </c>
       <c r="I2" t="n">
-        <v>380.37744140625</v>
+        <v>354.03662109375</v>
       </c>
       <c r="J2" t="n">
-        <v>378.4483337402344</v>
+        <v>351.4072265625</v>
       </c>
       <c r="K2" t="n">
-        <v>376.71240234375</v>
+        <v>349.1341552734375</v>
       </c>
       <c r="L2" t="n">
-        <v>376.8279418945312</v>
+        <v>347.9501342773438</v>
       </c>
       <c r="M2" t="n">
-        <v>375.9276733398438</v>
+        <v>346.5180969238281</v>
       </c>
       <c r="N2" t="n">
-        <v>376.6332397460938</v>
+        <v>345.3217163085938</v>
       </c>
       <c r="O2" t="n">
-        <v>376.2941284179688</v>
+        <v>344.6260070800781</v>
       </c>
       <c r="P2" t="n">
-        <v>376.2073974609375</v>
+        <v>343.080810546875</v>
       </c>
       <c r="Q2" t="n">
-        <v>375.4744873046875</v>
+        <v>342.0790405273438</v>
       </c>
       <c r="R2" t="n">
-        <v>374.5116577148438</v>
+        <v>341.755615234375</v>
       </c>
       <c r="S2" t="n">
-        <v>373.7174072265625</v>
+        <v>341.520751953125</v>
       </c>
       <c r="T2" t="n">
-        <v>372.9861145019531</v>
+        <v>341.5808715820312</v>
       </c>
       <c r="U2" t="n">
-        <v>372.0073852539062</v>
+        <v>342.8316040039062</v>
       </c>
       <c r="V2" t="n">
-        <v>370.803466796875</v>
+        <v>344.152099609375</v>
       </c>
       <c r="W2" t="n">
-        <v>369.196044921875</v>
+        <v>345.006103515625</v>
       </c>
       <c r="X2" t="n">
-        <v>367.3214721679688</v>
+        <v>346.6355590820312</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.2908325195312</v>
+        <v>347.6206970214844</v>
       </c>
       <c r="Z2" t="n">
-        <v>362.5093994140625</v>
+        <v>348.6129760742188</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.8971557617188</v>
+        <v>349.9620971679688</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.3702392578125</v>
+        <v>350.5526428222656</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.5977172851562</v>
+        <v>350.8626708984375</v>
       </c>
       <c r="AD2" t="n">
-        <v>354.908203125</v>
+        <v>351.113037109375</v>
       </c>
       <c r="AE2" t="n">
-        <v>353.4410095214844</v>
+        <v>351.4725036621094</v>
       </c>
       <c r="AF2" t="n">
-        <v>352.123046875</v>
+        <v>351.4742736816406</v>
       </c>
       <c r="AG2" t="n">
-        <v>351.46484375</v>
+        <v>352.1118469238281</v>
       </c>
       <c r="AH2" t="n">
-        <v>350.7802734375</v>
+        <v>351.7321166992188</v>
       </c>
       <c r="AI2" t="n">
-        <v>350.33544921875</v>
+        <v>351.080322265625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>349.7754516601562</v>
+        <v>351.2117004394531</v>
       </c>
       <c r="AK2" t="n">
-        <v>349.3976440429688</v>
+        <v>350.943115234375</v>
       </c>
       <c r="AL2" t="n">
-        <v>349.1602783203125</v>
+        <v>351.1021118164062</v>
       </c>
       <c r="AM2" t="n">
-        <v>348.98583984375</v>
+        <v>350.5883178710938</v>
       </c>
       <c r="AN2" t="n">
-        <v>349.0164794921875</v>
+        <v>350.16455078125</v>
       </c>
       <c r="AO2" t="n">
-        <v>349.0285949707031</v>
+        <v>349.0574340820312</v>
       </c>
       <c r="AP2" t="n">
-        <v>349.541259765625</v>
+        <v>346.8948364257812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>350.5896606445312</v>
+        <v>345.725341796875</v>
       </c>
       <c r="AR2" t="n">
-        <v>351.8937377929688</v>
+        <v>344.0843505859375</v>
       </c>
       <c r="AS2" t="n">
-        <v>353.1336975097656</v>
+        <v>343.1514892578125</v>
       </c>
       <c r="AT2" t="n">
-        <v>354.4309692382812</v>
+        <v>340.7031555175781</v>
       </c>
       <c r="AU2" t="n">
-        <v>355.3182373046875</v>
+        <v>339.1527709960938</v>
       </c>
       <c r="AV2" t="n">
-        <v>356.1820068359375</v>
+        <v>337.1742553710938</v>
       </c>
       <c r="AW2" t="n">
-        <v>356.67578125</v>
+        <v>336.2545166015625</v>
       </c>
       <c r="AX2" t="n">
-        <v>357.247802734375</v>
+        <v>334.2490234375</v>
       </c>
       <c r="AY2" t="n">
-        <v>357.6949768066406</v>
+        <v>333.9179077148438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>358.0968627929688</v>
+        <v>333.3970642089844</v>
       </c>
       <c r="BA2" t="n">
-        <v>358.2996215820312</v>
+        <v>332.7156982421875</v>
       </c>
       <c r="BB2" t="n">
-        <v>358.4356079101562</v>
+        <v>332.2186889648438</v>
       </c>
       <c r="BC2" t="n">
-        <v>358.4023742675781</v>
+        <v>331.5191650390625</v>
       </c>
       <c r="BD2" t="n">
-        <v>358.3468017578125</v>
+        <v>331.2637634277344</v>
       </c>
       <c r="BE2" t="n">
-        <v>358.2221069335938</v>
+        <v>330.9125061035156</v>
       </c>
       <c r="BF2" t="n">
-        <v>358.0125122070312</v>
+        <v>330.9760131835938</v>
       </c>
       <c r="BG2" t="n">
-        <v>357.6667785644531</v>
+        <v>331.1317443847656</v>
       </c>
       <c r="BH2" t="n">
-        <v>357.3056640625</v>
+        <v>331.2330627441406</v>
       </c>
       <c r="BI2" t="n">
-        <v>356.8636779785156</v>
+        <v>331.6929626464844</v>
       </c>
       <c r="BJ2" t="n">
-        <v>356.2369995117188</v>
+        <v>332.677001953125</v>
       </c>
       <c r="BK2" t="n">
-        <v>355.603759765625</v>
+        <v>333.885498046875</v>
       </c>
       <c r="BL2" t="n">
-        <v>354.8956909179688</v>
+        <v>335.249755859375</v>
       </c>
       <c r="BM2" t="n">
-        <v>354.3779907226562</v>
+        <v>336.4281616210938</v>
       </c>
       <c r="BN2" t="n">
-        <v>354.1605224609375</v>
+        <v>337.8456115722656</v>
       </c>
       <c r="BO2" t="n">
-        <v>353.9990234375</v>
+        <v>339.1528930664062</v>
       </c>
       <c r="BP2" t="n">
-        <v>353.854736328125</v>
+        <v>340.1199951171875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>353.7326049804688</v>
+        <v>340.9144287109375</v>
       </c>
       <c r="BR2" t="n">
-        <v>353.6636962890625</v>
+        <v>341.7969360351562</v>
       </c>
       <c r="BS2" t="n">
-        <v>353.64404296875</v>
+        <v>342.191650390625</v>
       </c>
       <c r="BT2" t="n">
-        <v>353.6422119140625</v>
+        <v>342.36669921875</v>
       </c>
       <c r="BU2" t="n">
-        <v>353.6728515625</v>
+        <v>342.5201721191406</v>
       </c>
       <c r="BV2" t="n">
-        <v>353.6973571777344</v>
+        <v>342.6938171386719</v>
       </c>
       <c r="BW2" t="n">
-        <v>353.7271728515625</v>
+        <v>342.8623046875</v>
       </c>
       <c r="BX2" t="n">
-        <v>353.74169921875</v>
+        <v>342.9602355957031</v>
       </c>
       <c r="BY2" t="n">
-        <v>353.7649230957031</v>
+        <v>343.0099182128906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>353.7820739746094</v>
+        <v>342.6248779296875</v>
       </c>
       <c r="CA2" t="n">
-        <v>353.8179016113281</v>
+        <v>341.7568664550781</v>
       </c>
       <c r="CB2" t="n">
-        <v>353.8042602539062</v>
+        <v>340.3785400390625</v>
       </c>
       <c r="CC2" t="n">
-        <v>353.788330078125</v>
+        <v>339.6690368652344</v>
       </c>
       <c r="CD2" t="n">
-        <v>353.7988891601562</v>
+        <v>338.5639953613281</v>
       </c>
       <c r="CE2" t="n">
-        <v>353.8486328125</v>
+        <v>338.1673583984375</v>
       </c>
       <c r="CF2" t="n">
-        <v>353.8880615234375</v>
+        <v>337.9669799804688</v>
       </c>
       <c r="CG2" t="n">
-        <v>353.8876037597656</v>
+        <v>337.7175598144531</v>
       </c>
       <c r="CH2" t="n">
-        <v>353.8763122558594</v>
+        <v>337.1989135742188</v>
       </c>
       <c r="CI2" t="n">
-        <v>353.8591003417969</v>
+        <v>337.1261291503906</v>
       </c>
       <c r="CJ2" t="n">
-        <v>353.8372192382812</v>
+        <v>337.0302734375</v>
       </c>
       <c r="CK2" t="n">
-        <v>353.8070068359375</v>
+        <v>337.05224609375</v>
       </c>
       <c r="CL2" t="n">
-        <v>353.7782287597656</v>
+        <v>337.0685424804688</v>
       </c>
       <c r="CM2" t="n">
-        <v>353.6705932617188</v>
+        <v>337.0109558105469</v>
       </c>
       <c r="CN2" t="n">
-        <v>353.6771240234375</v>
+        <v>336.9498291015625</v>
       </c>
       <c r="CO2" t="n">
-        <v>353.6854248046875</v>
+        <v>336.8467712402344</v>
       </c>
       <c r="CP2" t="n">
-        <v>353.582275390625</v>
+        <v>336.6637573242188</v>
       </c>
       <c r="CQ2" t="n">
-        <v>353.3583984375</v>
+        <v>336.5618286132812</v>
       </c>
       <c r="CR2" t="n">
-        <v>352.85546875</v>
+        <v>336.389404296875</v>
       </c>
       <c r="CS2" t="n">
-        <v>352.6925048828125</v>
+        <v>336.4035034179688</v>
       </c>
       <c r="CT2" t="n">
-        <v>352.5629272460938</v>
+        <v>336.4064331054688</v>
       </c>
       <c r="CU2" t="n">
-        <v>352.4640502929688</v>
+        <v>336.2440185546875</v>
       </c>
       <c r="CV2" t="n">
-        <v>352.353759765625</v>
+        <v>336.3830261230469</v>
       </c>
       <c r="CW2" t="n">
-        <v>352.22216796875</v>
+        <v>336.2155456542969</v>
       </c>
       <c r="CX2" t="n">
-        <v>352.14892578125</v>
+        <v>336.2118225097656</v>
       </c>
       <c r="CY2" t="n">
-        <v>352.0177001953125</v>
+        <v>336.1502685546875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>351.9180603027344</v>
+        <v>336.1100463867188</v>
       </c>
       <c r="DA2" t="n">
-        <v>351.8338317871094</v>
+        <v>336.0902404785156</v>
       </c>
       <c r="DB2" t="n">
-        <v>351.6757202148438</v>
+        <v>336.0190124511719</v>
       </c>
       <c r="DC2" t="n">
-        <v>351.6062927246094</v>
+        <v>335.9724731445312</v>
       </c>
       <c r="DD2" t="n">
-        <v>351.5417785644531</v>
+        <v>335.8800048828125</v>
       </c>
       <c r="DE2" t="n">
-        <v>351.4833374023438</v>
+        <v>335.8522338867188</v>
       </c>
       <c r="DF2" t="n">
-        <v>351.4491577148438</v>
+        <v>335.6566162109375</v>
       </c>
       <c r="DG2" t="n">
-        <v>351.4191284179688</v>
+        <v>335.6568603515625</v>
       </c>
       <c r="DH2" t="n">
-        <v>351.362060546875</v>
+        <v>335.6902465820312</v>
       </c>
       <c r="DI2" t="n">
-        <v>351.2682495117188</v>
+        <v>335.7912902832031</v>
       </c>
       <c r="DJ2" t="n">
-        <v>351.1819152832031</v>
+        <v>335.8696899414062</v>
       </c>
       <c r="DK2" t="n">
-        <v>351.0381774902344</v>
+        <v>335.8936157226562</v>
       </c>
       <c r="DL2" t="n">
-        <v>350.9510498046875</v>
+        <v>335.8717346191406</v>
       </c>
       <c r="DM2" t="n">
-        <v>350.8661193847656</v>
+        <v>335.92041015625</v>
       </c>
       <c r="DN2" t="n">
-        <v>350.6636047363281</v>
+        <v>336.0009765625</v>
       </c>
       <c r="DO2" t="n">
-        <v>350.5740356445312</v>
+        <v>335.9598999023438</v>
       </c>
       <c r="DP2" t="n">
-        <v>350.4749145507812</v>
+        <v>335.9544067382812</v>
       </c>
       <c r="DQ2" t="n">
-        <v>350.380859375</v>
+        <v>335.9682922363281</v>
       </c>
       <c r="DR2" t="n">
-        <v>350.2889709472656</v>
+        <v>336.0515747070312</v>
       </c>
       <c r="DS2" t="n">
-        <v>350.2689819335938</v>
+        <v>335.8331604003906</v>
       </c>
       <c r="DT2" t="n">
-        <v>350.1748352050781</v>
+        <v>335.8825378417969</v>
       </c>
       <c r="DU2" t="n">
-        <v>350.1505737304688</v>
+        <v>335.9617309570312</v>
       </c>
       <c r="DV2" t="n">
-        <v>350.1104736328125</v>
+        <v>336.0194396972656</v>
       </c>
       <c r="DW2" t="n">
-        <v>350.0982666015625</v>
+        <v>335.8811950683594</v>
       </c>
       <c r="DX2" t="n">
-        <v>350.0900573730469</v>
+        <v>336.0437316894531</v>
       </c>
       <c r="DY2" t="n">
-        <v>350.0628967285156</v>
+        <v>336.0931396484375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>350.0345458984375</v>
+        <v>336.0361022949219</v>
       </c>
       <c r="EA2" t="n">
-        <v>349.9628295898438</v>
+        <v>336.0118408203125</v>
       </c>
       <c r="EB2" t="n">
-        <v>349.9093017578125</v>
+        <v>336.0181274414062</v>
       </c>
       <c r="EC2" t="n">
-        <v>349.8255004882812</v>
+        <v>336.0283813476562</v>
       </c>
       <c r="ED2" t="n">
-        <v>349.6426391601562</v>
+        <v>336.0337524414062</v>
       </c>
       <c r="EE2" t="n">
-        <v>349.5389404296875</v>
+        <v>336.0736694335938</v>
       </c>
       <c r="EF2" t="n">
-        <v>349.3001708984375</v>
+        <v>336.10546875</v>
       </c>
       <c r="EG2" t="n">
-        <v>349.1826782226562</v>
+        <v>336.1627197265625</v>
       </c>
       <c r="EH2" t="n">
-        <v>349.0692443847656</v>
+        <v>336.1654968261719</v>
       </c>
       <c r="EI2" t="n">
-        <v>349.0446472167969</v>
+        <v>336.1809692382812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>349.0765991210938</v>
+        <v>336.0717163085938</v>
       </c>
       <c r="EK2" t="n">
-        <v>348.8656005859375</v>
+        <v>336.1005249023438</v>
       </c>
       <c r="EL2" t="n">
-        <v>348.6896362304688</v>
+        <v>336.1267700195312</v>
       </c>
       <c r="EM2" t="n">
-        <v>348.7759094238281</v>
+        <v>336.1080322265625</v>
       </c>
       <c r="EN2" t="n">
-        <v>348.7540283203125</v>
+        <v>336.1141357421875</v>
       </c>
       <c r="EO2" t="n">
-        <v>348.794677734375</v>
+        <v>336.1139526367188</v>
       </c>
       <c r="EP2" t="n">
-        <v>348.76953125</v>
+        <v>336.1126098632812</v>
       </c>
       <c r="EQ2" t="n">
-        <v>348.6912231445312</v>
+        <v>336.1123046875</v>
       </c>
       <c r="ER2" t="n">
-        <v>348.6316223144531</v>
+        <v>336.1127014160156</v>
       </c>
       <c r="ES2" t="n">
-        <v>348.6119384765625</v>
+        <v>336.1103820800781</v>
       </c>
       <c r="ET2" t="n">
-        <v>348.5882568359375</v>
+        <v>336.0998229980469</v>
       </c>
       <c r="EU2" t="n">
-        <v>348.533447265625</v>
+        <v>336.0392761230469</v>
       </c>
       <c r="EV2" t="n">
-        <v>348.4928894042969</v>
+        <v>336.0545654296875</v>
       </c>
       <c r="EW2" t="n">
-        <v>348.4991760253906</v>
+        <v>336.042236328125</v>
       </c>
       <c r="EX2" t="n">
-        <v>348.5052490234375</v>
+        <v>336.0192260742188</v>
       </c>
       <c r="EY2" t="n">
-        <v>348.5242309570312</v>
+        <v>335.9955444335938</v>
       </c>
       <c r="EZ2" t="n">
-        <v>348.5469055175781</v>
+        <v>335.9760131835938</v>
       </c>
       <c r="FA2" t="n">
-        <v>348.5582885742188</v>
+        <v>335.90576171875</v>
       </c>
       <c r="FB2" t="n">
-        <v>348.5594177246094</v>
+        <v>335.8208618164062</v>
       </c>
       <c r="FC2" t="n">
-        <v>348.50244140625</v>
+        <v>335.7429809570312</v>
       </c>
       <c r="FD2" t="n">
-        <v>348.519775390625</v>
+        <v>335.8135986328125</v>
       </c>
       <c r="FE2" t="n">
-        <v>348.5189208984375</v>
+        <v>335.9136352539062</v>
       </c>
       <c r="FF2" t="n">
-        <v>348.5220031738281</v>
+        <v>335.929931640625</v>
       </c>
       <c r="FG2" t="n">
-        <v>348.5939331054688</v>
+        <v>335.95166015625</v>
       </c>
       <c r="FH2" t="n">
-        <v>348.633056640625</v>
+        <v>335.8580932617188</v>
       </c>
       <c r="FI2" t="n">
-        <v>348.628173828125</v>
+        <v>335.9805908203125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>348.5624389648438</v>
+        <v>336.0317993164062</v>
       </c>
       <c r="FK2" t="n">
-        <v>348.5010070800781</v>
+        <v>336.0417175292969</v>
       </c>
       <c r="FL2" t="n">
-        <v>348.1202697753906</v>
+        <v>336.1321716308594</v>
       </c>
       <c r="FM2" t="n">
-        <v>347.7100219726562</v>
+        <v>336.1814575195312</v>
       </c>
       <c r="FN2" t="n">
-        <v>347.0185852050781</v>
+        <v>336.1796264648438</v>
       </c>
       <c r="FO2" t="n">
-        <v>346.7965393066406</v>
+        <v>336.15380859375</v>
       </c>
       <c r="FP2" t="n">
-        <v>346.6269226074219</v>
+        <v>336.1633605957031</v>
       </c>
       <c r="FQ2" t="n">
-        <v>346.5736389160156</v>
+        <v>336.1633911132812</v>
       </c>
       <c r="FR2" t="n">
-        <v>346.5267944335938</v>
+        <v>336.1574096679688</v>
       </c>
       <c r="FS2" t="n">
-        <v>346.5040893554688</v>
+        <v>336.1484985351562</v>
       </c>
       <c r="FT2" t="n">
-        <v>346.4696655273438</v>
+        <v>336.1309204101562</v>
       </c>
       <c r="FU2" t="n">
-        <v>346.4655151367188</v>
+        <v>336.0315246582031</v>
       </c>
       <c r="FV2" t="n">
-        <v>346.4533081054688</v>
+        <v>336.0455932617188</v>
       </c>
       <c r="FW2" t="n">
-        <v>346.4154357910156</v>
+        <v>336.0962524414062</v>
       </c>
       <c r="FX2" t="n">
-        <v>346.3326721191406</v>
+        <v>336.1046752929688</v>
       </c>
       <c r="FY2" t="n">
-        <v>346.2490539550781</v>
+        <v>336.0712280273438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>346.2800903320312</v>
+        <v>336.0542602539062</v>
       </c>
       <c r="GA2" t="n">
-        <v>346.3499755859375</v>
+        <v>335.9818725585938</v>
       </c>
       <c r="GB2" t="n">
-        <v>346.4091796875</v>
+        <v>336.1072082519531</v>
       </c>
       <c r="GC2" t="n">
-        <v>346.4461669921875</v>
+        <v>336.2308349609375</v>
       </c>
       <c r="GD2" t="n">
-        <v>346.4694213867188</v>
+        <v>336.3741455078125</v>
       </c>
       <c r="GE2" t="n">
-        <v>346.4932556152344</v>
+        <v>336.447509765625</v>
       </c>
       <c r="GF2" t="n">
-        <v>346.4813842773438</v>
+        <v>336.532470703125</v>
       </c>
       <c r="GG2" t="n">
-        <v>346.5391845703125</v>
+        <v>336.5511779785156</v>
       </c>
       <c r="GH2" t="n">
-        <v>346.6668090820312</v>
+        <v>336.5704345703125</v>
       </c>
       <c r="GI2" t="n">
-        <v>346.6708068847656</v>
+        <v>336.5692749023438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>346.7486267089844</v>
+        <v>336.5390319824219</v>
       </c>
       <c r="GK2" t="n">
-        <v>346.8158569335938</v>
+        <v>336.513427734375</v>
       </c>
       <c r="GL2" t="n">
-        <v>346.8352661132812</v>
+        <v>336.4871826171875</v>
       </c>
       <c r="GM2" t="n">
-        <v>346.7119140625</v>
+        <v>336.4716796875</v>
       </c>
       <c r="GN2" t="n">
-        <v>346.6738586425781</v>
+        <v>336.3961791992188</v>
       </c>
       <c r="GO2" t="n">
-        <v>346.5892944335938</v>
+        <v>336.2938842773438</v>
       </c>
       <c r="GP2" t="n">
-        <v>346.5317993164062</v>
+        <v>336.1620483398438</v>
       </c>
       <c r="GQ2" t="n">
-        <v>346.5126953125</v>
+        <v>336.0969848632812</v>
       </c>
       <c r="GR2" t="n">
-        <v>346.491943359375</v>
+        <v>336.0661010742188</v>
       </c>
       <c r="GS2" t="n">
-        <v>346.4291687011719</v>
+        <v>335.9373779296875</v>
       </c>
       <c r="GT2" t="n">
-        <v>346.3953857421875</v>
+        <v>335.8771362304688</v>
       </c>
       <c r="GU2" t="n">
-        <v>346.3833618164062</v>
+        <v>335.8897094726562</v>
       </c>
       <c r="GV2" t="n">
-        <v>346.431640625</v>
+        <v>335.8693237304688</v>
       </c>
       <c r="GW2" t="n">
-        <v>346.4849548339844</v>
+        <v>335.8145751953125</v>
       </c>
       <c r="GX2" t="n">
-        <v>346.5234375</v>
+        <v>335.5897521972656</v>
       </c>
       <c r="GY2" t="n">
-        <v>346.5460815429688</v>
+        <v>335.7885131835938</v>
       </c>
       <c r="GZ2" t="n">
-        <v>346.5748901367188</v>
+        <v>335.8047485351562</v>
       </c>
       <c r="HA2" t="n">
-        <v>346.5964965820312</v>
+        <v>335.7402954101562</v>
       </c>
       <c r="HB2" t="n">
-        <v>346.6044921875</v>
+        <v>335.7099609375</v>
       </c>
       <c r="HC2" t="n">
-        <v>346.6226196289062</v>
+        <v>335.6842346191406</v>
       </c>
       <c r="HD2" t="n">
-        <v>346.6610107421875</v>
+        <v>335.6538391113281</v>
       </c>
       <c r="HE2" t="n">
-        <v>346.7840881347656</v>
+        <v>335.6236572265625</v>
       </c>
       <c r="HF2" t="n">
-        <v>346.9237060546875</v>
+        <v>335.5970764160156</v>
       </c>
       <c r="HG2" t="n">
-        <v>347.044921875</v>
+        <v>335.5828857421875</v>
       </c>
       <c r="HH2" t="n">
-        <v>346.9093627929688</v>
+        <v>335.555908203125</v>
       </c>
       <c r="HI2" t="n">
-        <v>346.7701416015625</v>
+        <v>335.5431518554688</v>
       </c>
       <c r="HJ2" t="n">
-        <v>346.6380310058594</v>
+        <v>335.5449829101562</v>
       </c>
       <c r="HK2" t="n">
-        <v>346.6339416503906</v>
+        <v>335.4756164550781</v>
       </c>
       <c r="HL2" t="n">
-        <v>346.6209716796875</v>
+        <v>335.4016723632812</v>
       </c>
       <c r="HM2" t="n">
-        <v>346.6023254394531</v>
+        <v>335.0352478027344</v>
       </c>
       <c r="HN2" t="n">
-        <v>346.563232421875</v>
+        <v>335.2674560546875</v>
       </c>
       <c r="HO2" t="n">
-        <v>346.5403747558594</v>
+        <v>335.4686889648438</v>
       </c>
       <c r="HP2" t="n">
-        <v>346.5509033203125</v>
+        <v>335.5225830078125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>346.5359802246094</v>
+        <v>335.5652465820312</v>
       </c>
       <c r="HR2" t="n">
-        <v>346.4843139648438</v>
+        <v>335.5260620117188</v>
       </c>
       <c r="HS2" t="n">
-        <v>346.44384765625</v>
+        <v>335.4956665039062</v>
       </c>
       <c r="HT2" t="n">
-        <v>346.3993835449219</v>
+        <v>335.4063415527344</v>
       </c>
       <c r="HU2" t="n">
-        <v>346.3445434570312</v>
+        <v>335.4454345703125</v>
       </c>
       <c r="HV2" t="n">
-        <v>346.2799682617188</v>
+        <v>335.4138488769531</v>
       </c>
       <c r="HW2" t="n">
-        <v>346.2439575195312</v>
+        <v>335.3072509765625</v>
       </c>
       <c r="HX2" t="n">
-        <v>346.1992797851562</v>
+        <v>335.2945556640625</v>
       </c>
       <c r="HY2" t="n">
-        <v>346.1294860839844</v>
+        <v>335.3287048339844</v>
       </c>
       <c r="HZ2" t="n">
-        <v>346.070556640625</v>
+        <v>335.3735961914062</v>
       </c>
       <c r="IA2" t="n">
-        <v>346.1405029296875</v>
+        <v>335.3875122070312</v>
       </c>
       <c r="IB2" t="n">
-        <v>346.0903625488281</v>
+        <v>335.2381591796875</v>
       </c>
       <c r="IC2" t="n">
-        <v>346.0797729492188</v>
+        <v>335.1189880371094</v>
       </c>
       <c r="ID2" t="n">
-        <v>346.1830139160156</v>
+        <v>335.3079833984375</v>
       </c>
       <c r="IE2" t="n">
-        <v>346.2016296386719</v>
+        <v>335.6127624511719</v>
       </c>
       <c r="IF2" t="n">
-        <v>346.1978454589844</v>
+        <v>335.7323608398438</v>
       </c>
       <c r="IG2" t="n">
-        <v>346.2088317871094</v>
+        <v>335.5541687011719</v>
       </c>
       <c r="IH2" t="n">
-        <v>346.2109069824219</v>
+        <v>335.4994201660156</v>
       </c>
       <c r="II2" t="n">
-        <v>346.2103576660156</v>
+        <v>335.3067626953125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>346.209716796875</v>
+        <v>335.6612854003906</v>
       </c>
       <c r="IK2" t="n">
-        <v>346.215576171875</v>
+        <v>335.3651123046875</v>
       </c>
       <c r="IL2" t="n">
-        <v>346.225341796875</v>
+        <v>335.7440490722656</v>
       </c>
       <c r="IM2" t="n">
-        <v>346.3836669921875</v>
+        <v>335.576171875</v>
       </c>
       <c r="IN2" t="n">
-        <v>346.7443542480469</v>
+        <v>335.4600830078125</v>
       </c>
       <c r="IO2" t="n">
-        <v>346.5441589355469</v>
+        <v>335.5213012695312</v>
       </c>
       <c r="IP2" t="n">
-        <v>346.4083251953125</v>
+        <v>335.4856567382812</v>
       </c>
       <c r="IQ2" t="n">
-        <v>346.3488159179688</v>
+        <v>335.5111083984375</v>
       </c>
       <c r="IR2" t="n">
-        <v>346.2451477050781</v>
+        <v>335.5217895507812</v>
       </c>
       <c r="IS2" t="n">
-        <v>346.1560668945312</v>
+        <v>335.5654296875</v>
       </c>
       <c r="IT2" t="n">
-        <v>346.0987548828125</v>
+        <v>335.5335083007812</v>
       </c>
       <c r="IU2" t="n">
-        <v>346.088134765625</v>
+        <v>335.5673217773438</v>
       </c>
       <c r="IV2" t="n">
-        <v>345.9309692382812</v>
+        <v>335.468017578125</v>
       </c>
       <c r="IW2" t="n">
-        <v>345.6784362792969</v>
+        <v>335.3568115234375</v>
       </c>
       <c r="IX2" t="n">
-        <v>345.43359375</v>
+        <v>335.3515014648438</v>
       </c>
       <c r="IY2" t="n">
-        <v>345.179443359375</v>
+        <v>335.560546875</v>
       </c>
       <c r="IZ2" t="n">
-        <v>345.1956787109375</v>
+        <v>335.5084838867188</v>
       </c>
       <c r="JA2" t="n">
-        <v>345.2743225097656</v>
+        <v>335.4666748046875</v>
       </c>
       <c r="JB2" t="n">
-        <v>345.5567016601562</v>
+        <v>335.4596252441406</v>
       </c>
       <c r="JC2" t="n">
-        <v>345.7477416992188</v>
+        <v>335.4535522460938</v>
       </c>
       <c r="JD2" t="n">
-        <v>346.0014343261719</v>
+        <v>335.3021545410156</v>
       </c>
       <c r="JE2" t="n">
-        <v>346.1221008300781</v>
+        <v>335.262939453125</v>
       </c>
       <c r="JF2" t="n">
-        <v>346.1666259765625</v>
+        <v>334.9218139648438</v>
       </c>
       <c r="JG2" t="n">
-        <v>346.1549072265625</v>
+        <v>335.1673583984375</v>
       </c>
       <c r="JH2" t="n">
-        <v>346.0403442382812</v>
+        <v>335.1403198242188</v>
       </c>
       <c r="JI2" t="n">
-        <v>345.746826171875</v>
+        <v>335.0952453613281</v>
       </c>
       <c r="JJ2" t="n">
-        <v>345.2923278808594</v>
+        <v>335.271484375</v>
       </c>
       <c r="JK2" t="n">
-        <v>344.791015625</v>
+        <v>335.1724243164062</v>
       </c>
       <c r="JL2" t="n">
-        <v>344.2571411132812</v>
+        <v>335.1041259765625</v>
       </c>
       <c r="JM2" t="n">
-        <v>343.9041748046875</v>
+        <v>335.2186279296875</v>
       </c>
       <c r="JN2" t="n">
-        <v>343.6168823242188</v>
+        <v>335.2909851074219</v>
       </c>
       <c r="JO2" t="n">
-        <v>343.4344177246094</v>
+        <v>335.3070068359375</v>
       </c>
       <c r="JP2" t="n">
-        <v>343.2725219726562</v>
+        <v>335.2984924316406</v>
       </c>
       <c r="JQ2" t="n">
-        <v>342.964111328125</v>
+        <v>335.4771728515625</v>
       </c>
       <c r="JR2" t="n">
-        <v>343.1487426757812</v>
+        <v>335.57177734375</v>
       </c>
       <c r="JS2" t="n">
-        <v>342.94384765625</v>
+        <v>335.4977111816406</v>
       </c>
       <c r="JT2" t="n">
-        <v>342.814453125</v>
+        <v>335.3455200195312</v>
       </c>
       <c r="JU2" t="n">
-        <v>342.765380859375</v>
+        <v>335.3827514648438</v>
       </c>
       <c r="JV2" t="n">
-        <v>342.7279663085938</v>
+        <v>335.3990173339844</v>
       </c>
       <c r="JW2" t="n">
-        <v>342.7251586914062</v>
+        <v>335.4702758789062</v>
       </c>
       <c r="JX2" t="n">
-        <v>342.6459045410156</v>
+        <v>335.4669494628906</v>
       </c>
       <c r="JY2" t="n">
-        <v>342.9187316894531</v>
+        <v>335.454345703125</v>
       </c>
       <c r="JZ2" t="n">
-        <v>343.0317687988281</v>
+        <v>335.42626953125</v>
       </c>
       <c r="KA2" t="n">
-        <v>342.6428833007812</v>
+        <v>335.6727294921875</v>
       </c>
       <c r="KB2" t="n">
-        <v>342.3485107421875</v>
+        <v>336.7007141113281</v>
       </c>
       <c r="KC2" t="n">
-        <v>341.0325622558594</v>
+        <v>339.045166015625</v>
       </c>
       <c r="KD2" t="n">
-        <v>338.6377258300781</v>
+        <v>339.8804321289062</v>
       </c>
       <c r="KE2" t="n">
-        <v>338.2060546875</v>
+        <v>340.2798461914062</v>
       </c>
       <c r="KF2" t="n">
-        <v>337.7530517578125</v>
+        <v>340.4011535644531</v>
       </c>
       <c r="KG2" t="n">
-        <v>338.1443786621094</v>
+        <v>340.4893493652344</v>
       </c>
       <c r="KH2" t="n">
-        <v>338.5863647460938</v>
+        <v>340.6905517578125</v>
       </c>
       <c r="KI2" t="n">
-        <v>339.1931457519531</v>
+        <v>340.8526000976562</v>
       </c>
       <c r="KJ2" t="n">
-        <v>339.3371276855469</v>
+        <v>340.956298828125</v>
       </c>
       <c r="KK2" t="n">
-        <v>339.8302917480469</v>
+        <v>341.1149291992188</v>
       </c>
       <c r="KL2" t="n">
-        <v>342.0889892578125</v>
+        <v>341.1444091796875</v>
       </c>
       <c r="KM2" t="n">
-        <v>346.405029296875</v>
+        <v>341.1361389160156</v>
       </c>
       <c r="KN2" t="n">
-        <v>352.301025390625</v>
+        <v>341.1212463378906</v>
       </c>
       <c r="KO2" t="n">
-        <v>359.5626220703125</v>
+        <v>341.1708984375</v>
       </c>
       <c r="KP2" t="n">
-        <v>364.6607971191406</v>
+        <v>344.2105407714844</v>
       </c>
       <c r="KQ2" t="n">
-        <v>368.1027221679688</v>
+        <v>346.9569091796875</v>
       </c>
       <c r="KR2" t="n">
-        <v>371.6868286132812</v>
+        <v>349.7796020507812</v>
       </c>
       <c r="KS2" t="n">
-        <v>375.2813415527344</v>
+        <v>352.6310729980469</v>
       </c>
       <c r="KT2" t="n">
-        <v>377.3402404785156</v>
+        <v>355.0463562011719</v>
       </c>
       <c r="KU2" t="n">
-        <v>379.4478759765625</v>
+        <v>356.5250854492188</v>
       </c>
       <c r="KV2" t="n">
-        <v>379.9198913574219</v>
+        <v>357.782470703125</v>
       </c>
       <c r="KW2" t="n">
-        <v>382.3517456054688</v>
+        <v>358.7622375488281</v>
       </c>
       <c r="KX2" t="n">
-        <v>383.068359375</v>
+        <v>357.1408081054688</v>
       </c>
       <c r="KY2" t="n">
-        <v>384.0360107421875</v>
+        <v>355.9053344726562</v>
       </c>
       <c r="KZ2" t="n">
-        <v>384.5119934082031</v>
+        <v>355.2977905273438</v>
       </c>
       <c r="LA2" t="n">
-        <v>387.06689453125</v>
+        <v>356.5157775878906</v>
       </c>
       <c r="LB2" t="n">
-        <v>387.0447998046875</v>
+        <v>360.0054321289062</v>
       </c>
       <c r="LC2" t="n">
-        <v>386.5838012695312</v>
+        <v>367.8006591796875</v>
       </c>
       <c r="LD2" t="n">
-        <v>386.3419189453125</v>
+        <v>377.5979614257812</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>387.6202392578125</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>398.35791015625</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>405.2288208007812</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>416.4092407226562</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>426.2633972167969</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>435.7702941894531</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>441.6641845703125</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>452.5394897460938</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>466.5340881347656</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>474.52099609375</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>514.8513793945312</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>517.0963745117188</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>583.59423828125</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>603.8372192382812</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>576.405029296875</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>609.3421630859375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>620.5433349609375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>619.1016235351562</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>619.398681640625</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>623.7682495117188</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>624.0665893554688</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>638.5634765625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>651.8294677734375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>653.50390625</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>653.5558471679688</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>653.3480834960938</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>656.1791381835938</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>654.2896118164062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>215.2879638671875</v>
+        <v>181.7526092529297</v>
       </c>
       <c r="B3" t="n">
-        <v>214.0341491699219</v>
+        <v>185.5848999023438</v>
       </c>
       <c r="C3" t="n">
-        <v>212.7682037353516</v>
+        <v>186.8287200927734</v>
       </c>
       <c r="D3" t="n">
-        <v>212.4325866699219</v>
+        <v>188.9256439208984</v>
       </c>
       <c r="E3" t="n">
-        <v>212.8847503662109</v>
+        <v>189.6675262451172</v>
       </c>
       <c r="F3" t="n">
-        <v>214.0585632324219</v>
+        <v>192.1351470947266</v>
       </c>
       <c r="G3" t="n">
-        <v>215.28564453125</v>
+        <v>193.6862945556641</v>
       </c>
       <c r="H3" t="n">
-        <v>216.2044677734375</v>
+        <v>195.0423736572266</v>
       </c>
       <c r="I3" t="n">
-        <v>218.2869262695312</v>
+        <v>196.3941040039062</v>
       </c>
       <c r="J3" t="n">
-        <v>220.5421905517578</v>
+        <v>197.2351379394531</v>
       </c>
       <c r="K3" t="n">
-        <v>225.7916870117188</v>
+        <v>197.7168426513672</v>
       </c>
       <c r="L3" t="n">
-        <v>228.4592742919922</v>
+        <v>197.4755706787109</v>
       </c>
       <c r="M3" t="n">
-        <v>232.9162445068359</v>
+        <v>196.3363037109375</v>
       </c>
       <c r="N3" t="n">
-        <v>234.5148162841797</v>
+        <v>193.9570770263672</v>
       </c>
       <c r="O3" t="n">
-        <v>235.2171325683594</v>
+        <v>192.4124603271484</v>
       </c>
       <c r="P3" t="n">
-        <v>235.7380218505859</v>
+        <v>191.8228302001953</v>
       </c>
       <c r="Q3" t="n">
-        <v>235.4303894042969</v>
+        <v>191.7047576904297</v>
       </c>
       <c r="R3" t="n">
-        <v>234.1506042480469</v>
+        <v>192.0872039794922</v>
       </c>
       <c r="S3" t="n">
-        <v>233.5502319335938</v>
+        <v>193.0167541503906</v>
       </c>
       <c r="T3" t="n">
-        <v>233.1320953369141</v>
+        <v>194.4210357666016</v>
       </c>
       <c r="U3" t="n">
-        <v>233.3295593261719</v>
+        <v>195.3693237304688</v>
       </c>
       <c r="V3" t="n">
-        <v>233.998779296875</v>
+        <v>197.2923889160156</v>
       </c>
       <c r="W3" t="n">
-        <v>237.2382507324219</v>
+        <v>199.8031921386719</v>
       </c>
       <c r="X3" t="n">
-        <v>240.0089263916016</v>
+        <v>201.5779724121094</v>
       </c>
       <c r="Y3" t="n">
-        <v>241.4126892089844</v>
+        <v>203.9243469238281</v>
       </c>
       <c r="Z3" t="n">
-        <v>245.4926452636719</v>
+        <v>206.2058563232422</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.6150207519531</v>
+        <v>207.8761444091797</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.2700958251953</v>
+        <v>209.2824859619141</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.3317565917969</v>
+        <v>209.8642730712891</v>
       </c>
       <c r="AD3" t="n">
-        <v>256.4888305664062</v>
+        <v>210.1730804443359</v>
       </c>
       <c r="AE3" t="n">
-        <v>257.9112243652344</v>
+        <v>209.8392639160156</v>
       </c>
       <c r="AF3" t="n">
-        <v>259.3905029296875</v>
+        <v>208.7898101806641</v>
       </c>
       <c r="AG3" t="n">
-        <v>260.2154541015625</v>
+        <v>206.7439422607422</v>
       </c>
       <c r="AH3" t="n">
-        <v>260.3537292480469</v>
+        <v>205.1530914306641</v>
       </c>
       <c r="AI3" t="n">
-        <v>260.4946899414062</v>
+        <v>204.4748382568359</v>
       </c>
       <c r="AJ3" t="n">
-        <v>260.4188537597656</v>
+        <v>204.0075225830078</v>
       </c>
       <c r="AK3" t="n">
-        <v>260.187255859375</v>
+        <v>204.1305541992188</v>
       </c>
       <c r="AL3" t="n">
-        <v>259.9905090332031</v>
+        <v>204.1944885253906</v>
       </c>
       <c r="AM3" t="n">
-        <v>259.8499450683594</v>
+        <v>204.3004913330078</v>
       </c>
       <c r="AN3" t="n">
-        <v>259.46728515625</v>
+        <v>204.4183959960938</v>
       </c>
       <c r="AO3" t="n">
-        <v>259.1455688476562</v>
+        <v>204.4851989746094</v>
       </c>
       <c r="AP3" t="n">
-        <v>258.8009948730469</v>
+        <v>204.5463256835938</v>
       </c>
       <c r="AQ3" t="n">
-        <v>258.7277526855469</v>
+        <v>204.9233093261719</v>
       </c>
       <c r="AR3" t="n">
-        <v>258.9089660644531</v>
+        <v>205.4107818603516</v>
       </c>
       <c r="AS3" t="n">
-        <v>259.1360168457031</v>
+        <v>205.9142150878906</v>
       </c>
       <c r="AT3" t="n">
-        <v>259.2716979980469</v>
+        <v>207.7511291503906</v>
       </c>
       <c r="AU3" t="n">
-        <v>259.8985900878906</v>
+        <v>208.5400238037109</v>
       </c>
       <c r="AV3" t="n">
-        <v>260.5526428222656</v>
+        <v>209.6453552246094</v>
       </c>
       <c r="AW3" t="n">
-        <v>261.9410705566406</v>
+        <v>209.9981689453125</v>
       </c>
       <c r="AX3" t="n">
-        <v>262.8144836425781</v>
+        <v>210.8208465576172</v>
       </c>
       <c r="AY3" t="n">
-        <v>263.21044921875</v>
+        <v>210.7137756347656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>263.4024047851562</v>
+        <v>209.8706207275391</v>
       </c>
       <c r="BA3" t="n">
-        <v>263.4667053222656</v>
+        <v>209.7883911132812</v>
       </c>
       <c r="BB3" t="n">
-        <v>263.4964294433594</v>
+        <v>209.5042114257812</v>
       </c>
       <c r="BC3" t="n">
-        <v>263.5589599609375</v>
+        <v>209.2516326904297</v>
       </c>
       <c r="BD3" t="n">
-        <v>263.610107421875</v>
+        <v>209.088623046875</v>
       </c>
       <c r="BE3" t="n">
-        <v>263.6513671875</v>
+        <v>209.1837310791016</v>
       </c>
       <c r="BF3" t="n">
-        <v>263.6304321289062</v>
+        <v>209.2401885986328</v>
       </c>
       <c r="BG3" t="n">
-        <v>263.5398864746094</v>
+        <v>209.2964019775391</v>
       </c>
       <c r="BH3" t="n">
-        <v>263.4440002441406</v>
+        <v>209.3167877197266</v>
       </c>
       <c r="BI3" t="n">
-        <v>263.2932434082031</v>
+        <v>209.0285186767578</v>
       </c>
       <c r="BJ3" t="n">
-        <v>263.0420227050781</v>
+        <v>208.5156402587891</v>
       </c>
       <c r="BK3" t="n">
-        <v>262.6865844726562</v>
+        <v>208.1692657470703</v>
       </c>
       <c r="BL3" t="n">
-        <v>262.6797485351562</v>
+        <v>208.2189331054688</v>
       </c>
       <c r="BM3" t="n">
-        <v>262.7740478515625</v>
+        <v>208.54931640625</v>
       </c>
       <c r="BN3" t="n">
-        <v>262.7229614257812</v>
+        <v>208.4637756347656</v>
       </c>
       <c r="BO3" t="n">
-        <v>262.6871948242188</v>
+        <v>208.4308624267578</v>
       </c>
       <c r="BP3" t="n">
-        <v>262.7011108398438</v>
+        <v>208.5258178710938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>262.7133483886719</v>
+        <v>208.5870056152344</v>
       </c>
       <c r="BR3" t="n">
-        <v>262.8002624511719</v>
+        <v>208.5027465820312</v>
       </c>
       <c r="BS3" t="n">
-        <v>262.9040832519531</v>
+        <v>208.9142913818359</v>
       </c>
       <c r="BT3" t="n">
-        <v>263.0192565917969</v>
+        <v>209.2237701416016</v>
       </c>
       <c r="BU3" t="n">
-        <v>263.1455688476562</v>
+        <v>209.3801574707031</v>
       </c>
       <c r="BV3" t="n">
-        <v>263.2843322753906</v>
+        <v>209.6098022460938</v>
       </c>
       <c r="BW3" t="n">
-        <v>263.4148559570312</v>
+        <v>209.9334564208984</v>
       </c>
       <c r="BX3" t="n">
-        <v>263.5169677734375</v>
+        <v>210.5339660644531</v>
       </c>
       <c r="BY3" t="n">
-        <v>263.6285400390625</v>
+        <v>211.0585327148438</v>
       </c>
       <c r="BZ3" t="n">
-        <v>263.7610168457031</v>
+        <v>211.3186645507812</v>
       </c>
       <c r="CA3" t="n">
-        <v>263.9868774414062</v>
+        <v>211.4384002685547</v>
       </c>
       <c r="CB3" t="n">
-        <v>264.1368408203125</v>
+        <v>211.9913024902344</v>
       </c>
       <c r="CC3" t="n">
-        <v>264.2646179199219</v>
+        <v>211.5500640869141</v>
       </c>
       <c r="CD3" t="n">
-        <v>264.3192443847656</v>
+        <v>210.9988555908203</v>
       </c>
       <c r="CE3" t="n">
-        <v>264.3051452636719</v>
+        <v>210.8128967285156</v>
       </c>
       <c r="CF3" t="n">
-        <v>264.2901306152344</v>
+        <v>210.6160430908203</v>
       </c>
       <c r="CG3" t="n">
-        <v>264.3205261230469</v>
+        <v>210.3880157470703</v>
       </c>
       <c r="CH3" t="n">
-        <v>264.3471984863281</v>
+        <v>210.2812042236328</v>
       </c>
       <c r="CI3" t="n">
-        <v>264.3822631835938</v>
+        <v>210.2366333007812</v>
       </c>
       <c r="CJ3" t="n">
-        <v>264.4107360839844</v>
+        <v>210.2871551513672</v>
       </c>
       <c r="CK3" t="n">
-        <v>264.4270324707031</v>
+        <v>210.5200958251953</v>
       </c>
       <c r="CL3" t="n">
-        <v>264.4358215332031</v>
+        <v>210.6885681152344</v>
       </c>
       <c r="CM3" t="n">
-        <v>264.5785217285156</v>
+        <v>210.8755035400391</v>
       </c>
       <c r="CN3" t="n">
-        <v>264.5679016113281</v>
+        <v>211.0506286621094</v>
       </c>
       <c r="CO3" t="n">
-        <v>264.5634460449219</v>
+        <v>211.2266082763672</v>
       </c>
       <c r="CP3" t="n">
-        <v>264.7577514648438</v>
+        <v>211.7183990478516</v>
       </c>
       <c r="CQ3" t="n">
-        <v>265.0776062011719</v>
+        <v>211.9231719970703</v>
       </c>
       <c r="CR3" t="n">
-        <v>265.5743103027344</v>
+        <v>212.1996002197266</v>
       </c>
       <c r="CS3" t="n">
-        <v>265.3262634277344</v>
+        <v>212.1171722412109</v>
       </c>
       <c r="CT3" t="n">
-        <v>265.0951538085938</v>
+        <v>212.0779571533203</v>
       </c>
       <c r="CU3" t="n">
-        <v>264.9256896972656</v>
+        <v>212.0359954833984</v>
       </c>
       <c r="CV3" t="n">
-        <v>264.7651672363281</v>
+        <v>211.9794158935547</v>
       </c>
       <c r="CW3" t="n">
-        <v>264.6059875488281</v>
+        <v>211.9607086181641</v>
       </c>
       <c r="CX3" t="n">
-        <v>264.4480285644531</v>
+        <v>211.9257202148438</v>
       </c>
       <c r="CY3" t="n">
-        <v>264.3992614746094</v>
+        <v>211.9033508300781</v>
       </c>
       <c r="CZ3" t="n">
-        <v>264.3932189941406</v>
+        <v>211.8773651123047</v>
       </c>
       <c r="DA3" t="n">
-        <v>264.3852844238281</v>
+        <v>211.8655548095703</v>
       </c>
       <c r="DB3" t="n">
-        <v>264.3694763183594</v>
+        <v>211.8203887939453</v>
       </c>
       <c r="DC3" t="n">
-        <v>264.3667602539062</v>
+        <v>211.7882690429688</v>
       </c>
       <c r="DD3" t="n">
-        <v>264.3805236816406</v>
+        <v>211.7262573242188</v>
       </c>
       <c r="DE3" t="n">
-        <v>264.4194641113281</v>
+        <v>211.6877136230469</v>
       </c>
       <c r="DF3" t="n">
-        <v>264.3996276855469</v>
+        <v>211.693115234375</v>
       </c>
       <c r="DG3" t="n">
-        <v>264.3867797851562</v>
+        <v>211.6506805419922</v>
       </c>
       <c r="DH3" t="n">
-        <v>264.3612976074219</v>
+        <v>211.6251983642578</v>
       </c>
       <c r="DI3" t="n">
-        <v>264.3216552734375</v>
+        <v>211.5825805664062</v>
       </c>
       <c r="DJ3" t="n">
-        <v>264.2868347167969</v>
+        <v>211.5697174072266</v>
       </c>
       <c r="DK3" t="n">
-        <v>264.232666015625</v>
+        <v>211.5319366455078</v>
       </c>
       <c r="DL3" t="n">
-        <v>264.2281188964844</v>
+        <v>211.5699768066406</v>
       </c>
       <c r="DM3" t="n">
-        <v>264.1791076660156</v>
+        <v>211.4883575439453</v>
       </c>
       <c r="DN3" t="n">
-        <v>264.063720703125</v>
+        <v>211.4315338134766</v>
       </c>
       <c r="DO3" t="n">
-        <v>264.0222778320312</v>
+        <v>211.43701171875</v>
       </c>
       <c r="DP3" t="n">
-        <v>263.9771118164062</v>
+        <v>211.4324340820312</v>
       </c>
       <c r="DQ3" t="n">
-        <v>263.9404907226562</v>
+        <v>211.4273376464844</v>
       </c>
       <c r="DR3" t="n">
-        <v>263.9036560058594</v>
+        <v>211.4011535644531</v>
       </c>
       <c r="DS3" t="n">
-        <v>263.9328918457031</v>
+        <v>211.4376831054688</v>
       </c>
       <c r="DT3" t="n">
-        <v>263.93359375</v>
+        <v>211.4364929199219</v>
       </c>
       <c r="DU3" t="n">
-        <v>263.9281311035156</v>
+        <v>211.4262237548828</v>
       </c>
       <c r="DV3" t="n">
-        <v>264.0086669921875</v>
+        <v>211.4114685058594</v>
       </c>
       <c r="DW3" t="n">
-        <v>264.0606079101562</v>
+        <v>211.4378356933594</v>
       </c>
       <c r="DX3" t="n">
-        <v>264.1314392089844</v>
+        <v>211.4030303955078</v>
       </c>
       <c r="DY3" t="n">
-        <v>264.238525390625</v>
+        <v>211.3788146972656</v>
       </c>
       <c r="DZ3" t="n">
-        <v>264.3069458007812</v>
+        <v>211.4059906005859</v>
       </c>
       <c r="EA3" t="n">
-        <v>264.4245300292969</v>
+        <v>211.4143371582031</v>
       </c>
       <c r="EB3" t="n">
-        <v>264.4821166992188</v>
+        <v>211.3285217285156</v>
       </c>
       <c r="EC3" t="n">
-        <v>264.5364379882812</v>
+        <v>211.3309326171875</v>
       </c>
       <c r="ED3" t="n">
-        <v>264.627685546875</v>
+        <v>211.3385467529297</v>
       </c>
       <c r="EE3" t="n">
-        <v>264.6807861328125</v>
+        <v>211.2801818847656</v>
       </c>
       <c r="EF3" t="n">
-        <v>264.8491821289062</v>
+        <v>211.23779296875</v>
       </c>
       <c r="EG3" t="n">
-        <v>264.9288635253906</v>
+        <v>211.1548309326172</v>
       </c>
       <c r="EH3" t="n">
-        <v>265.0378112792969</v>
+        <v>211.1922302246094</v>
       </c>
       <c r="EI3" t="n">
-        <v>265.0039978027344</v>
+        <v>211.2023773193359</v>
       </c>
       <c r="EJ3" t="n">
-        <v>264.9271240234375</v>
+        <v>211.2850341796875</v>
       </c>
       <c r="EK3" t="n">
-        <v>265.1948547363281</v>
+        <v>211.283447265625</v>
       </c>
       <c r="EL3" t="n">
-        <v>265.4427795410156</v>
+        <v>211.2964019775391</v>
       </c>
       <c r="EM3" t="n">
-        <v>265.0160522460938</v>
+        <v>211.3054351806641</v>
       </c>
       <c r="EN3" t="n">
-        <v>264.8479919433594</v>
+        <v>211.2899169921875</v>
       </c>
       <c r="EO3" t="n">
-        <v>264.4350891113281</v>
+        <v>211.2891998291016</v>
       </c>
       <c r="EP3" t="n">
-        <v>264.5147705078125</v>
+        <v>211.2907562255859</v>
       </c>
       <c r="EQ3" t="n">
-        <v>264.4519958496094</v>
+        <v>211.2914123535156</v>
       </c>
       <c r="ER3" t="n">
-        <v>264.481201171875</v>
+        <v>211.2928771972656</v>
       </c>
       <c r="ES3" t="n">
-        <v>264.50732421875</v>
+        <v>211.2933654785156</v>
       </c>
       <c r="ET3" t="n">
-        <v>264.5846862792969</v>
+        <v>211.2636871337891</v>
       </c>
       <c r="EU3" t="n">
-        <v>264.7113952636719</v>
+        <v>211.2284088134766</v>
       </c>
       <c r="EV3" t="n">
-        <v>264.8067932128906</v>
+        <v>211.1909027099609</v>
       </c>
       <c r="EW3" t="n">
-        <v>264.7559204101562</v>
+        <v>211.2095794677734</v>
       </c>
       <c r="EX3" t="n">
-        <v>264.6355285644531</v>
+        <v>211.2392883300781</v>
       </c>
       <c r="EY3" t="n">
-        <v>264.5856323242188</v>
+        <v>211.2790832519531</v>
       </c>
       <c r="EZ3" t="n">
-        <v>264.5247497558594</v>
+        <v>211.3227996826172</v>
       </c>
       <c r="FA3" t="n">
-        <v>264.4131774902344</v>
+        <v>211.3934326171875</v>
       </c>
       <c r="FB3" t="n">
-        <v>264.3671875</v>
+        <v>211.3807220458984</v>
       </c>
       <c r="FC3" t="n">
-        <v>264.3733520507812</v>
+        <v>211.3846130371094</v>
       </c>
       <c r="FD3" t="n">
-        <v>264.4000549316406</v>
+        <v>211.3820648193359</v>
       </c>
       <c r="FE3" t="n">
-        <v>264.4193115234375</v>
+        <v>211.3272552490234</v>
       </c>
       <c r="FF3" t="n">
-        <v>264.4407653808594</v>
+        <v>211.2874908447266</v>
       </c>
       <c r="FG3" t="n">
-        <v>264.5151672363281</v>
+        <v>211.2557830810547</v>
       </c>
       <c r="FH3" t="n">
-        <v>264.5607299804688</v>
+        <v>211.2465362548828</v>
       </c>
       <c r="FI3" t="n">
-        <v>264.6056518554688</v>
+        <v>211.3403472900391</v>
       </c>
       <c r="FJ3" t="n">
-        <v>264.6185607910156</v>
+        <v>211.3482360839844</v>
       </c>
       <c r="FK3" t="n">
-        <v>264.6177673339844</v>
+        <v>211.361328125</v>
       </c>
       <c r="FL3" t="n">
-        <v>264.5359191894531</v>
+        <v>211.4258422851562</v>
       </c>
       <c r="FM3" t="n">
-        <v>264.4049072265625</v>
+        <v>211.4800262451172</v>
       </c>
       <c r="FN3" t="n">
-        <v>264.2117614746094</v>
+        <v>211.4863586425781</v>
       </c>
       <c r="FO3" t="n">
-        <v>264.1819763183594</v>
+        <v>211.4703979492188</v>
       </c>
       <c r="FP3" t="n">
-        <v>264.2430725097656</v>
+        <v>211.4419097900391</v>
       </c>
       <c r="FQ3" t="n">
-        <v>264.296875</v>
+        <v>211.4165496826172</v>
       </c>
       <c r="FR3" t="n">
-        <v>264.4220886230469</v>
+        <v>211.4007568359375</v>
       </c>
       <c r="FS3" t="n">
-        <v>264.4805603027344</v>
+        <v>211.3892974853516</v>
       </c>
       <c r="FT3" t="n">
-        <v>264.5679016113281</v>
+        <v>211.3793334960938</v>
       </c>
       <c r="FU3" t="n">
-        <v>264.5753173828125</v>
+        <v>211.5743865966797</v>
       </c>
       <c r="FV3" t="n">
-        <v>264.5699462890625</v>
+        <v>211.5582580566406</v>
       </c>
       <c r="FW3" t="n">
-        <v>264.5407104492188</v>
+        <v>211.5160827636719</v>
       </c>
       <c r="FX3" t="n">
-        <v>264.4678039550781</v>
+        <v>211.5255737304688</v>
       </c>
       <c r="FY3" t="n">
-        <v>264.4273986816406</v>
+        <v>211.5989227294922</v>
       </c>
       <c r="FZ3" t="n">
-        <v>264.4586791992188</v>
+        <v>211.646728515625</v>
       </c>
       <c r="GA3" t="n">
-        <v>264.5167846679688</v>
+        <v>211.7155609130859</v>
       </c>
       <c r="GB3" t="n">
-        <v>264.6120300292969</v>
+        <v>211.7702941894531</v>
       </c>
       <c r="GC3" t="n">
-        <v>264.686767578125</v>
+        <v>211.8437194824219</v>
       </c>
       <c r="GD3" t="n">
-        <v>264.7127075195312</v>
+        <v>211.9185028076172</v>
       </c>
       <c r="GE3" t="n">
-        <v>264.7530517578125</v>
+        <v>211.9461212158203</v>
       </c>
       <c r="GF3" t="n">
-        <v>264.7961730957031</v>
+        <v>211.9795227050781</v>
       </c>
       <c r="GG3" t="n">
-        <v>264.70361328125</v>
+        <v>212.0914306640625</v>
       </c>
       <c r="GH3" t="n">
-        <v>264.48291015625</v>
+        <v>212.0968322753906</v>
       </c>
       <c r="GI3" t="n">
-        <v>264.4373474121094</v>
+        <v>212.0857543945312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>264.2507934570312</v>
+        <v>212.0749359130859</v>
       </c>
       <c r="GK3" t="n">
-        <v>263.9545288085938</v>
+        <v>212.0296173095703</v>
       </c>
       <c r="GL3" t="n">
-        <v>263.8200378417969</v>
+        <v>211.9865570068359</v>
       </c>
       <c r="GM3" t="n">
-        <v>263.984130859375</v>
+        <v>211.9609680175781</v>
       </c>
       <c r="GN3" t="n">
-        <v>264.0466003417969</v>
+        <v>211.8677673339844</v>
       </c>
       <c r="GO3" t="n">
-        <v>264.2051086425781</v>
+        <v>211.7854156494141</v>
       </c>
       <c r="GP3" t="n">
-        <v>264.36669921875</v>
+        <v>211.6945037841797</v>
       </c>
       <c r="GQ3" t="n">
-        <v>264.5167541503906</v>
+        <v>211.6458740234375</v>
       </c>
       <c r="GR3" t="n">
-        <v>264.5957336425781</v>
+        <v>211.6233673095703</v>
       </c>
       <c r="GS3" t="n">
-        <v>264.7638549804688</v>
+        <v>211.7233428955078</v>
       </c>
       <c r="GT3" t="n">
-        <v>264.9247131347656</v>
+        <v>211.6416168212891</v>
       </c>
       <c r="GU3" t="n">
-        <v>265.1122131347656</v>
+        <v>211.6147155761719</v>
       </c>
       <c r="GV3" t="n">
-        <v>265.2009887695312</v>
+        <v>211.6044158935547</v>
       </c>
       <c r="GW3" t="n">
-        <v>265.2610778808594</v>
+        <v>211.5189361572266</v>
       </c>
       <c r="GX3" t="n">
-        <v>265.3091430664062</v>
+        <v>211.4259033203125</v>
       </c>
       <c r="GY3" t="n">
-        <v>265.3515319824219</v>
+        <v>211.3513488769531</v>
       </c>
       <c r="GZ3" t="n">
-        <v>265.3683776855469</v>
+        <v>211.3126983642578</v>
       </c>
       <c r="HA3" t="n">
-        <v>265.3851013183594</v>
+        <v>211.2901458740234</v>
       </c>
       <c r="HB3" t="n">
-        <v>265.3950805664062</v>
+        <v>211.2417144775391</v>
       </c>
       <c r="HC3" t="n">
-        <v>265.4037475585938</v>
+        <v>211.2145690917969</v>
       </c>
       <c r="HD3" t="n">
-        <v>265.3590393066406</v>
+        <v>211.1958923339844</v>
       </c>
       <c r="HE3" t="n">
-        <v>264.8292236328125</v>
+        <v>211.1717834472656</v>
       </c>
       <c r="HF3" t="n">
-        <v>264.3939208984375</v>
+        <v>211.154052734375</v>
       </c>
       <c r="HG3" t="n">
-        <v>263.9306335449219</v>
+        <v>211.1468505859375</v>
       </c>
       <c r="HH3" t="n">
-        <v>263.9965515136719</v>
+        <v>211.1776733398438</v>
       </c>
       <c r="HI3" t="n">
-        <v>264.065673828125</v>
+        <v>211.1931762695312</v>
       </c>
       <c r="HJ3" t="n">
-        <v>264.2117919921875</v>
+        <v>211.1918640136719</v>
       </c>
       <c r="HK3" t="n">
-        <v>264.1738586425781</v>
+        <v>211.1669616699219</v>
       </c>
       <c r="HL3" t="n">
-        <v>264.13134765625</v>
+        <v>211.1891326904297</v>
       </c>
       <c r="HM3" t="n">
-        <v>264.1428833007812</v>
+        <v>211.1766052246094</v>
       </c>
       <c r="HN3" t="n">
-        <v>264.1661376953125</v>
+        <v>211.2295837402344</v>
       </c>
       <c r="HO3" t="n">
-        <v>264.1480102539062</v>
+        <v>211.2854919433594</v>
       </c>
       <c r="HP3" t="n">
-        <v>264.0347900390625</v>
+        <v>211.2762603759766</v>
       </c>
       <c r="HQ3" t="n">
-        <v>263.933837890625</v>
+        <v>211.2556762695312</v>
       </c>
       <c r="HR3" t="n">
-        <v>263.9162902832031</v>
+        <v>211.2721099853516</v>
       </c>
       <c r="HS3" t="n">
-        <v>263.9284057617188</v>
+        <v>211.23291015625</v>
       </c>
       <c r="HT3" t="n">
-        <v>263.9957275390625</v>
+        <v>211.2421722412109</v>
       </c>
       <c r="HU3" t="n">
-        <v>264.0857238769531</v>
+        <v>211.2162933349609</v>
       </c>
       <c r="HV3" t="n">
-        <v>264.2921142578125</v>
+        <v>211.1498107910156</v>
       </c>
       <c r="HW3" t="n">
-        <v>264.4644470214844</v>
+        <v>211.1421661376953</v>
       </c>
       <c r="HX3" t="n">
-        <v>264.6060791015625</v>
+        <v>211.1394195556641</v>
       </c>
       <c r="HY3" t="n">
-        <v>264.9437866210938</v>
+        <v>211.1516265869141</v>
       </c>
       <c r="HZ3" t="n">
-        <v>265.3052673339844</v>
+        <v>211.1609344482422</v>
       </c>
       <c r="IA3" t="n">
-        <v>265.4116516113281</v>
+        <v>211.1622467041016</v>
       </c>
       <c r="IB3" t="n">
-        <v>265.51220703125</v>
+        <v>211.6696166992188</v>
       </c>
       <c r="IC3" t="n">
-        <v>265.5630798339844</v>
+        <v>211.7012634277344</v>
       </c>
       <c r="ID3" t="n">
-        <v>265.5979919433594</v>
+        <v>211.4832153320312</v>
       </c>
       <c r="IE3" t="n">
-        <v>265.62158203125</v>
+        <v>211.1913146972656</v>
       </c>
       <c r="IF3" t="n">
-        <v>265.6678771972656</v>
+        <v>211.1228942871094</v>
       </c>
       <c r="IG3" t="n">
-        <v>265.6651916503906</v>
+        <v>211.2023315429688</v>
       </c>
       <c r="IH3" t="n">
-        <v>265.6688537597656</v>
+        <v>211.1916351318359</v>
       </c>
       <c r="II3" t="n">
-        <v>265.6757202148438</v>
+        <v>211.1809234619141</v>
       </c>
       <c r="IJ3" t="n">
-        <v>265.6806335449219</v>
+        <v>211.1600341796875</v>
       </c>
       <c r="IK3" t="n">
-        <v>265.66943359375</v>
+        <v>211.2587127685547</v>
       </c>
       <c r="IL3" t="n">
-        <v>265.625244140625</v>
+        <v>211.2482452392578</v>
       </c>
       <c r="IM3" t="n">
-        <v>265.0776672363281</v>
+        <v>211.4438934326172</v>
       </c>
       <c r="IN3" t="n">
-        <v>264.0478515625</v>
+        <v>211.582275390625</v>
       </c>
       <c r="IO3" t="n">
-        <v>264.1907958984375</v>
+        <v>211.5070648193359</v>
       </c>
       <c r="IP3" t="n">
-        <v>264.0983276367188</v>
+        <v>211.5078735351562</v>
       </c>
       <c r="IQ3" t="n">
-        <v>264.1352233886719</v>
+        <v>211.4905548095703</v>
       </c>
       <c r="IR3" t="n">
-        <v>264.3748168945312</v>
+        <v>211.5107727050781</v>
       </c>
       <c r="IS3" t="n">
-        <v>264.5680541992188</v>
+        <v>211.4886016845703</v>
       </c>
       <c r="IT3" t="n">
-        <v>264.7328186035156</v>
+        <v>211.5449066162109</v>
       </c>
       <c r="IU3" t="n">
-        <v>264.8210144042969</v>
+        <v>211.4921875</v>
       </c>
       <c r="IV3" t="n">
-        <v>264.7100830078125</v>
+        <v>211.4494171142578</v>
       </c>
       <c r="IW3" t="n">
-        <v>264.353271484375</v>
+        <v>211.3737640380859</v>
       </c>
       <c r="IX3" t="n">
-        <v>264.0263366699219</v>
+        <v>211.3472290039062</v>
       </c>
       <c r="IY3" t="n">
-        <v>264.0742492675781</v>
+        <v>211.3213653564453</v>
       </c>
       <c r="IZ3" t="n">
-        <v>264.36328125</v>
+        <v>211.3701934814453</v>
       </c>
       <c r="JA3" t="n">
-        <v>264.6410522460938</v>
+        <v>211.4481353759766</v>
       </c>
       <c r="JB3" t="n">
-        <v>264.6899719238281</v>
+        <v>211.5437774658203</v>
       </c>
       <c r="JC3" t="n">
-        <v>264.8262329101562</v>
+        <v>211.6867828369141</v>
       </c>
       <c r="JD3" t="n">
-        <v>265</v>
+        <v>211.9477996826172</v>
       </c>
       <c r="JE3" t="n">
-        <v>265.09375</v>
+        <v>211.8254241943359</v>
       </c>
       <c r="JF3" t="n">
-        <v>265.1466979980469</v>
+        <v>211.8050842285156</v>
       </c>
       <c r="JG3" t="n">
-        <v>265.1664123535156</v>
+        <v>211.8953704833984</v>
       </c>
       <c r="JH3" t="n">
-        <v>265.1409606933594</v>
+        <v>211.8939971923828</v>
       </c>
       <c r="JI3" t="n">
-        <v>265.0399780273438</v>
+        <v>211.9023742675781</v>
       </c>
       <c r="JJ3" t="n">
-        <v>264.9592895507812</v>
+        <v>211.8402709960938</v>
       </c>
       <c r="JK3" t="n">
-        <v>264.771728515625</v>
+        <v>211.8499145507812</v>
       </c>
       <c r="JL3" t="n">
-        <v>264.5789489746094</v>
+        <v>211.8772430419922</v>
       </c>
       <c r="JM3" t="n">
-        <v>264.4772338867188</v>
+        <v>211.8414001464844</v>
       </c>
       <c r="JN3" t="n">
-        <v>264.3871154785156</v>
+        <v>211.7377777099609</v>
       </c>
       <c r="JO3" t="n">
-        <v>264.3488159179688</v>
+        <v>211.6585540771484</v>
       </c>
       <c r="JP3" t="n">
-        <v>264.3527221679688</v>
+        <v>211.4838256835938</v>
       </c>
       <c r="JQ3" t="n">
-        <v>263.9223327636719</v>
+        <v>211.1973114013672</v>
       </c>
       <c r="JR3" t="n">
-        <v>263.0662536621094</v>
+        <v>211.0411834716797</v>
       </c>
       <c r="JS3" t="n">
-        <v>263.402099609375</v>
+        <v>211.0527954101562</v>
       </c>
       <c r="JT3" t="n">
-        <v>263.3272705078125</v>
+        <v>211.0554656982422</v>
       </c>
       <c r="JU3" t="n">
-        <v>263.3476867675781</v>
+        <v>211.0501403808594</v>
       </c>
       <c r="JV3" t="n">
-        <v>263.472412109375</v>
+        <v>211.0570373535156</v>
       </c>
       <c r="JW3" t="n">
-        <v>263.6628112792969</v>
+        <v>211.0522613525391</v>
       </c>
       <c r="JX3" t="n">
-        <v>264.3454895019531</v>
+        <v>211.0547943115234</v>
       </c>
       <c r="JY3" t="n">
-        <v>264.4189453125</v>
+        <v>211.051025390625</v>
       </c>
       <c r="JZ3" t="n">
-        <v>264.6131286621094</v>
+        <v>211.0502471923828</v>
       </c>
       <c r="KA3" t="n">
-        <v>265.4776611328125</v>
+        <v>210.9590911865234</v>
       </c>
       <c r="KB3" t="n">
-        <v>265.3873291015625</v>
+        <v>210.7600555419922</v>
       </c>
       <c r="KC3" t="n">
-        <v>265.1383056640625</v>
+        <v>210.9627838134766</v>
       </c>
       <c r="KD3" t="n">
-        <v>264.3092041015625</v>
+        <v>210.9265441894531</v>
       </c>
       <c r="KE3" t="n">
-        <v>263.9076538085938</v>
+        <v>210.8349761962891</v>
       </c>
       <c r="KF3" t="n">
-        <v>263.5274353027344</v>
+        <v>210.9057006835938</v>
       </c>
       <c r="KG3" t="n">
-        <v>263.5708618164062</v>
+        <v>210.9424591064453</v>
       </c>
       <c r="KH3" t="n">
-        <v>263.4961547851562</v>
+        <v>211.0340423583984</v>
       </c>
       <c r="KI3" t="n">
-        <v>262.1427307128906</v>
+        <v>211.1000518798828</v>
       </c>
       <c r="KJ3" t="n">
-        <v>261.0525817871094</v>
+        <v>211.1324310302734</v>
       </c>
       <c r="KK3" t="n">
-        <v>261.2296142578125</v>
+        <v>211.2000122070312</v>
       </c>
       <c r="KL3" t="n">
-        <v>261.3667297363281</v>
+        <v>211.2166290283203</v>
       </c>
       <c r="KM3" t="n">
-        <v>262.2958068847656</v>
+        <v>211.2124176025391</v>
       </c>
       <c r="KN3" t="n">
-        <v>262.000732421875</v>
+        <v>211.2009429931641</v>
       </c>
       <c r="KO3" t="n">
-        <v>250.6774597167969</v>
+        <v>211.0306243896484</v>
       </c>
       <c r="KP3" t="n">
-        <v>246.3000335693359</v>
+        <v>209.2381134033203</v>
       </c>
       <c r="KQ3" t="n">
-        <v>244.0861968994141</v>
+        <v>209.7413787841797</v>
       </c>
       <c r="KR3" t="n">
-        <v>239.8900604248047</v>
+        <v>211.8524322509766</v>
       </c>
       <c r="KS3" t="n">
-        <v>230.031494140625</v>
+        <v>211.4362030029297</v>
       </c>
       <c r="KT3" t="n">
-        <v>227.1236572265625</v>
+        <v>211.6500091552734</v>
       </c>
       <c r="KU3" t="n">
-        <v>224.1784820556641</v>
+        <v>214.2635498046875</v>
       </c>
       <c r="KV3" t="n">
-        <v>223.3120574951172</v>
+        <v>218.1886138916016</v>
       </c>
       <c r="KW3" t="n">
-        <v>222.2978210449219</v>
+        <v>218.9440307617188</v>
       </c>
       <c r="KX3" t="n">
-        <v>217.9581909179688</v>
+        <v>215.0560913085938</v>
       </c>
       <c r="KY3" t="n">
-        <v>210.0261688232422</v>
+        <v>210.4609222412109</v>
       </c>
       <c r="KZ3" t="n">
-        <v>203.3512878417969</v>
+        <v>203.5806274414062</v>
       </c>
       <c r="LA3" t="n">
-        <v>198.0902099609375</v>
+        <v>200.1747589111328</v>
       </c>
       <c r="LB3" t="n">
-        <v>196.0435943603516</v>
+        <v>200.5423736572266</v>
       </c>
       <c r="LC3" t="n">
-        <v>194.3668212890625</v>
+        <v>203.7217712402344</v>
       </c>
       <c r="LD3" t="n">
-        <v>192.4159393310547</v>
+        <v>201.3189544677734</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>194.3541870117188</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>188.4100189208984</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>184.5514526367188</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>180.6007385253906</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>181.0712890625</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>179.8079833984375</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>180.9259796142578</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>188.6805419921875</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>182.8017120361328</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>169.0324401855469</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>109.9036636352539</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>129.4421997070312</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>112.401237487793</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>122.8876190185547</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>133.4240875244141</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>121.4680633544922</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>118.3260269165039</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>119.0549240112305</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>111.1577072143555</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>119.868782043457</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>147.5354614257812</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>143.8547058105469</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>134.6417388916016</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>130.6572723388672</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>133.2535858154297</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>136.3488922119141</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>139.0505676269531</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>141.6673583984375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>901.5302124023438</v>
+        <v>847.0655517578125</v>
       </c>
       <c r="B4" t="n">
-        <v>926.4788818359375</v>
+        <v>866.8513793945312</v>
       </c>
       <c r="C4" t="n">
-        <v>948.9639892578125</v>
+        <v>888.1373901367188</v>
       </c>
       <c r="D4" t="n">
-        <v>968.8107299804688</v>
+        <v>917.4620971679688</v>
       </c>
       <c r="E4" t="n">
-        <v>993.39306640625</v>
+        <v>940.6334228515625</v>
       </c>
       <c r="F4" t="n">
-        <v>1023.081848144531</v>
+        <v>971.6043090820312</v>
       </c>
       <c r="G4" t="n">
-        <v>1054.4658203125</v>
+        <v>999.9815063476562</v>
       </c>
       <c r="H4" t="n">
-        <v>1096.105834960938</v>
+        <v>1028.249145507812</v>
       </c>
       <c r="I4" t="n">
-        <v>1136.473754882812</v>
+        <v>1057.815185546875</v>
       </c>
       <c r="J4" t="n">
-        <v>1181.03564453125</v>
+        <v>1083.390869140625</v>
       </c>
       <c r="K4" t="n">
-        <v>1218.816650390625</v>
+        <v>1111.818481445312</v>
       </c>
       <c r="L4" t="n">
-        <v>1258.734375</v>
+        <v>1137.296264648438</v>
       </c>
       <c r="M4" t="n">
-        <v>1299.862670898438</v>
+        <v>1166.933837890625</v>
       </c>
       <c r="N4" t="n">
-        <v>1331.829833984375</v>
+        <v>1192.490478515625</v>
       </c>
       <c r="O4" t="n">
-        <v>1372.1025390625</v>
+        <v>1212.0107421875</v>
       </c>
       <c r="P4" t="n">
-        <v>1401.5185546875</v>
+        <v>1238.533447265625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1431.054931640625</v>
+        <v>1266.641235351562</v>
       </c>
       <c r="R4" t="n">
-        <v>1462.3115234375</v>
+        <v>1290.098876953125</v>
       </c>
       <c r="S4" t="n">
-        <v>1487.969970703125</v>
+        <v>1317.386352539062</v>
       </c>
       <c r="T4" t="n">
-        <v>1515.952758789062</v>
+        <v>1343.647827148438</v>
       </c>
       <c r="U4" t="n">
-        <v>1545.094970703125</v>
+        <v>1372.379028320312</v>
       </c>
       <c r="V4" t="n">
-        <v>1572.412719726562</v>
+        <v>1404.026611328125</v>
       </c>
       <c r="W4" t="n">
-        <v>1601.006713867188</v>
+        <v>1433.778076171875</v>
       </c>
       <c r="X4" t="n">
-        <v>1627.64453125</v>
+        <v>1465.913940429688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1667.779296875</v>
+        <v>1497.932373046875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1691.91064453125</v>
+        <v>1530.370971679688</v>
       </c>
       <c r="AA4" t="n">
-        <v>1723.355590820312</v>
+        <v>1562.087036132812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1746.162963867188</v>
+        <v>1600.99658203125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1792.731201171875</v>
+        <v>1636.261352539062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1821.722412109375</v>
+        <v>1667.50732421875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1840.924438476562</v>
+        <v>1698.219482421875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1866.39013671875</v>
+        <v>1728.98193359375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1883.104858398438</v>
+        <v>1740.076538085938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1919.711059570312</v>
+        <v>1772.141723632812</v>
       </c>
       <c r="AI4" t="n">
-        <v>1943.411743164062</v>
+        <v>1806.354125976562</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1956.752197265625</v>
+        <v>1830.53271484375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1976.39697265625</v>
+        <v>1853.697021484375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1993.984497070312</v>
+        <v>1862.133911132812</v>
       </c>
       <c r="AM4" t="n">
-        <v>2004.740112304688</v>
+        <v>1881.989013671875</v>
       </c>
       <c r="AN4" t="n">
-        <v>2010.64111328125</v>
+        <v>1898.620483398438</v>
       </c>
       <c r="AO4" t="n">
-        <v>2018.29150390625</v>
+        <v>1915.549072265625</v>
       </c>
       <c r="AP4" t="n">
-        <v>2026.693603515625</v>
+        <v>1948.967041015625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2032.407348632812</v>
+        <v>1964.948608398438</v>
       </c>
       <c r="AR4" t="n">
-        <v>2036.82373046875</v>
+        <v>1987.353637695312</v>
       </c>
       <c r="AS4" t="n">
-        <v>2046.268188476562</v>
+        <v>1997.900512695312</v>
       </c>
       <c r="AT4" t="n">
-        <v>2054.461669921875</v>
+        <v>2027.549072265625</v>
       </c>
       <c r="AU4" t="n">
-        <v>2056.20849609375</v>
+        <v>2037.56982421875</v>
       </c>
       <c r="AV4" t="n">
-        <v>2057.609619140625</v>
+        <v>2057.484375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2059.04248046875</v>
+        <v>2064.370361328125</v>
       </c>
       <c r="AX4" t="n">
-        <v>2061.035400390625</v>
+        <v>2097.056884765625</v>
       </c>
       <c r="AY4" t="n">
-        <v>2072.5712890625</v>
+        <v>2102.447021484375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2082.569091796875</v>
+        <v>2134.624267578125</v>
       </c>
       <c r="BA4" t="n">
-        <v>2089.0537109375</v>
+        <v>2155.76416015625</v>
       </c>
       <c r="BB4" t="n">
-        <v>2096.697509765625</v>
+        <v>2161.333251953125</v>
       </c>
       <c r="BC4" t="n">
-        <v>2099.07470703125</v>
+        <v>2174.248046875</v>
       </c>
       <c r="BD4" t="n">
-        <v>2107.14697265625</v>
+        <v>2183.79736328125</v>
       </c>
       <c r="BE4" t="n">
-        <v>2105.82080078125</v>
+        <v>2195.986328125</v>
       </c>
       <c r="BF4" t="n">
-        <v>2107.08349609375</v>
+        <v>2215.848388671875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2111.234130859375</v>
+        <v>2216.4677734375</v>
       </c>
       <c r="BH4" t="n">
-        <v>2115.68896484375</v>
+        <v>2218.18310546875</v>
       </c>
       <c r="BI4" t="n">
-        <v>2125.38525390625</v>
+        <v>2236.7568359375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2140.029052734375</v>
+        <v>2241.63134765625</v>
       </c>
       <c r="BK4" t="n">
-        <v>2132.6416015625</v>
+        <v>2250.34619140625</v>
       </c>
       <c r="BL4" t="n">
-        <v>2134.89794921875</v>
+        <v>2249.906494140625</v>
       </c>
       <c r="BM4" t="n">
-        <v>2135.25439453125</v>
+        <v>2249.215576171875</v>
       </c>
       <c r="BN4" t="n">
-        <v>2135.57568359375</v>
+        <v>2250.45947265625</v>
       </c>
       <c r="BO4" t="n">
-        <v>2135.109619140625</v>
+        <v>2251.525390625</v>
       </c>
       <c r="BP4" t="n">
-        <v>2135.234130859375</v>
+        <v>2252.66650390625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2135.317138671875</v>
+        <v>2253.614990234375</v>
       </c>
       <c r="BR4" t="n">
-        <v>2135.380126953125</v>
+        <v>2256.61962890625</v>
       </c>
       <c r="BS4" t="n">
-        <v>2135.38134765625</v>
+        <v>2264.4755859375</v>
       </c>
       <c r="BT4" t="n">
-        <v>2135.385009765625</v>
+        <v>2275.331787109375</v>
       </c>
       <c r="BU4" t="n">
-        <v>2135.446533203125</v>
+        <v>2278.743408203125</v>
       </c>
       <c r="BV4" t="n">
-        <v>2135.517822265625</v>
+        <v>2281.07666015625</v>
       </c>
       <c r="BW4" t="n">
-        <v>2135.577880859375</v>
+        <v>2286.1455078125</v>
       </c>
       <c r="BX4" t="n">
-        <v>2135.648681640625</v>
+        <v>2288.599609375</v>
       </c>
       <c r="BY4" t="n">
-        <v>2135.712646484375</v>
+        <v>2292.3330078125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2135.7578125</v>
+        <v>2291.375732421875</v>
       </c>
       <c r="CA4" t="n">
-        <v>2136.0625</v>
+        <v>2289.715087890625</v>
       </c>
       <c r="CB4" t="n">
-        <v>2136.273193359375</v>
+        <v>2290.056640625</v>
       </c>
       <c r="CC4" t="n">
-        <v>2136.462646484375</v>
+        <v>2288.677490234375</v>
       </c>
       <c r="CD4" t="n">
-        <v>2136.599609375</v>
+        <v>2288.470703125</v>
       </c>
       <c r="CE4" t="n">
-        <v>2136.7275390625</v>
+        <v>2288.10400390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>2136.656494140625</v>
+        <v>2279.13330078125</v>
       </c>
       <c r="CG4" t="n">
-        <v>2136.651611328125</v>
+        <v>2268.4228515625</v>
       </c>
       <c r="CH4" t="n">
-        <v>2136.660400390625</v>
+        <v>2267.648681640625</v>
       </c>
       <c r="CI4" t="n">
-        <v>2136.65966796875</v>
+        <v>2260.69287109375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2136.665283203125</v>
+        <v>2259.986328125</v>
       </c>
       <c r="CK4" t="n">
-        <v>2136.6875</v>
+        <v>2260.194091796875</v>
       </c>
       <c r="CL4" t="n">
-        <v>2136.712158203125</v>
+        <v>2261.245849609375</v>
       </c>
       <c r="CM4" t="n">
-        <v>2136.77783203125</v>
+        <v>2267.056884765625</v>
       </c>
       <c r="CN4" t="n">
-        <v>2136.8134765625</v>
+        <v>2269.7744140625</v>
       </c>
       <c r="CO4" t="n">
-        <v>2136.804931640625</v>
+        <v>2272.850830078125</v>
       </c>
       <c r="CP4" t="n">
-        <v>2135.183349609375</v>
+        <v>2269.745361328125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2135.060546875</v>
+        <v>2269.48681640625</v>
       </c>
       <c r="CR4" t="n">
-        <v>2134.86669921875</v>
+        <v>2266.277587890625</v>
       </c>
       <c r="CS4" t="n">
-        <v>2143.074951171875</v>
+        <v>2266.98681640625</v>
       </c>
       <c r="CT4" t="n">
-        <v>2147.971923828125</v>
+        <v>2267.586669921875</v>
       </c>
       <c r="CU4" t="n">
-        <v>2149.38427734375</v>
+        <v>2275.516845703125</v>
       </c>
       <c r="CV4" t="n">
-        <v>2151.084716796875</v>
+        <v>2266.60205078125</v>
       </c>
       <c r="CW4" t="n">
-        <v>2153.810302734375</v>
+        <v>2272.431396484375</v>
       </c>
       <c r="CX4" t="n">
-        <v>2152.533935546875</v>
+        <v>2270.773193359375</v>
       </c>
       <c r="CY4" t="n">
-        <v>2151.886962890625</v>
+        <v>2272.027099609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2149.168701171875</v>
+        <v>2272.013427734375</v>
       </c>
       <c r="DA4" t="n">
-        <v>2146.544921875</v>
+        <v>2272.093994140625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2146.9755859375</v>
+        <v>2272.257568359375</v>
       </c>
       <c r="DC4" t="n">
-        <v>2145.88818359375</v>
+        <v>2272.24609375</v>
       </c>
       <c r="DD4" t="n">
-        <v>2145.54541015625</v>
+        <v>2272.25341796875</v>
       </c>
       <c r="DE4" t="n">
-        <v>2147.442626953125</v>
+        <v>2272.3349609375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2147.29052734375</v>
+        <v>2281.596923828125</v>
       </c>
       <c r="DG4" t="n">
-        <v>2147.409912109375</v>
+        <v>2281.68994140625</v>
       </c>
       <c r="DH4" t="n">
-        <v>2147.53271484375</v>
+        <v>2280.862548828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>2147.66943359375</v>
+        <v>2279.4130859375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2147.7890625</v>
+        <v>2278.5966796875</v>
       </c>
       <c r="DK4" t="n">
-        <v>2148.198486328125</v>
+        <v>2280.67919921875</v>
       </c>
       <c r="DL4" t="n">
-        <v>2147.872314453125</v>
+        <v>2281.0830078125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2147.732177734375</v>
+        <v>2281.62939453125</v>
       </c>
       <c r="DN4" t="n">
-        <v>2147.40869140625</v>
+        <v>2278.944091796875</v>
       </c>
       <c r="DO4" t="n">
-        <v>2147.111328125</v>
+        <v>2281.419677734375</v>
       </c>
       <c r="DP4" t="n">
-        <v>2146.79150390625</v>
+        <v>2281.95068359375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2146.34326171875</v>
+        <v>2281.412353515625</v>
       </c>
       <c r="DR4" t="n">
-        <v>2145.939208984375</v>
+        <v>2276.753173828125</v>
       </c>
       <c r="DS4" t="n">
-        <v>2138.875244140625</v>
+        <v>2287.640625</v>
       </c>
       <c r="DT4" t="n">
-        <v>2133.397705078125</v>
+        <v>2285.573974609375</v>
       </c>
       <c r="DU4" t="n">
-        <v>2136.359375</v>
+        <v>2281.9404296875</v>
       </c>
       <c r="DV4" t="n">
-        <v>2135.0576171875</v>
+        <v>2278.93701171875</v>
       </c>
       <c r="DW4" t="n">
-        <v>2134.87451171875</v>
+        <v>2285.65869140625</v>
       </c>
       <c r="DX4" t="n">
-        <v>2134.942626953125</v>
+        <v>2277.55224609375</v>
       </c>
       <c r="DY4" t="n">
-        <v>2135.058837890625</v>
+        <v>2274.3056640625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2135.1396484375</v>
+        <v>2278.024169921875</v>
       </c>
       <c r="EA4" t="n">
-        <v>2135.349609375</v>
+        <v>2279.41845703125</v>
       </c>
       <c r="EB4" t="n">
-        <v>2135.441650390625</v>
+        <v>2281.84326171875</v>
       </c>
       <c r="EC4" t="n">
-        <v>2135.605224609375</v>
+        <v>2281.024658203125</v>
       </c>
       <c r="ED4" t="n">
-        <v>2135.943115234375</v>
+        <v>2280.403564453125</v>
       </c>
       <c r="EE4" t="n">
-        <v>2136.0966796875</v>
+        <v>2279.8203125</v>
       </c>
       <c r="EF4" t="n">
-        <v>2136.143310546875</v>
+        <v>2279.818603515625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2136.27197265625</v>
+        <v>2279.873779296875</v>
       </c>
       <c r="EH4" t="n">
-        <v>2136.419921875</v>
+        <v>2280.014404296875</v>
       </c>
       <c r="EI4" t="n">
-        <v>2136.608642578125</v>
+        <v>2279.5947265625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2136.57666015625</v>
+        <v>2288.4599609375</v>
       </c>
       <c r="EK4" t="n">
-        <v>2136.22412109375</v>
+        <v>2287.32421875</v>
       </c>
       <c r="EL4" t="n">
-        <v>2135.951904296875</v>
+        <v>2281.86376953125</v>
       </c>
       <c r="EM4" t="n">
-        <v>2140.626953125</v>
+        <v>2284.7587890625</v>
       </c>
       <c r="EN4" t="n">
-        <v>2144.26611328125</v>
+        <v>2285.256103515625</v>
       </c>
       <c r="EO4" t="n">
-        <v>2147.927978515625</v>
+        <v>2285.156005859375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2143.952880859375</v>
+        <v>2285.18505859375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2144.068115234375</v>
+        <v>2285.186767578125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2143.232177734375</v>
+        <v>2285.184814453125</v>
       </c>
       <c r="ES4" t="n">
-        <v>2143.31494140625</v>
+        <v>2285.1689453125</v>
       </c>
       <c r="ET4" t="n">
-        <v>2141.2099609375</v>
+        <v>2283.484375</v>
       </c>
       <c r="EU4" t="n">
-        <v>2140.3701171875</v>
+        <v>2283.52880859375</v>
       </c>
       <c r="EV4" t="n">
-        <v>2139.653076171875</v>
+        <v>2283.62109375</v>
       </c>
       <c r="EW4" t="n">
-        <v>2137.22314453125</v>
+        <v>2283.548583984375</v>
       </c>
       <c r="EX4" t="n">
-        <v>2137.680908203125</v>
+        <v>2283.693115234375</v>
       </c>
       <c r="EY4" t="n">
-        <v>2138.703857421875</v>
+        <v>2283.83056640625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2139.501953125</v>
+        <v>2283.784912109375</v>
       </c>
       <c r="FA4" t="n">
-        <v>2136.111083984375</v>
+        <v>2285.514404296875</v>
       </c>
       <c r="FB4" t="n">
-        <v>2135.04150390625</v>
+        <v>2289.935546875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2130.60595703125</v>
+        <v>2292.9111328125</v>
       </c>
       <c r="FD4" t="n">
-        <v>2131.302490234375</v>
+        <v>2290.44873046875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2130.531005859375</v>
+        <v>2287.839111328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>2129.92626953125</v>
+        <v>2288.3447265625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2128.9267578125</v>
+        <v>2288.3291015625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2128.8671875</v>
+        <v>2296.02978515625</v>
       </c>
       <c r="FI4" t="n">
-        <v>2128.834228515625</v>
+        <v>2295.7392578125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2128.84375</v>
+        <v>2294.64208984375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2128.86376953125</v>
+        <v>2294.90087890625</v>
       </c>
       <c r="FL4" t="n">
-        <v>2128.977783203125</v>
+        <v>2294.875</v>
       </c>
       <c r="FM4" t="n">
-        <v>2129.125244140625</v>
+        <v>2295.376953125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2129.33349609375</v>
+        <v>2294.44091796875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2129.374267578125</v>
+        <v>2294.63427734375</v>
       </c>
       <c r="FP4" t="n">
-        <v>2129.376953125</v>
+        <v>2292.59814453125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2129.36279296875</v>
+        <v>2291.15283203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2129.3466796875</v>
+        <v>2290.37890625</v>
       </c>
       <c r="FS4" t="n">
-        <v>2129.354736328125</v>
+        <v>2290.015625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2129.404052734375</v>
+        <v>2290.052978515625</v>
       </c>
       <c r="FU4" t="n">
-        <v>2129.42333984375</v>
+        <v>2287.394775390625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2129.455078125</v>
+        <v>2287.634521484375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2135.7080078125</v>
+        <v>2284.90771484375</v>
       </c>
       <c r="FX4" t="n">
-        <v>2144.793212890625</v>
+        <v>2284.429443359375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2148.10400390625</v>
+        <v>2285.4140625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2147.425537109375</v>
+        <v>2288.47900390625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2146.00732421875</v>
+        <v>2294.70849609375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2135.44775390625</v>
+        <v>2293.271728515625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2133.906982421875</v>
+        <v>2293.10009765625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2135.217529296875</v>
+        <v>2292.29052734375</v>
       </c>
       <c r="GE4" t="n">
-        <v>2136.388916015625</v>
+        <v>2291.240234375</v>
       </c>
       <c r="GF4" t="n">
-        <v>2136.382568359375</v>
+        <v>2291.770263671875</v>
       </c>
       <c r="GG4" t="n">
-        <v>2135.982421875</v>
+        <v>2292.276611328125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2135.317138671875</v>
+        <v>2292.3740234375</v>
       </c>
       <c r="GI4" t="n">
-        <v>2132.234375</v>
+        <v>2292.49658203125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2133.482666015625</v>
+        <v>2293.49755859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2143.336181640625</v>
+        <v>2293.5322265625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2143.1962890625</v>
+        <v>2293.68798828125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2133.1103515625</v>
+        <v>2293.85009765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2133.626953125</v>
+        <v>2293.878173828125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2132.225341796875</v>
+        <v>2295.438232421875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2131.302978515625</v>
+        <v>2298.002685546875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2130.56494140625</v>
+        <v>2297.36669921875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2130.195068359375</v>
+        <v>2297.632080078125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2129.501708984375</v>
+        <v>2297.46875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2129.42138671875</v>
+        <v>2297.3349609375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2129.289794921875</v>
+        <v>2297.506103515625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2129.141357421875</v>
+        <v>2297.56494140625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2128.5087890625</v>
+        <v>2300.99560546875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2128.206787109375</v>
+        <v>2311.925048828125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2127.857421875</v>
+        <v>2302.940673828125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2127.599365234375</v>
+        <v>2300.223876953125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2127.71337890625</v>
+        <v>2301.9501953125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2127.6884765625</v>
+        <v>2301.379150390625</v>
       </c>
       <c r="HC4" t="n">
-        <v>2127.674560546875</v>
+        <v>2301.4501953125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2127.656494140625</v>
+        <v>2301.588623046875</v>
       </c>
       <c r="HE4" t="n">
-        <v>2140.853515625</v>
+        <v>2301.579833984375</v>
       </c>
       <c r="HF4" t="n">
-        <v>2142.214111328125</v>
+        <v>2301.567626953125</v>
       </c>
       <c r="HG4" t="n">
-        <v>2136.86865234375</v>
+        <v>2301.5595703125</v>
       </c>
       <c r="HH4" t="n">
-        <v>2135.284423828125</v>
+        <v>2301.546630859375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2134.87060546875</v>
+        <v>2301.541259765625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2127.28564453125</v>
+        <v>2301.544677734375</v>
       </c>
       <c r="HK4" t="n">
-        <v>2127.375732421875</v>
+        <v>2306.07275390625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2128.0302734375</v>
+        <v>2308.62841796875</v>
       </c>
       <c r="HM4" t="n">
-        <v>2128.970947265625</v>
+        <v>2320.673095703125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2130.916748046875</v>
+        <v>2315.470703125</v>
       </c>
       <c r="HO4" t="n">
-        <v>2132.76904296875</v>
+        <v>2311.561279296875</v>
       </c>
       <c r="HP4" t="n">
-        <v>2134.894775390625</v>
+        <v>2309.062744140625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2137.093994140625</v>
+        <v>2306.237060546875</v>
       </c>
       <c r="HR4" t="n">
-        <v>2138.548583984375</v>
+        <v>2308.434326171875</v>
       </c>
       <c r="HS4" t="n">
-        <v>2137.59814453125</v>
+        <v>2309.40576171875</v>
       </c>
       <c r="HT4" t="n">
-        <v>2134.255615234375</v>
+        <v>2313.461181640625</v>
       </c>
       <c r="HU4" t="n">
-        <v>2126.352294921875</v>
+        <v>2310.363525390625</v>
       </c>
       <c r="HV4" t="n">
-        <v>2126.361572265625</v>
+        <v>2311.314208984375</v>
       </c>
       <c r="HW4" t="n">
-        <v>2126.101318359375</v>
+        <v>2311.77685546875</v>
       </c>
       <c r="HX4" t="n">
-        <v>2125.510986328125</v>
+        <v>2311.731201171875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2127.9052734375</v>
+        <v>2312.1103515625</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2130.296875</v>
+        <v>2312.34326171875</v>
       </c>
       <c r="IA4" t="n">
-        <v>2126.42041015625</v>
+        <v>2312.318115234375</v>
       </c>
       <c r="IB4" t="n">
-        <v>2124.453369140625</v>
+        <v>2304.984130859375</v>
       </c>
       <c r="IC4" t="n">
-        <v>2119.208251953125</v>
+        <v>2314.78466796875</v>
       </c>
       <c r="ID4" t="n">
-        <v>2126.139404296875</v>
+        <v>2313.53125</v>
       </c>
       <c r="IE4" t="n">
-        <v>2126.21875</v>
+        <v>2306.708984375</v>
       </c>
       <c r="IF4" t="n">
-        <v>2126.215576171875</v>
+        <v>2298.20654296875</v>
       </c>
       <c r="IG4" t="n">
-        <v>2126.207763671875</v>
+        <v>2309.351806640625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2126.29052734375</v>
+        <v>2310.660400390625</v>
       </c>
       <c r="II4" t="n">
-        <v>2126.294677734375</v>
+        <v>2316.9853515625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2126.29541015625</v>
+        <v>2303.373046875</v>
       </c>
       <c r="IK4" t="n">
-        <v>2126.992431640625</v>
+        <v>2317.14208984375</v>
       </c>
       <c r="IL4" t="n">
-        <v>2130.697998046875</v>
+        <v>2296.693115234375</v>
       </c>
       <c r="IM4" t="n">
-        <v>2136.997314453125</v>
+        <v>2306.41064453125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2137.872314453125</v>
+        <v>2309.640625</v>
       </c>
       <c r="IO4" t="n">
-        <v>2137.898681640625</v>
+        <v>2303.220703125</v>
       </c>
       <c r="IP4" t="n">
-        <v>2142.4931640625</v>
+        <v>2304.021728515625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2139.21337890625</v>
+        <v>2301.678466796875</v>
       </c>
       <c r="IR4" t="n">
-        <v>2127.522705078125</v>
+        <v>2302.321533203125</v>
       </c>
       <c r="IS4" t="n">
-        <v>2127.573486328125</v>
+        <v>2298.40185546875</v>
       </c>
       <c r="IT4" t="n">
-        <v>2127.115234375</v>
+        <v>2302.1044921875</v>
       </c>
       <c r="IU4" t="n">
-        <v>2127.80224609375</v>
+        <v>2297.644775390625</v>
       </c>
       <c r="IV4" t="n">
-        <v>2127.90625</v>
+        <v>2298.703857421875</v>
       </c>
       <c r="IW4" t="n">
-        <v>2128.046875</v>
+        <v>2298.178466796875</v>
       </c>
       <c r="IX4" t="n">
-        <v>2128.17626953125</v>
+        <v>2296.68310546875</v>
       </c>
       <c r="IY4" t="n">
-        <v>2128.3017578125</v>
+        <v>2286.844970703125</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2123.152099609375</v>
+        <v>2287.853515625</v>
       </c>
       <c r="JA4" t="n">
-        <v>2116.34228515625</v>
+        <v>2287.900390625</v>
       </c>
       <c r="JB4" t="n">
-        <v>2118.8515625</v>
+        <v>2288.062255859375</v>
       </c>
       <c r="JC4" t="n">
-        <v>2116.368408203125</v>
+        <v>2288.177490234375</v>
       </c>
       <c r="JD4" t="n">
-        <v>2114.9677734375</v>
+        <v>2287.473388671875</v>
       </c>
       <c r="JE4" t="n">
-        <v>2115.150634765625</v>
+        <v>2291.977294921875</v>
       </c>
       <c r="JF4" t="n">
-        <v>2114.9931640625</v>
+        <v>2304.847412109375</v>
       </c>
       <c r="JG4" t="n">
-        <v>2115.52685546875</v>
+        <v>2296.78759765625</v>
       </c>
       <c r="JH4" t="n">
-        <v>2118.641845703125</v>
+        <v>2299.59033203125</v>
       </c>
       <c r="JI4" t="n">
-        <v>2120.592041015625</v>
+        <v>2302.18994140625</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2119.66845703125</v>
+        <v>2292.414306640625</v>
       </c>
       <c r="JK4" t="n">
-        <v>2119.74658203125</v>
+        <v>2297.0478515625</v>
       </c>
       <c r="JL4" t="n">
-        <v>2119.719482421875</v>
+        <v>2301.484130859375</v>
       </c>
       <c r="JM4" t="n">
-        <v>2119.7587890625</v>
+        <v>2295.3564453125</v>
       </c>
       <c r="JN4" t="n">
-        <v>2119.81005859375</v>
+        <v>2290.0654296875</v>
       </c>
       <c r="JO4" t="n">
-        <v>2119.918212890625</v>
+        <v>2290.10693359375</v>
       </c>
       <c r="JP4" t="n">
-        <v>2120.063232421875</v>
+        <v>2289.720458984375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2135.456787109375</v>
+        <v>2280.3408203125</v>
       </c>
       <c r="JR4" t="n">
-        <v>2131.700927734375</v>
+        <v>2279.021240234375</v>
       </c>
       <c r="JS4" t="n">
-        <v>2125.843017578125</v>
+        <v>2283.92138671875</v>
       </c>
       <c r="JT4" t="n">
-        <v>2120.495849609375</v>
+        <v>2289.302978515625</v>
       </c>
       <c r="JU4" t="n">
-        <v>2119.1015625</v>
+        <v>2287.939697265625</v>
       </c>
       <c r="JV4" t="n">
-        <v>2120.219970703125</v>
+        <v>2287.76220703125</v>
       </c>
       <c r="JW4" t="n">
-        <v>2111.3369140625</v>
+        <v>2284.937255859375</v>
       </c>
       <c r="JX4" t="n">
-        <v>2104.7578125</v>
+        <v>2285.210693359375</v>
       </c>
       <c r="JY4" t="n">
-        <v>2095.44970703125</v>
+        <v>2285.46484375</v>
       </c>
       <c r="JZ4" t="n">
-        <v>2084.304931640625</v>
+        <v>2286.50830078125</v>
       </c>
       <c r="KA4" t="n">
-        <v>2075.191650390625</v>
+        <v>2273.617431640625</v>
       </c>
       <c r="KB4" t="n">
-        <v>2071.686279296875</v>
+        <v>2273.12451171875</v>
       </c>
       <c r="KC4" t="n">
-        <v>2060.508544921875</v>
+        <v>2273.3798828125</v>
       </c>
       <c r="KD4" t="n">
-        <v>2041.758422851562</v>
+        <v>2273.419189453125</v>
       </c>
       <c r="KE4" t="n">
-        <v>2036.47119140625</v>
+        <v>2271.7109375</v>
       </c>
       <c r="KF4" t="n">
-        <v>2026.825439453125</v>
+        <v>2271.30224609375</v>
       </c>
       <c r="KG4" t="n">
-        <v>2008.361572265625</v>
+        <v>2271.302978515625</v>
       </c>
       <c r="KH4" t="n">
-        <v>1989.966552734375</v>
+        <v>2271.392333984375</v>
       </c>
       <c r="KI4" t="n">
-        <v>1978.43310546875</v>
+        <v>2271.460693359375</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1937.975708007812</v>
+        <v>2271.45849609375</v>
       </c>
       <c r="KK4" t="n">
-        <v>1881.781494140625</v>
+        <v>2271.269287109375</v>
       </c>
       <c r="KL4" t="n">
-        <v>1832.135864257812</v>
+        <v>2271.000732421875</v>
       </c>
       <c r="KM4" t="n">
-        <v>1761.26318359375</v>
+        <v>2271.155029296875</v>
       </c>
       <c r="KN4" t="n">
-        <v>1698.388305664062</v>
+        <v>2271.091796875</v>
       </c>
       <c r="KO4" t="n">
-        <v>1617.522827148438</v>
+        <v>2263.922119140625</v>
       </c>
       <c r="KP4" t="n">
-        <v>1569.337280273438</v>
+        <v>2242.03125</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1517.2109375</v>
+        <v>2226.03955078125</v>
       </c>
       <c r="KR4" t="n">
-        <v>1457.88818359375</v>
+        <v>2195.18212890625</v>
       </c>
       <c r="KS4" t="n">
-        <v>1373.908203125</v>
+        <v>2113.36376953125</v>
       </c>
       <c r="KT4" t="n">
-        <v>1310.652954101562</v>
+        <v>2048.07763671875</v>
       </c>
       <c r="KU4" t="n">
-        <v>1218.400512695312</v>
+        <v>1996.255615234375</v>
       </c>
       <c r="KV4" t="n">
-        <v>1148.637939453125</v>
+        <v>1897.361572265625</v>
       </c>
       <c r="KW4" t="n">
-        <v>1075.286010742188</v>
+        <v>1805.905029296875</v>
       </c>
       <c r="KX4" t="n">
-        <v>988.455078125</v>
+        <v>1693.331420898438</v>
       </c>
       <c r="KY4" t="n">
-        <v>934.4595336914062</v>
+        <v>1630.688842773438</v>
       </c>
       <c r="KZ4" t="n">
-        <v>891.6973266601562</v>
+        <v>1544.068481445312</v>
       </c>
       <c r="LA4" t="n">
-        <v>832.251708984375</v>
+        <v>1451.261596679688</v>
       </c>
       <c r="LB4" t="n">
-        <v>811.7999267578125</v>
+        <v>1347.47509765625</v>
       </c>
       <c r="LC4" t="n">
-        <v>799.6751098632812</v>
+        <v>1231.4580078125</v>
       </c>
       <c r="LD4" t="n">
-        <v>786.21142578125</v>
+        <v>1112.954223632812</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1001.153991699219</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>898.7286376953125</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>835.6277465820312</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>745.3098754882812</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>667.2561645507812</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>593.4251098632812</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>547.6796875</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>493.0132141113281</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>469.5203247070312</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>456.6522827148438</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>379.552001953125</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>411.7814331054688</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>325.7794799804688</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>323.5361938476562</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>373.7160339355469</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>336.0170288085938</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>327.3270874023438</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>335.6170959472656</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>342.1890869140625</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>341.7094116210938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>340.2200622558594</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>324.006591796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>310.5675964355469</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>311.28271484375</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>312.6950073242188</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>313.7396850585938</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>311.1132507324219</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>312.4841918945312</v>
       </c>
     </row>
   </sheetData>
